--- a/data/entities/entity_template.xlsx
+++ b/data/entities/entity_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14840" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14840" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>A satisfied Microsoft Office user</author>
+    <author>David Bresch</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -257,6 +258,19 @@
             <rFont val="Arial"/>
           </rPr>
           <t>used to be once VulnCurveID 520 in catXos, then 1001. Here set to 1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>edited 20150122</t>
         </r>
       </text>
     </comment>
@@ -869,7 +883,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -958,6 +972,24 @@
       <name val="SwissReSans"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1042,7 +1074,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1052,6 +1084,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1139,10 +1173,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 3" xfId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="5"/>
@@ -1547,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
@@ -2094,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3438,14 +3474,14 @@
         <v>25</v>
       </c>
       <c r="C64" s="39">
-        <v>1E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="D64" s="39">
-        <v>1E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="E64" s="39">
         <f t="shared" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <v>1.3225E-6</v>
       </c>
       <c r="F64" s="38" t="s">
         <v>13</v>
@@ -3459,14 +3495,14 @@
         <v>30</v>
       </c>
       <c r="C65" s="39">
-        <v>1.7751479289940828E-3</v>
+        <v>2.041420118343195E-3</v>
       </c>
       <c r="D65" s="39">
-        <v>6.7600000000000004E-3</v>
+        <v>7.7739999999999997E-3</v>
       </c>
       <c r="E65" s="39">
         <f t="shared" si="3"/>
-        <v>1.2E-5</v>
+        <v>1.5869999999999999E-5</v>
       </c>
       <c r="F65" s="38" t="s">
         <v>13</v>
@@ -3480,14 +3516,14 @@
         <v>35</v>
       </c>
       <c r="C66" s="39">
-        <v>3.6725325172149961E-3</v>
+        <v>4.2234123947972454E-3</v>
       </c>
       <c r="D66" s="39">
-        <v>3.9210000000000002E-2</v>
+        <v>4.50915E-2</v>
       </c>
       <c r="E66" s="39">
         <f t="shared" si="3"/>
-        <v>1.44E-4</v>
+        <v>1.9044E-4</v>
       </c>
       <c r="F66" s="38" t="s">
         <v>13</v>
@@ -3501,14 +3537,14 @@
         <v>40</v>
       </c>
       <c r="C67" s="39">
-        <v>7.4997665078920337E-3</v>
+        <v>8.6247314840758385E-3</v>
       </c>
       <c r="D67" s="39">
-        <v>0.10707</v>
+        <v>0.12313049999999999</v>
       </c>
       <c r="E67" s="39">
         <f t="shared" si="3"/>
-        <v>8.03E-4</v>
+        <v>1.0619675E-3</v>
       </c>
       <c r="F67" s="38" t="s">
         <v>13</v>
@@ -3522,14 +3558,14 @@
         <v>45</v>
       </c>
       <c r="C68" s="39">
-        <v>1.2635564144023346E-2</v>
+        <v>1.4530898765626847E-2</v>
       </c>
       <c r="D68" s="39">
-        <v>0.25357000000000002</v>
+        <v>0.29160550000000002</v>
       </c>
       <c r="E68" s="39">
         <f t="shared" si="3"/>
-        <v>3.2039999999999998E-3</v>
+        <v>4.2372899999999995E-3</v>
       </c>
       <c r="F68" s="38" t="s">
         <v>13</v>
@@ -3543,14 +3579,14 @@
         <v>50</v>
       </c>
       <c r="C69" s="39">
-        <v>1.8496388303423438E-2</v>
+        <v>2.1270846548936951E-2</v>
       </c>
       <c r="D69" s="39">
-        <v>0.48869000000000001</v>
+        <v>0.56199349999999992</v>
       </c>
       <c r="E69" s="39">
         <f t="shared" si="3"/>
-        <v>9.0390000000000002E-3</v>
+        <v>1.1954077499999997E-2</v>
       </c>
       <c r="F69" s="38" t="s">
         <v>13</v>
@@ -3564,14 +3600,14 @@
         <v>55</v>
       </c>
       <c r="C70" s="39">
-        <v>2.3704874136080186E-2</v>
+        <v>2.7260605256492213E-2</v>
       </c>
       <c r="D70" s="39">
-        <v>0.82906999999999997</v>
+        <v>0.95343049999999985</v>
       </c>
       <c r="E70" s="39">
         <f t="shared" si="3"/>
-        <v>1.9653E-2</v>
+        <v>2.5991092499999993E-2</v>
       </c>
       <c r="F70" s="38" t="s">
         <v>13</v>
@@ -3585,14 +3621,14 @@
         <v>60</v>
       </c>
       <c r="C71" s="40">
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="D71" s="40">
         <v>1</v>
       </c>
       <c r="E71" s="39">
         <f t="shared" si="3"/>
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="F71" s="38" t="s">
         <v>13</v>
@@ -3606,14 +3642,14 @@
         <v>65</v>
       </c>
       <c r="C72" s="40">
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="D72" s="40">
         <v>1</v>
       </c>
       <c r="E72" s="39">
         <f t="shared" si="3"/>
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="F72" s="38" t="s">
         <v>13</v>
@@ -3627,14 +3663,14 @@
         <v>70</v>
       </c>
       <c r="C73" s="40">
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="D73" s="40">
         <v>1</v>
       </c>
       <c r="E73" s="39">
         <f t="shared" si="3"/>
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="F73" s="38" t="s">
         <v>13</v>
@@ -3648,14 +3684,14 @@
         <v>75</v>
       </c>
       <c r="C74" s="40">
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="D74" s="40">
         <v>1</v>
       </c>
       <c r="E74" s="39">
         <f t="shared" si="3"/>
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="F74" s="38" t="s">
         <v>13</v>
@@ -3669,14 +3705,14 @@
         <v>80</v>
       </c>
       <c r="C75" s="40">
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="D75" s="40">
         <v>1</v>
       </c>
       <c r="E75" s="39">
         <f t="shared" si="3"/>
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="F75" s="38" t="s">
         <v>13</v>
@@ -3690,14 +3726,14 @@
         <v>85</v>
       </c>
       <c r="C76" s="40">
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="D76" s="40">
         <v>1</v>
       </c>
       <c r="E76" s="39">
         <f t="shared" si="3"/>
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="F76" s="38" t="s">
         <v>13</v>
@@ -3711,14 +3747,14 @@
         <v>90</v>
       </c>
       <c r="C77" s="40">
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="D77" s="40">
         <v>1</v>
       </c>
       <c r="E77" s="39">
         <f t="shared" si="3"/>
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="F77" s="38" t="s">
         <v>13</v>
@@ -3732,14 +3768,14 @@
         <v>95</v>
       </c>
       <c r="C78" s="40">
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="D78" s="40">
         <v>1</v>
       </c>
       <c r="E78" s="39">
         <f t="shared" si="3"/>
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="F78" s="38" t="s">
         <v>13</v>
@@ -3753,14 +3789,14 @@
         <v>100</v>
       </c>
       <c r="C79" s="48">
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="D79" s="48">
         <v>1</v>
       </c>
       <c r="E79" s="66">
         <f t="shared" si="3"/>
-        <v>3.7253000000000001E-2</v>
+        <v>4.2840949999999996E-2</v>
       </c>
       <c r="F79" s="49" t="s">
         <v>13</v>

--- a/data/entities/entity_template.xlsx
+++ b/data/entities/entity_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="620" windowWidth="24460" windowHeight="12480" tabRatio="766" activeTab="6"/>
+    <workbookView xWindow="860" yWindow="620" windowWidth="24460" windowHeight="12480" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -1096,11 +1096,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="183" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="189" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="191" formatCode="0.0"/>
-    <numFmt numFmtId="192" formatCode="0.0%"/>
-    <numFmt numFmtId="193" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1288,9 +1288,9 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
@@ -1301,56 +1301,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="191" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="193" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="11" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="193" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="11" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="11" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="11" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1358,23 +1358,23 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="13" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="193" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="13" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="13" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="13" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1384,7 +1384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1796,7 +1796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
@@ -2052,7 +2054,7 @@
         <v>12604279672.155575</v>
       </c>
       <c r="F12" s="79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2073,7 +2075,7 @@
         <v>12596064143.542929</v>
       </c>
       <c r="F13" s="79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2094,7 +2096,7 @@
         <v>13445096962.15469</v>
       </c>
       <c r="F14" s="79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8010,7 +8012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>

--- a/data/entities/entity_template.xlsx
+++ b/data/entities/entity_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="620" windowWidth="24460" windowHeight="12480" tabRatio="766"/>
+    <workbookView xWindow="860" yWindow="620" windowWidth="24460" windowHeight="12480" tabRatio="766" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,8 @@
           </rPr>
           <t>added to hazard
 e.g. -2 means that this measure reduces the hazard intensity by 2
-default=0</t>
+default=0
+Note: the field is internally named "hazard_intensity_impact_b" (spaces replaced by underscores in MATLAB, one can also use undescores in Excel already). One can add another column in Ecel named "hazard_intensity_impact_a", since the full hazard transformation is: intensity=orig_intensity*a+b</t>
         </r>
       </text>
     </comment>
@@ -1796,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -5229,8 +5230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/data/entities/entity_template.xlsx
+++ b/data/entities/entity_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="620" windowWidth="24460" windowHeight="12480" tabRatio="766" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -260,11 +260,12 @@
             <color indexed="81"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>added 20141222</t>
+          <t>added 20141222
+20160529, replaced with a reasonable damage function (inspired byEQ California, expert guess)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A86" authorId="1">
+    <comment ref="A81" authorId="1">
       <text>
         <r>
           <rPr>
@@ -277,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F86" authorId="0">
+    <comment ref="F81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,6 +287,31 @@
             <rFont val="Arial"/>
           </rPr>
           <t>climada_damagefunction_generate(0:10:500,0,1,0.75,'s-shape','VQ')</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B132" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>20160529 added to just to have something in. Copy/paste from TC, indensity multiplied by 10 (to cover up to 1200 mm of rain, then last lines 1500, 2000 and 3000 added.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F132" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>climada_damagefunction_generate(0:5:120,25,1,0.375,'s-shape','TC',0);</t>
         </r>
       </text>
     </comment>
@@ -775,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="83">
   <si>
     <t>Latitude</t>
   </si>
@@ -1091,17 +1117,20 @@
   <si>
     <t>THIS tab contains OLD damagefunctions (just to keep track, not in use)</t>
   </si>
+  <si>
+    <t>TR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1204,7 +1233,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,6 +1282,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1289,69 +1324,69 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1359,23 +1394,23 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="13" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="13" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1385,9 +1420,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2344,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3744,15 +3784,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="58">
-        <v>1</v>
-      </c>
-      <c r="B67" s="59">
-        <v>4</v>
-      </c>
-      <c r="C67" s="60">
-        <v>1E-3</v>
+    <row r="67" spans="1:6" s="90" customFormat="1">
+      <c r="A67" s="89">
+        <v>1</v>
+      </c>
+      <c r="B67" s="40">
+        <v>0</v>
+      </c>
+      <c r="C67" s="39">
+        <v>0</v>
       </c>
       <c r="D67" s="61">
         <v>0</v>
@@ -3761,386 +3801,386 @@
         <f>C67*D67</f>
         <v>0</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="F67" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="58">
-        <v>1</v>
-      </c>
-      <c r="B68" s="59">
-        <v>4.5</v>
-      </c>
-      <c r="C68" s="60">
-        <v>0.01</v>
+    <row r="68" spans="1:6" s="90" customFormat="1">
+      <c r="A68" s="89">
+        <v>1</v>
+      </c>
+      <c r="B68" s="40">
+        <v>1</v>
+      </c>
+      <c r="C68" s="39">
+        <v>0</v>
       </c>
       <c r="D68" s="61">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E68" s="61">
-        <f t="shared" ref="E68:E85" si="3">C68*D68</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F68" s="59" t="s">
+        <f t="shared" ref="E68:E80" si="3">C68*D68</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="58">
-        <v>1</v>
-      </c>
-      <c r="B69" s="59">
-        <v>5</v>
-      </c>
-      <c r="C69" s="60">
-        <v>0.02</v>
+    <row r="69" spans="1:6" s="90" customFormat="1">
+      <c r="A69" s="89">
+        <v>1</v>
+      </c>
+      <c r="B69" s="40">
+        <v>2</v>
+      </c>
+      <c r="C69" s="39">
+        <v>0</v>
       </c>
       <c r="D69" s="61">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E69" s="61">
         <f t="shared" si="3"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="F69" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="58">
-        <v>1</v>
-      </c>
-      <c r="B70" s="59">
-        <v>5.5</v>
-      </c>
-      <c r="C70" s="60">
-        <v>2.3E-2</v>
+    <row r="70" spans="1:6" s="90" customFormat="1">
+      <c r="A70" s="89">
+        <v>1</v>
+      </c>
+      <c r="B70" s="40">
+        <v>3</v>
+      </c>
+      <c r="C70" s="39">
+        <v>0</v>
       </c>
       <c r="D70" s="61">
-        <v>4.1000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E70" s="61">
         <f t="shared" si="3"/>
-        <v>9.4300000000000004E-4</v>
-      </c>
-      <c r="F70" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="58">
-        <v>1</v>
-      </c>
-      <c r="B71" s="59">
-        <v>6</v>
-      </c>
-      <c r="C71" s="60">
-        <v>0.03</v>
+    <row r="71" spans="1:6" s="90" customFormat="1">
+      <c r="A71" s="89">
+        <v>1</v>
+      </c>
+      <c r="B71" s="40">
+        <v>4</v>
+      </c>
+      <c r="C71" s="39">
+        <v>0</v>
       </c>
       <c r="D71" s="61">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E71" s="61">
         <f t="shared" si="3"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="F71" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="58">
-        <v>1</v>
-      </c>
-      <c r="B72" s="59">
-        <v>6.5</v>
-      </c>
-      <c r="C72" s="60">
-        <v>0.04</v>
+    <row r="72" spans="1:6" s="90" customFormat="1">
+      <c r="A72" s="89">
+        <v>1</v>
+      </c>
+      <c r="B72" s="40">
+        <v>5</v>
+      </c>
+      <c r="C72" s="39">
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="D72" s="61">
-        <v>7.0000000000000007E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="E72" s="61">
         <f t="shared" si="3"/>
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="F72" s="59" t="s">
+        <v>9.0249999999999998E-5</v>
+      </c>
+      <c r="F72" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="58">
-        <v>1</v>
-      </c>
-      <c r="B73" s="59">
-        <v>7</v>
-      </c>
-      <c r="C73" s="60">
-        <v>0.06</v>
+    <row r="73" spans="1:6" s="90" customFormat="1">
+      <c r="A73" s="89">
+        <v>1</v>
+      </c>
+      <c r="B73" s="40">
+        <v>6</v>
+      </c>
+      <c r="C73" s="39">
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="D73" s="61">
-        <v>0.1</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="E73" s="61">
         <f t="shared" si="3"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F73" s="59" t="s">
+        <v>1.8232900000000002E-3</v>
+      </c>
+      <c r="F73" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="58">
-        <v>1</v>
-      </c>
-      <c r="B74" s="59">
-        <v>7.5</v>
-      </c>
-      <c r="C74" s="60">
-        <v>9.5000000000000001E-2</v>
+    <row r="74" spans="1:6" s="90" customFormat="1">
+      <c r="A74" s="89">
+        <v>1</v>
+      </c>
+      <c r="B74" s="40">
+        <v>7</v>
+      </c>
+      <c r="C74" s="39">
+        <v>0.12720000000000001</v>
       </c>
       <c r="D74" s="61">
-        <v>0.12</v>
+        <v>0.12720000000000001</v>
       </c>
       <c r="E74" s="61">
         <f t="shared" si="3"/>
-        <v>1.14E-2</v>
-      </c>
-      <c r="F74" s="59" t="s">
+        <v>1.6179840000000001E-2</v>
+      </c>
+      <c r="F74" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="58">
-        <v>1</v>
-      </c>
-      <c r="B75" s="59">
+    <row r="75" spans="1:6" s="90" customFormat="1">
+      <c r="A75" s="89">
+        <v>1</v>
+      </c>
+      <c r="B75" s="40">
         <v>8</v>
       </c>
-      <c r="C75" s="60">
-        <v>0.1</v>
+      <c r="C75" s="39">
+        <v>0.2848</v>
       </c>
       <c r="D75" s="61">
-        <v>0.2</v>
+        <v>0.2848</v>
       </c>
       <c r="E75" s="61">
         <f t="shared" si="3"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="F75" s="59" t="s">
+        <v>8.1111039999999995E-2</v>
+      </c>
+      <c r="F75" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="58">
-        <v>1</v>
-      </c>
-      <c r="B76" s="59">
-        <v>8.5</v>
-      </c>
-      <c r="C76" s="60">
-        <v>0.11</v>
+    <row r="76" spans="1:6" s="90" customFormat="1">
+      <c r="A76" s="89">
+        <v>1</v>
+      </c>
+      <c r="B76" s="40">
+        <v>9</v>
+      </c>
+      <c r="C76" s="39">
+        <v>0.5</v>
       </c>
       <c r="D76" s="61">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E76" s="61">
         <f t="shared" si="3"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F76" s="59" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="F76" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="58">
-        <v>1</v>
-      </c>
-      <c r="B77" s="59">
-        <v>9</v>
-      </c>
-      <c r="C77" s="60">
-        <v>0.15</v>
+    <row r="77" spans="1:6" s="90" customFormat="1">
+      <c r="A77" s="89">
+        <v>1</v>
+      </c>
+      <c r="B77" s="40">
+        <v>10</v>
+      </c>
+      <c r="C77" s="39">
+        <v>0.71519999999999995</v>
       </c>
       <c r="D77" s="61">
-        <v>0.4</v>
+        <v>0.71519999999999995</v>
       </c>
       <c r="E77" s="61">
         <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="F77" s="59" t="s">
+        <v>0.51151103999999992</v>
+      </c>
+      <c r="F77" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="58">
-        <v>1</v>
-      </c>
-      <c r="B78" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="C78" s="60">
-        <v>0.159</v>
+    <row r="78" spans="1:6" s="90" customFormat="1">
+      <c r="A78" s="89">
+        <v>1</v>
+      </c>
+      <c r="B78" s="40">
+        <v>11</v>
+      </c>
+      <c r="C78" s="39">
+        <v>0.87280000000000002</v>
       </c>
       <c r="D78" s="61">
-        <v>0.43</v>
+        <v>0.87280000000000002</v>
       </c>
       <c r="E78" s="61">
         <f t="shared" si="3"/>
-        <v>6.837E-2</v>
-      </c>
-      <c r="F78" s="59" t="s">
+        <v>0.76177983999999999</v>
+      </c>
+      <c r="F78" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="58">
-        <v>1</v>
-      </c>
-      <c r="B79" s="59">
-        <v>10</v>
-      </c>
-      <c r="C79" s="60">
-        <v>0.2</v>
+    <row r="79" spans="1:6" s="90" customFormat="1">
+      <c r="A79" s="89">
+        <v>1</v>
+      </c>
+      <c r="B79" s="40">
+        <v>12</v>
+      </c>
+      <c r="C79" s="39">
+        <v>0.95730000000000004</v>
       </c>
       <c r="D79" s="61">
-        <v>0.45</v>
+        <v>0.95730000000000004</v>
       </c>
       <c r="E79" s="61">
         <f t="shared" si="3"/>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="F79" s="59" t="s">
+        <v>0.91642329000000011</v>
+      </c>
+      <c r="F79" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="58">
-        <v>1</v>
-      </c>
-      <c r="B80" s="59">
-        <v>10.5</v>
-      </c>
-      <c r="C80" s="60">
-        <v>0.23</v>
-      </c>
-      <c r="D80" s="61">
-        <v>0.47</v>
-      </c>
-      <c r="E80" s="61">
+    <row r="80" spans="1:6" s="90" customFormat="1">
+      <c r="A80" s="91">
+        <v>1</v>
+      </c>
+      <c r="B80" s="48">
+        <v>13</v>
+      </c>
+      <c r="C80" s="66">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="D80" s="65">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="E80" s="65">
         <f t="shared" si="3"/>
-        <v>0.1081</v>
-      </c>
-      <c r="F80" s="59" t="s">
+        <v>0.98109025000000005</v>
+      </c>
+      <c r="F80" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="58">
-        <v>1</v>
-      </c>
-      <c r="B81" s="59">
-        <v>11</v>
-      </c>
-      <c r="C81" s="60">
-        <v>0.27</v>
-      </c>
-      <c r="D81" s="61">
-        <v>0.49</v>
-      </c>
-      <c r="E81" s="61">
-        <f t="shared" si="3"/>
-        <v>0.1323</v>
-      </c>
-      <c r="F81" s="59" t="s">
-        <v>14</v>
+      <c r="A81" s="37">
+        <v>1</v>
+      </c>
+      <c r="B81" s="37">
+        <v>0</v>
+      </c>
+      <c r="C81" s="37">
+        <v>0</v>
+      </c>
+      <c r="D81" s="37">
+        <v>0</v>
+      </c>
+      <c r="E81" s="37">
+        <f>C81*D81</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="58">
-        <v>1</v>
-      </c>
-      <c r="B82" s="59">
-        <v>11.5</v>
-      </c>
-      <c r="C82" s="60">
-        <v>0.31</v>
-      </c>
-      <c r="D82" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="E82" s="61">
-        <f t="shared" si="3"/>
-        <v>0.155</v>
-      </c>
-      <c r="F82" s="59" t="s">
-        <v>14</v>
+      <c r="A82" s="37">
+        <v>1</v>
+      </c>
+      <c r="B82" s="37">
+        <v>10</v>
+      </c>
+      <c r="C82" s="37">
+        <v>0</v>
+      </c>
+      <c r="D82" s="37">
+        <v>0</v>
+      </c>
+      <c r="E82" s="37">
+        <f t="shared" ref="E82:E131" si="4">C82*D82</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="58">
-        <v>1</v>
-      </c>
-      <c r="B83" s="59">
-        <v>12</v>
-      </c>
-      <c r="C83" s="60">
-        <v>0.38</v>
-      </c>
-      <c r="D83" s="61">
-        <v>0.51</v>
-      </c>
-      <c r="E83" s="61">
-        <f t="shared" si="3"/>
-        <v>0.1938</v>
-      </c>
-      <c r="F83" s="59" t="s">
-        <v>14</v>
+      <c r="A83" s="37">
+        <v>1</v>
+      </c>
+      <c r="B83" s="37">
+        <v>20</v>
+      </c>
+      <c r="C83" s="37">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D83" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="E83" s="37">
+        <f t="shared" si="4"/>
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="F83" s="37" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="58">
-        <v>1</v>
-      </c>
-      <c r="B84" s="59">
-        <v>12.5</v>
-      </c>
-      <c r="C84" s="60">
-        <v>0.39</v>
-      </c>
-      <c r="D84" s="61">
-        <v>0.52</v>
-      </c>
-      <c r="E84" s="61">
-        <f t="shared" si="3"/>
-        <v>0.20280000000000001</v>
-      </c>
-      <c r="F84" s="59" t="s">
-        <v>14</v>
+      <c r="A84" s="37">
+        <v>1</v>
+      </c>
+      <c r="B84" s="37">
+        <v>30</v>
+      </c>
+      <c r="C84" s="37">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D84" s="37">
+        <v>2.3E-3</v>
+      </c>
+      <c r="E84" s="37">
+        <f t="shared" si="4"/>
+        <v>3.9099999999999998E-6</v>
+      </c>
+      <c r="F84" s="37" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="62">
-        <v>1</v>
-      </c>
-      <c r="B85" s="63">
-        <v>13</v>
-      </c>
-      <c r="C85" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="D85" s="65">
-        <v>0.53</v>
-      </c>
-      <c r="E85" s="65">
-        <f t="shared" si="3"/>
-        <v>0.21200000000000002</v>
-      </c>
-      <c r="F85" s="63" t="s">
-        <v>14</v>
+      <c r="A85" s="37">
+        <v>1</v>
+      </c>
+      <c r="B85" s="37">
+        <v>40</v>
+      </c>
+      <c r="C85" s="37">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D85" s="37">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="E85" s="37">
+        <f t="shared" si="4"/>
+        <v>1.271E-5</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4148,17 +4188,17 @@
         <v>1</v>
       </c>
       <c r="B86" s="37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C86" s="37">
-        <v>0</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="D86" s="37">
-        <v>0</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="E86" s="37">
-        <f>C86*D86</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3.0719999999999997E-5</v>
       </c>
       <c r="F86" s="37" t="s">
         <v>15</v>
@@ -4169,17 +4209,17 @@
         <v>1</v>
       </c>
       <c r="B87" s="37">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C87" s="37">
-        <v>0</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="D87" s="37">
-        <v>0</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="E87" s="37">
-        <f t="shared" ref="E87:E136" si="4">C87*D87</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>6.745E-5</v>
       </c>
       <c r="F87" s="37" t="s">
         <v>15</v>
@@ -4190,17 +4230,17 @@
         <v>1</v>
       </c>
       <c r="B88" s="37">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C88" s="37">
-        <v>6.9999999999999999E-4</v>
+        <v>1.01E-2</v>
       </c>
       <c r="D88" s="37">
-        <v>1E-3</v>
+        <v>1.35E-2</v>
       </c>
       <c r="E88" s="37">
         <f t="shared" si="4"/>
-        <v>6.9999999999999997E-7</v>
+        <v>1.3634999999999998E-4</v>
       </c>
       <c r="F88" s="37" t="s">
         <v>15</v>
@@ -4211,17 +4251,17 @@
         <v>1</v>
       </c>
       <c r="B89" s="37">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C89" s="37">
-        <v>1.6999999999999999E-3</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="D89" s="37">
-        <v>2.3E-3</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="E89" s="37">
         <f t="shared" si="4"/>
-        <v>3.9099999999999998E-6</v>
+        <v>2.5853999999999997E-4</v>
       </c>
       <c r="F89" s="37" t="s">
         <v>15</v>
@@ -4232,17 +4272,17 @@
         <v>1</v>
       </c>
       <c r="B90" s="37">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C90" s="37">
-        <v>3.0999999999999999E-3</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="D90" s="37">
-        <v>4.1000000000000003E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E90" s="37">
         <f t="shared" si="4"/>
-        <v>1.271E-5</v>
+        <v>4.6750000000000003E-4</v>
       </c>
       <c r="F90" s="37" t="s">
         <v>15</v>
@@ -4253,17 +4293,17 @@
         <v>1</v>
       </c>
       <c r="B91" s="37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C91" s="37">
-        <v>4.7999999999999996E-3</v>
+        <v>2.47E-2</v>
       </c>
       <c r="D91" s="37">
-        <v>6.4000000000000003E-3</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="E91" s="37">
         <f t="shared" si="4"/>
-        <v>3.0719999999999997E-5</v>
+        <v>8.1262999999999995E-4</v>
       </c>
       <c r="F91" s="37" t="s">
         <v>15</v>
@@ -4274,17 +4314,17 @@
         <v>1</v>
       </c>
       <c r="B92" s="37">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C92" s="37">
-        <v>7.1000000000000004E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D92" s="37">
-        <v>9.4999999999999998E-3</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="E92" s="37">
         <f t="shared" si="4"/>
-        <v>6.745E-5</v>
+        <v>1.3664E-3</v>
       </c>
       <c r="F92" s="37" t="s">
         <v>15</v>
@@ -4295,17 +4335,17 @@
         <v>1</v>
       </c>
       <c r="B93" s="37">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C93" s="37">
-        <v>1.01E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="D93" s="37">
-        <v>1.35E-2</v>
+        <v>5.45E-2</v>
       </c>
       <c r="E93" s="37">
         <f t="shared" si="4"/>
-        <v>1.3634999999999998E-4</v>
+        <v>2.2290499999999998E-3</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>15</v>
@@ -4316,17 +4356,17 @@
         <v>1</v>
       </c>
       <c r="B94" s="37">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C94" s="37">
-        <v>1.3899999999999999E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="D94" s="37">
-        <v>1.8599999999999998E-2</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="E94" s="37">
         <f t="shared" si="4"/>
-        <v>2.5853999999999997E-4</v>
+        <v>3.5380499999999996E-3</v>
       </c>
       <c r="F94" s="37" t="s">
         <v>15</v>
@@ -4337,17 +4377,17 @@
         <v>1</v>
       </c>
       <c r="B95" s="37">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C95" s="37">
-        <v>1.8700000000000001E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D95" s="37">
-        <v>2.5000000000000001E-2</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="E95" s="37">
         <f t="shared" si="4"/>
-        <v>4.6750000000000003E-4</v>
+        <v>5.4592E-3</v>
       </c>
       <c r="F95" s="37" t="s">
         <v>15</v>
@@ -4358,17 +4398,17 @@
         <v>1</v>
       </c>
       <c r="B96" s="37">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C96" s="37">
-        <v>2.47E-2</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="D96" s="37">
-        <v>3.2899999999999999E-2</v>
+        <v>0.1048</v>
       </c>
       <c r="E96" s="37">
         <f t="shared" si="4"/>
-        <v>8.1262999999999995E-4</v>
+        <v>8.2372800000000013E-3</v>
       </c>
       <c r="F96" s="37" t="s">
         <v>15</v>
@@ -4379,17 +4419,17 @@
         <v>1</v>
       </c>
       <c r="B97" s="37">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C97" s="37">
-        <v>3.2000000000000001E-2</v>
+        <v>9.5399999999999999E-2</v>
       </c>
       <c r="D97" s="37">
-        <v>4.2700000000000002E-2</v>
+        <v>0.12720000000000001</v>
       </c>
       <c r="E97" s="37">
         <f t="shared" si="4"/>
-        <v>1.3664E-3</v>
+        <v>1.2134880000000001E-2</v>
       </c>
       <c r="F97" s="37" t="s">
         <v>15</v>
@@ -4400,17 +4440,17 @@
         <v>1</v>
       </c>
       <c r="B98" s="37">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="C98" s="37">
-        <v>4.0899999999999999E-2</v>
+        <v>0.1145</v>
       </c>
       <c r="D98" s="37">
-        <v>5.45E-2</v>
+        <v>0.1527</v>
       </c>
       <c r="E98" s="37">
         <f t="shared" si="4"/>
-        <v>2.2290499999999998E-3</v>
+        <v>1.748415E-2</v>
       </c>
       <c r="F98" s="37" t="s">
         <v>15</v>
@@ -4421,17 +4461,17 @@
         <v>1</v>
       </c>
       <c r="B99" s="37">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C99" s="37">
-        <v>5.1499999999999997E-2</v>
+        <v>0.13589999999999999</v>
       </c>
       <c r="D99" s="37">
-        <v>6.8699999999999997E-2</v>
+        <v>0.1812</v>
       </c>
       <c r="E99" s="37">
         <f t="shared" si="4"/>
-        <v>3.5380499999999996E-3</v>
+        <v>2.4625079999999997E-2</v>
       </c>
       <c r="F99" s="37" t="s">
         <v>15</v>
@@ -4442,17 +4482,17 @@
         <v>1</v>
       </c>
       <c r="B100" s="37">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="C100" s="37">
-        <v>6.4000000000000001E-2</v>
+        <v>0.15959999999999999</v>
       </c>
       <c r="D100" s="37">
-        <v>8.5300000000000001E-2</v>
+        <v>0.21279999999999999</v>
       </c>
       <c r="E100" s="37">
         <f t="shared" si="4"/>
-        <v>5.4592E-3</v>
+        <v>3.3962879999999994E-2</v>
       </c>
       <c r="F100" s="37" t="s">
         <v>15</v>
@@ -4463,17 +4503,17 @@
         <v>1</v>
       </c>
       <c r="B101" s="37">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C101" s="37">
-        <v>7.8600000000000003E-2</v>
+        <v>0.18559999999999999</v>
       </c>
       <c r="D101" s="37">
-        <v>0.1048</v>
+        <v>0.24740000000000001</v>
       </c>
       <c r="E101" s="37">
         <f t="shared" si="4"/>
-        <v>8.2372800000000013E-3</v>
+        <v>4.5917439999999997E-2</v>
       </c>
       <c r="F101" s="37" t="s">
         <v>15</v>
@@ -4484,17 +4524,17 @@
         <v>1</v>
       </c>
       <c r="B102" s="37">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C102" s="37">
-        <v>9.5399999999999999E-2</v>
+        <v>0.21360000000000001</v>
       </c>
       <c r="D102" s="37">
-        <v>0.12720000000000001</v>
+        <v>0.2848</v>
       </c>
       <c r="E102" s="37">
         <f t="shared" si="4"/>
-        <v>1.2134880000000001E-2</v>
+        <v>6.0833280000000003E-2</v>
       </c>
       <c r="F102" s="37" t="s">
         <v>15</v>
@@ -4505,17 +4545,17 @@
         <v>1</v>
       </c>
       <c r="B103" s="37">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="C103" s="37">
-        <v>0.1145</v>
+        <v>0.24349999999999999</v>
       </c>
       <c r="D103" s="37">
-        <v>0.1527</v>
+        <v>0.3246</v>
       </c>
       <c r="E103" s="37">
         <f t="shared" si="4"/>
-        <v>1.748415E-2</v>
+        <v>7.9040100000000002E-2</v>
       </c>
       <c r="F103" s="37" t="s">
         <v>15</v>
@@ -4526,17 +4566,17 @@
         <v>1</v>
       </c>
       <c r="B104" s="37">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="C104" s="37">
-        <v>0.13589999999999999</v>
+        <v>0.27489999999999998</v>
       </c>
       <c r="D104" s="37">
-        <v>0.1812</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="E104" s="37">
         <f t="shared" si="4"/>
-        <v>2.4625079999999997E-2</v>
+        <v>0.10075084999999999</v>
       </c>
       <c r="F104" s="37" t="s">
         <v>15</v>
@@ -4547,17 +4587,17 @@
         <v>1</v>
       </c>
       <c r="B105" s="37">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="C105" s="37">
-        <v>0.15959999999999999</v>
+        <v>0.30759999999999998</v>
       </c>
       <c r="D105" s="37">
-        <v>0.21279999999999999</v>
+        <v>0.41010000000000002</v>
       </c>
       <c r="E105" s="37">
         <f t="shared" si="4"/>
-        <v>3.3962879999999994E-2</v>
+        <v>0.12614676</v>
       </c>
       <c r="F105" s="37" t="s">
         <v>15</v>
@@ -4568,17 +4608,17 @@
         <v>1</v>
       </c>
       <c r="B106" s="37">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C106" s="37">
-        <v>0.18559999999999999</v>
+        <v>0.34110000000000001</v>
       </c>
       <c r="D106" s="37">
-        <v>0.24740000000000001</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="E106" s="37">
         <f t="shared" si="4"/>
-        <v>4.5917439999999997E-2</v>
+        <v>0.15509817000000001</v>
       </c>
       <c r="F106" s="37" t="s">
         <v>15</v>
@@ -4589,17 +4629,17 @@
         <v>1</v>
       </c>
       <c r="B107" s="37">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C107" s="37">
-        <v>0.21360000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="D107" s="37">
-        <v>0.2848</v>
+        <v>0.5</v>
       </c>
       <c r="E107" s="37">
         <f t="shared" si="4"/>
-        <v>6.0833280000000003E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="F107" s="37" t="s">
         <v>15</v>
@@ -4610,17 +4650,17 @@
         <v>1</v>
       </c>
       <c r="B108" s="37">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C108" s="37">
-        <v>0.24349999999999999</v>
+        <v>0.40889999999999999</v>
       </c>
       <c r="D108" s="37">
-        <v>0.3246</v>
+        <v>0.54530000000000001</v>
       </c>
       <c r="E108" s="37">
         <f t="shared" si="4"/>
-        <v>7.9040100000000002E-2</v>
+        <v>0.22297317</v>
       </c>
       <c r="F108" s="37" t="s">
         <v>15</v>
@@ -4631,17 +4671,17 @@
         <v>1</v>
       </c>
       <c r="B109" s="37">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="C109" s="37">
-        <v>0.27489999999999998</v>
+        <v>0.44240000000000002</v>
       </c>
       <c r="D109" s="37">
-        <v>0.36649999999999999</v>
+        <v>0.58989999999999998</v>
       </c>
       <c r="E109" s="37">
         <f t="shared" si="4"/>
-        <v>0.10075084999999999</v>
+        <v>0.26097176</v>
       </c>
       <c r="F109" s="37" t="s">
         <v>15</v>
@@ -4652,17 +4692,17 @@
         <v>1</v>
       </c>
       <c r="B110" s="37">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="C110" s="37">
-        <v>0.30759999999999998</v>
+        <v>0.47510000000000002</v>
       </c>
       <c r="D110" s="37">
-        <v>0.41010000000000002</v>
+        <v>0.63349999999999995</v>
       </c>
       <c r="E110" s="37">
         <f t="shared" si="4"/>
-        <v>0.12614676</v>
+        <v>0.30097584999999999</v>
       </c>
       <c r="F110" s="37" t="s">
         <v>15</v>
@@ -4673,17 +4713,17 @@
         <v>1</v>
       </c>
       <c r="B111" s="37">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C111" s="37">
-        <v>0.34110000000000001</v>
+        <v>0.50649999999999995</v>
       </c>
       <c r="D111" s="37">
-        <v>0.45469999999999999</v>
+        <v>0.6754</v>
       </c>
       <c r="E111" s="37">
         <f t="shared" si="4"/>
-        <v>0.15509817000000001</v>
+        <v>0.34209009999999995</v>
       </c>
       <c r="F111" s="37" t="s">
         <v>15</v>
@@ -4694,17 +4734,17 @@
         <v>1</v>
       </c>
       <c r="B112" s="37">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="C112" s="37">
-        <v>0.375</v>
+        <v>0.53639999999999999</v>
       </c>
       <c r="D112" s="37">
-        <v>0.5</v>
+        <v>0.71519999999999995</v>
       </c>
       <c r="E112" s="37">
         <f t="shared" si="4"/>
-        <v>0.1875</v>
+        <v>0.38363327999999997</v>
       </c>
       <c r="F112" s="37" t="s">
         <v>15</v>
@@ -4715,17 +4755,17 @@
         <v>1</v>
       </c>
       <c r="B113" s="37">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="C113" s="37">
-        <v>0.40889999999999999</v>
+        <v>0.56440000000000001</v>
       </c>
       <c r="D113" s="37">
-        <v>0.54530000000000001</v>
+        <v>0.75260000000000005</v>
       </c>
       <c r="E113" s="37">
         <f t="shared" si="4"/>
-        <v>0.22297317</v>
+        <v>0.42476744000000005</v>
       </c>
       <c r="F113" s="37" t="s">
         <v>15</v>
@@ -4736,17 +4776,17 @@
         <v>1</v>
       </c>
       <c r="B114" s="37">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="C114" s="37">
-        <v>0.44240000000000002</v>
+        <v>0.59040000000000004</v>
       </c>
       <c r="D114" s="37">
-        <v>0.58989999999999998</v>
+        <v>0.78720000000000001</v>
       </c>
       <c r="E114" s="37">
         <f t="shared" si="4"/>
-        <v>0.26097176</v>
+        <v>0.46476288000000004</v>
       </c>
       <c r="F114" s="37" t="s">
         <v>15</v>
@@ -4757,17 +4797,17 @@
         <v>1</v>
       </c>
       <c r="B115" s="37">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="C115" s="37">
-        <v>0.47510000000000002</v>
+        <v>0.61409999999999998</v>
       </c>
       <c r="D115" s="37">
-        <v>0.63349999999999995</v>
+        <v>0.81879999999999997</v>
       </c>
       <c r="E115" s="37">
         <f t="shared" si="4"/>
-        <v>0.30097584999999999</v>
+        <v>0.50282507999999992</v>
       </c>
       <c r="F115" s="37" t="s">
         <v>15</v>
@@ -4778,17 +4818,17 @@
         <v>1</v>
       </c>
       <c r="B116" s="37">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="C116" s="37">
-        <v>0.50649999999999995</v>
+        <v>0.63549999999999995</v>
       </c>
       <c r="D116" s="37">
-        <v>0.6754</v>
+        <v>0.84730000000000005</v>
       </c>
       <c r="E116" s="37">
         <f t="shared" si="4"/>
-        <v>0.34209009999999995</v>
+        <v>0.53845915</v>
       </c>
       <c r="F116" s="37" t="s">
         <v>15</v>
@@ -4799,17 +4839,17 @@
         <v>1</v>
       </c>
       <c r="B117" s="37">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="C117" s="37">
-        <v>0.53639999999999999</v>
+        <v>0.65459999999999996</v>
       </c>
       <c r="D117" s="37">
-        <v>0.71519999999999995</v>
+        <v>0.87280000000000002</v>
       </c>
       <c r="E117" s="37">
         <f t="shared" si="4"/>
-        <v>0.38363327999999997</v>
+        <v>0.57133487999999999</v>
       </c>
       <c r="F117" s="37" t="s">
         <v>15</v>
@@ -4820,17 +4860,17 @@
         <v>1</v>
       </c>
       <c r="B118" s="37">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="C118" s="37">
-        <v>0.56440000000000001</v>
+        <v>0.6714</v>
       </c>
       <c r="D118" s="37">
-        <v>0.75260000000000005</v>
+        <v>0.8952</v>
       </c>
       <c r="E118" s="37">
         <f t="shared" si="4"/>
-        <v>0.42476744000000005</v>
+        <v>0.60103728000000001</v>
       </c>
       <c r="F118" s="37" t="s">
         <v>15</v>
@@ -4841,17 +4881,17 @@
         <v>1</v>
       </c>
       <c r="B119" s="37">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="C119" s="37">
-        <v>0.59040000000000004</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="D119" s="37">
-        <v>0.78720000000000001</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="E119" s="37">
         <f t="shared" si="4"/>
-        <v>0.46476288000000004</v>
+        <v>0.62748420000000005</v>
       </c>
       <c r="F119" s="37" t="s">
         <v>15</v>
@@ -4862,17 +4902,17 @@
         <v>1</v>
       </c>
       <c r="B120" s="37">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="C120" s="37">
-        <v>0.61409999999999998</v>
+        <v>0.69850000000000001</v>
       </c>
       <c r="D120" s="37">
-        <v>0.81879999999999997</v>
+        <v>0.93130000000000002</v>
       </c>
       <c r="E120" s="37">
         <f t="shared" si="4"/>
-        <v>0.50282507999999992</v>
+        <v>0.65051305000000004</v>
       </c>
       <c r="F120" s="37" t="s">
         <v>15</v>
@@ -4883,17 +4923,17 @@
         <v>1</v>
       </c>
       <c r="B121" s="37">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C121" s="37">
-        <v>0.63549999999999995</v>
+        <v>0.70909999999999995</v>
       </c>
       <c r="D121" s="37">
-        <v>0.84730000000000005</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="E121" s="37">
         <f t="shared" si="4"/>
-        <v>0.53845915</v>
+        <v>0.67045404999999991</v>
       </c>
       <c r="F121" s="37" t="s">
         <v>15</v>
@@ -4904,17 +4944,17 @@
         <v>1</v>
       </c>
       <c r="B122" s="37">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="C122" s="37">
-        <v>0.65459999999999996</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="D122" s="37">
-        <v>0.87280000000000002</v>
+        <v>0.95730000000000004</v>
       </c>
       <c r="E122" s="37">
         <f t="shared" si="4"/>
-        <v>0.57133487999999999</v>
+        <v>0.68734139999999999</v>
       </c>
       <c r="F122" s="37" t="s">
         <v>15</v>
@@ -4925,17 +4965,17 @@
         <v>1</v>
       </c>
       <c r="B123" s="37">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="C123" s="37">
-        <v>0.6714</v>
+        <v>0.72529999999999994</v>
       </c>
       <c r="D123" s="37">
-        <v>0.8952</v>
+        <v>0.96709999999999996</v>
       </c>
       <c r="E123" s="37">
         <f t="shared" si="4"/>
-        <v>0.60103728000000001</v>
+        <v>0.70143762999999992</v>
       </c>
       <c r="F123" s="37" t="s">
         <v>15</v>
@@ -4946,17 +4986,17 @@
         <v>1</v>
       </c>
       <c r="B124" s="37">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="C124" s="37">
-        <v>0.68600000000000005</v>
+        <v>0.73129999999999995</v>
       </c>
       <c r="D124" s="37">
-        <v>0.91469999999999996</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E124" s="37">
         <f t="shared" si="4"/>
-        <v>0.62748420000000005</v>
+        <v>0.71301749999999997</v>
       </c>
       <c r="F124" s="37" t="s">
         <v>15</v>
@@ -4967,17 +5007,17 @@
         <v>1</v>
       </c>
       <c r="B125" s="37">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="C125" s="37">
-        <v>0.69850000000000001</v>
+        <v>0.73609999999999998</v>
       </c>
       <c r="D125" s="37">
-        <v>0.93130000000000002</v>
+        <v>0.98140000000000005</v>
       </c>
       <c r="E125" s="37">
         <f t="shared" si="4"/>
-        <v>0.65051305000000004</v>
+        <v>0.72240853999999999</v>
       </c>
       <c r="F125" s="37" t="s">
         <v>15</v>
@@ -4988,17 +5028,17 @@
         <v>1</v>
       </c>
       <c r="B126" s="37">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="C126" s="37">
-        <v>0.70909999999999995</v>
+        <v>0.7399</v>
       </c>
       <c r="D126" s="37">
-        <v>0.94550000000000001</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="E126" s="37">
         <f t="shared" si="4"/>
-        <v>0.67045404999999991</v>
+        <v>0.72991135000000007</v>
       </c>
       <c r="F126" s="37" t="s">
         <v>15</v>
@@ -5009,17 +5049,17 @@
         <v>1</v>
       </c>
       <c r="B127" s="37">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="C127" s="37">
-        <v>0.71799999999999997</v>
+        <v>0.7429</v>
       </c>
       <c r="D127" s="37">
-        <v>0.95730000000000004</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="E127" s="37">
         <f t="shared" si="4"/>
-        <v>0.68734139999999999</v>
+        <v>0.73584245000000004</v>
       </c>
       <c r="F127" s="37" t="s">
         <v>15</v>
@@ -5030,17 +5070,17 @@
         <v>1</v>
       </c>
       <c r="B128" s="37">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="C128" s="37">
-        <v>0.72529999999999994</v>
+        <v>0.74519999999999997</v>
       </c>
       <c r="D128" s="37">
-        <v>0.96709999999999996</v>
+        <v>0.99360000000000004</v>
       </c>
       <c r="E128" s="37">
         <f t="shared" si="4"/>
-        <v>0.70143762999999992</v>
+        <v>0.74043071999999999</v>
       </c>
       <c r="F128" s="37" t="s">
         <v>15</v>
@@ -5051,17 +5091,17 @@
         <v>1</v>
       </c>
       <c r="B129" s="37">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="C129" s="37">
-        <v>0.73129999999999995</v>
+        <v>0.74690000000000001</v>
       </c>
       <c r="D129" s="37">
-        <v>0.97499999999999998</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="E129" s="37">
         <f t="shared" si="4"/>
-        <v>0.71301749999999997</v>
+        <v>0.74383770999999999</v>
       </c>
       <c r="F129" s="37" t="s">
         <v>15</v>
@@ -5072,146 +5112,629 @@
         <v>1</v>
       </c>
       <c r="B130" s="37">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="C130" s="37">
-        <v>0.73609999999999998</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="D130" s="37">
-        <v>0.98140000000000005</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="E130" s="37">
         <f t="shared" si="4"/>
-        <v>0.72240853999999999</v>
+        <v>0.74657890999999998</v>
       </c>
       <c r="F130" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="37">
-        <v>1</v>
-      </c>
-      <c r="B131" s="37">
-        <v>450</v>
-      </c>
-      <c r="C131" s="37">
-        <v>0.7399</v>
-      </c>
-      <c r="D131" s="37">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="E131" s="37">
-        <f t="shared" si="4"/>
-        <v>0.72991135000000007</v>
-      </c>
-      <c r="F131" s="37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="37">
-        <v>1</v>
-      </c>
-      <c r="B132" s="37">
-        <v>460</v>
-      </c>
-      <c r="C132" s="37">
-        <v>0.7429</v>
-      </c>
-      <c r="D132" s="37">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="E132" s="37">
-        <f t="shared" si="4"/>
-        <v>0.73584245000000004</v>
-      </c>
-      <c r="F132" s="37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="37">
-        <v>1</v>
-      </c>
-      <c r="B133" s="37">
-        <v>470</v>
-      </c>
-      <c r="C133" s="37">
-        <v>0.74519999999999997</v>
-      </c>
-      <c r="D133" s="37">
-        <v>0.99360000000000004</v>
-      </c>
-      <c r="E133" s="37">
-        <f t="shared" si="4"/>
-        <v>0.74043071999999999</v>
-      </c>
-      <c r="F133" s="37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="37">
-        <v>1</v>
-      </c>
-      <c r="B134" s="37">
-        <v>480</v>
-      </c>
-      <c r="C134" s="37">
-        <v>0.74690000000000001</v>
-      </c>
-      <c r="D134" s="37">
-        <v>0.99590000000000001</v>
-      </c>
-      <c r="E134" s="37">
-        <f t="shared" si="4"/>
-        <v>0.74383770999999999</v>
-      </c>
-      <c r="F134" s="37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="37">
-        <v>1</v>
-      </c>
-      <c r="B135" s="37">
-        <v>490</v>
-      </c>
-      <c r="C135" s="37">
-        <v>0.74829999999999997</v>
-      </c>
-      <c r="D135" s="37">
-        <v>0.99770000000000003</v>
-      </c>
-      <c r="E135" s="37">
-        <f t="shared" si="4"/>
-        <v>0.74657890999999998</v>
-      </c>
-      <c r="F135" s="37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="78">
-        <v>1</v>
-      </c>
-      <c r="B136" s="78">
+      <c r="A131" s="78">
+        <v>1</v>
+      </c>
+      <c r="B131" s="78">
         <v>500</v>
       </c>
-      <c r="C136" s="78">
+      <c r="C131" s="78">
         <v>0.74929999999999997</v>
       </c>
-      <c r="D136" s="78">
+      <c r="D131" s="78">
         <v>0.999</v>
       </c>
-      <c r="E136" s="78">
+      <c r="E131" s="78">
         <f t="shared" si="4"/>
         <v>0.74855070000000001</v>
       </c>
-      <c r="F136" s="78" t="s">
+      <c r="F131" s="78" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="92">
+        <v>1</v>
+      </c>
+      <c r="B132" s="92">
+        <v>0</v>
+      </c>
+      <c r="C132" s="92">
+        <v>0</v>
+      </c>
+      <c r="D132" s="92">
+        <v>0</v>
+      </c>
+      <c r="E132" s="92">
+        <f>C132*D132</f>
+        <v>0</v>
+      </c>
+      <c r="F132" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="92">
+        <v>1</v>
+      </c>
+      <c r="B133" s="92">
+        <v>50</v>
+      </c>
+      <c r="C133" s="92">
+        <v>0</v>
+      </c>
+      <c r="D133" s="92">
+        <v>0</v>
+      </c>
+      <c r="E133" s="92">
+        <f t="shared" ref="E133:E159" si="5">C133*D133</f>
+        <v>0</v>
+      </c>
+      <c r="F133" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="92">
+        <v>1</v>
+      </c>
+      <c r="B134" s="92">
+        <v>100</v>
+      </c>
+      <c r="C134" s="92">
+        <v>0</v>
+      </c>
+      <c r="D134" s="92">
+        <v>0</v>
+      </c>
+      <c r="E134" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F134" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="92">
+        <v>1</v>
+      </c>
+      <c r="B135" s="92">
+        <v>150</v>
+      </c>
+      <c r="C135" s="92">
+        <v>0</v>
+      </c>
+      <c r="D135" s="92">
+        <v>0</v>
+      </c>
+      <c r="E135" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F135" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="92">
+        <v>1</v>
+      </c>
+      <c r="B136" s="92">
+        <v>200</v>
+      </c>
+      <c r="C136" s="92">
+        <v>0</v>
+      </c>
+      <c r="D136" s="92">
+        <v>0</v>
+      </c>
+      <c r="E136" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F136" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="92">
+        <v>1</v>
+      </c>
+      <c r="B137" s="92">
+        <v>250</v>
+      </c>
+      <c r="C137" s="92">
+        <v>0</v>
+      </c>
+      <c r="D137" s="92">
+        <v>0</v>
+      </c>
+      <c r="E137" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F137" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="92">
+        <v>1</v>
+      </c>
+      <c r="B138" s="92">
+        <v>300</v>
+      </c>
+      <c r="C138" s="92">
+        <v>0</v>
+      </c>
+      <c r="D138" s="92">
+        <v>0</v>
+      </c>
+      <c r="E138" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F138" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="92">
+        <v>1</v>
+      </c>
+      <c r="B139" s="92">
+        <v>350</v>
+      </c>
+      <c r="C139" s="92">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D139" s="92">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E139" s="92">
+        <f t="shared" si="5"/>
+        <v>4.4199999999999992E-6</v>
+      </c>
+      <c r="F139" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="92">
+        <v>1</v>
+      </c>
+      <c r="B140" s="92">
+        <v>400</v>
+      </c>
+      <c r="C140" s="92">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D140" s="92">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E140" s="92">
+        <f t="shared" si="5"/>
+        <v>4.0949999999999999E-5</v>
+      </c>
+      <c r="F140" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="92">
+        <v>1</v>
+      </c>
+      <c r="B141" s="92">
+        <v>450</v>
+      </c>
+      <c r="C141" s="92">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="D141" s="92">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="E141" s="92">
+        <f t="shared" si="5"/>
+        <v>2.2112999999999999E-4</v>
+      </c>
+      <c r="F141" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="92">
+        <v>1</v>
+      </c>
+      <c r="B142" s="92">
+        <v>500</v>
+      </c>
+      <c r="C142" s="92">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="D142" s="92">
+        <v>4.87E-2</v>
+      </c>
+      <c r="E142" s="92">
+        <f t="shared" si="5"/>
+        <v>8.8634E-4</v>
+      </c>
+      <c r="F142" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="92">
+        <v>1</v>
+      </c>
+      <c r="B143" s="92">
+        <v>550</v>
+      </c>
+      <c r="C143" s="92">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="D143" s="92">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="E143" s="92">
+        <f t="shared" si="5"/>
+        <v>2.9194199999999998E-3</v>
+      </c>
+      <c r="F143" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="92">
+        <v>1</v>
+      </c>
+      <c r="B144" s="92">
+        <v>600</v>
+      </c>
+      <c r="C144" s="92">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="D144" s="92">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E144" s="92">
+        <f t="shared" si="5"/>
+        <v>8.0996999999999996E-3</v>
+      </c>
+      <c r="F144" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="92">
+        <v>1</v>
+      </c>
+      <c r="B145" s="92">
+        <v>650</v>
+      </c>
+      <c r="C145" s="92">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="D145" s="92">
+        <v>0.2271</v>
+      </c>
+      <c r="E145" s="92">
+        <f t="shared" si="5"/>
+        <v>1.932621E-2</v>
+      </c>
+      <c r="F145" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="92">
+        <v>1</v>
+      </c>
+      <c r="B146" s="92">
+        <v>700</v>
+      </c>
+      <c r="C146" s="92">
+        <v>0.1225</v>
+      </c>
+      <c r="D146" s="92">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="E146" s="92">
+        <f t="shared" si="5"/>
+        <v>4.0032999999999999E-2</v>
+      </c>
+      <c r="F146" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="92">
+        <v>1</v>
+      </c>
+      <c r="B147" s="92">
+        <v>750</v>
+      </c>
+      <c r="C147" s="92">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="D147" s="92">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="E147" s="92">
+        <f t="shared" si="5"/>
+        <v>7.2787120000000011E-2</v>
+      </c>
+      <c r="F147" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="92">
+        <v>1</v>
+      </c>
+      <c r="B148" s="92">
+        <v>800</v>
+      </c>
+      <c r="C148" s="92">
+        <v>0.20979999999999999</v>
+      </c>
+      <c r="D148" s="92">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="E148" s="92">
+        <f t="shared" si="5"/>
+        <v>0.11736212</v>
+      </c>
+      <c r="F148" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="92">
+        <v>1</v>
+      </c>
+      <c r="B149" s="92">
+        <v>850</v>
+      </c>
+      <c r="C149" s="92">
+        <v>0.2525</v>
+      </c>
+      <c r="D149" s="92">
+        <v>0.67320000000000002</v>
+      </c>
+      <c r="E149" s="92">
+        <f t="shared" si="5"/>
+        <v>0.169983</v>
+      </c>
+      <c r="F149" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="92">
+        <v>1</v>
+      </c>
+      <c r="B150" s="92">
+        <v>900</v>
+      </c>
+      <c r="C150" s="92">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="D150" s="92">
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="E150" s="92">
+        <f t="shared" si="5"/>
+        <v>0.22406371</v>
+      </c>
+      <c r="F150" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="92">
+        <v>1</v>
+      </c>
+      <c r="B151" s="92">
+        <v>950</v>
+      </c>
+      <c r="C151" s="92">
+        <v>0.31990000000000002</v>
+      </c>
+      <c r="D151" s="92">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E151" s="92">
+        <f t="shared" si="5"/>
+        <v>0.27287470000000003</v>
+      </c>
+      <c r="F151" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="92">
+        <v>1</v>
+      </c>
+      <c r="B152" s="92">
+        <v>1000</v>
+      </c>
+      <c r="C152" s="92">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="D152" s="92">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E152" s="92">
+        <f t="shared" si="5"/>
+        <v>0.31174442000000002</v>
+      </c>
+      <c r="F152" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="92">
+        <v>1</v>
+      </c>
+      <c r="B153" s="92">
+        <v>1050</v>
+      </c>
+      <c r="C153" s="92">
+        <v>0.35680000000000001</v>
+      </c>
+      <c r="D153" s="92">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="E153" s="92">
+        <f t="shared" si="5"/>
+        <v>0.33942384000000003</v>
+      </c>
+      <c r="F153" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="92">
+        <v>1</v>
+      </c>
+      <c r="B154" s="92">
+        <v>1100</v>
+      </c>
+      <c r="C154" s="92">
+        <v>0.3659</v>
+      </c>
+      <c r="D154" s="92">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="E154" s="92">
+        <f t="shared" si="5"/>
+        <v>0.35700862999999999</v>
+      </c>
+      <c r="F154" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="92">
+        <v>1</v>
+      </c>
+      <c r="B155" s="92">
+        <v>1150</v>
+      </c>
+      <c r="C155" s="92">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="D155" s="92">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="E155" s="92">
+        <f t="shared" si="5"/>
+        <v>0.36720344999999999</v>
+      </c>
+      <c r="F155" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="92">
+        <v>1</v>
+      </c>
+      <c r="B156" s="92">
+        <v>1200</v>
+      </c>
+      <c r="C156" s="92">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="D156" s="92">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="E156" s="92">
+        <f t="shared" si="5"/>
+        <v>0.37242942000000001</v>
+      </c>
+      <c r="F156" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="92">
+        <v>1</v>
+      </c>
+      <c r="B157" s="92">
+        <v>1500</v>
+      </c>
+      <c r="C157" s="92">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="D157" s="92">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="E157" s="92">
+        <f t="shared" si="5"/>
+        <v>0.37242942000000001</v>
+      </c>
+      <c r="F157" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="92">
+        <v>1</v>
+      </c>
+      <c r="B158" s="92">
+        <v>2000</v>
+      </c>
+      <c r="C158" s="92">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="D158" s="92">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="E158" s="92">
+        <f t="shared" si="5"/>
+        <v>0.37242942000000001</v>
+      </c>
+      <c r="F158" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="93">
+        <v>1</v>
+      </c>
+      <c r="B159" s="93">
+        <v>3000</v>
+      </c>
+      <c r="C159" s="93">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="D159" s="93">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="E159" s="93">
+        <f t="shared" si="5"/>
+        <v>0.37242942000000001</v>
+      </c>
+      <c r="F159" s="93" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5230,7 +5753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/data/entities/entity_template.xlsx
+++ b/data/entities/entity_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,34 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>David N. Bresch</author>
     <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>OPTIONAL
+This way, one can group assets into categories and later show results for single categories, see climada_viewer</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -42,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -54,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -66,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -78,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -90,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -801,7 +825,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="84">
   <si>
     <t>Latitude</t>
   </si>
@@ -1120,6 +1144,9 @@
   <si>
     <t>TR</t>
   </si>
+  <si>
+    <t>Category</t>
+  </si>
 </sst>
 </file>
 
@@ -1233,7 +1260,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1288,6 +1315,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1333,7 +1366,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1428,6 +1461,8 @@
     <xf numFmtId="1" fontId="11" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1835,539 +1870,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="6" width="20" style="79"/>
-    <col min="7" max="16384" width="20" style="6"/>
+    <col min="1" max="1" width="8" style="95" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="20" style="79"/>
+    <col min="8" max="16384" width="20" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="94" t="s">
+        <v>83</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="F1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="G1" s="80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="81">
+    <row r="2" spans="1:7">
+      <c r="A2" s="94">
+        <v>1</v>
+      </c>
+      <c r="B2" s="81">
         <v>26.933899</v>
       </c>
-      <c r="B2" s="81">
+      <c r="C2" s="81">
         <v>-80.128799000000001</v>
       </c>
-      <c r="C2" s="82">
+      <c r="D2" s="82">
         <v>13927504367.680632</v>
       </c>
-      <c r="D2" s="83">
-        <v>0</v>
-      </c>
       <c r="E2" s="83">
-        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="83">
+        <f>D2</f>
         <v>13927504367.680632</v>
       </c>
-      <c r="F2" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="81">
+      <c r="G2" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="94">
+        <v>1</v>
+      </c>
+      <c r="B3" s="81">
         <v>26.957203</v>
       </c>
-      <c r="B3" s="81">
+      <c r="C3" s="81">
         <v>-80.098284000000007</v>
       </c>
-      <c r="C3" s="82">
+      <c r="D3" s="82">
         <v>12596064143.542929</v>
       </c>
-      <c r="D3" s="83">
-        <v>0</v>
-      </c>
       <c r="E3" s="83">
-        <f t="shared" ref="E3:E25" si="0">C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="83">
+        <f t="shared" ref="F3:F25" si="0">D3</f>
         <v>12596064143.542929</v>
       </c>
-      <c r="F3" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="81">
+      <c r="G3" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="94">
+        <v>1</v>
+      </c>
+      <c r="B4" s="81">
         <v>26.783846</v>
       </c>
-      <c r="B4" s="81">
+      <c r="C4" s="81">
         <v>-80.748947000000001</v>
       </c>
-      <c r="C4" s="82">
+      <c r="D4" s="82">
         <v>12596064143.542929</v>
       </c>
-      <c r="D4" s="83">
-        <v>0</v>
-      </c>
       <c r="E4" s="83">
+        <v>0</v>
+      </c>
+      <c r="F4" s="83">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
-      <c r="F4" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="81">
+      <c r="G4" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="94">
+        <v>1</v>
+      </c>
+      <c r="B5" s="81">
         <v>26.645524000000002</v>
       </c>
-      <c r="B5" s="81">
+      <c r="C5" s="81">
         <v>-80.550703999999996</v>
       </c>
-      <c r="C5" s="82">
+      <c r="D5" s="82">
         <v>12596064143.542929</v>
       </c>
-      <c r="D5" s="83">
-        <v>0</v>
-      </c>
       <c r="E5" s="83">
+        <v>0</v>
+      </c>
+      <c r="F5" s="83">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
-      <c r="F5" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="81">
+      <c r="G5" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="94">
+        <v>1</v>
+      </c>
+      <c r="B6" s="81">
         <v>26.897796</v>
       </c>
-      <c r="B6" s="81">
+      <c r="C6" s="81">
         <v>-80.596929000000003</v>
       </c>
-      <c r="C6" s="82">
+      <c r="D6" s="82">
         <v>12596064143.542929</v>
       </c>
-      <c r="D6" s="83">
-        <v>0</v>
-      </c>
       <c r="E6" s="83">
+        <v>0</v>
+      </c>
+      <c r="F6" s="83">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
-      <c r="F6" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="81">
+      <c r="G6" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="94">
+        <v>1</v>
+      </c>
+      <c r="B7" s="81">
         <v>26.925359</v>
       </c>
-      <c r="B7" s="81">
+      <c r="C7" s="81">
         <v>-80.220966000000004</v>
       </c>
-      <c r="C7" s="82">
+      <c r="D7" s="82">
         <v>12596064143.542929</v>
       </c>
-      <c r="D7" s="83">
-        <v>0</v>
-      </c>
       <c r="E7" s="83">
+        <v>0</v>
+      </c>
+      <c r="F7" s="83">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
-      <c r="F7" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="81">
+      <c r="G7" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="94">
+        <v>1</v>
+      </c>
+      <c r="B8" s="81">
         <v>26.914767999999999</v>
       </c>
-      <c r="B8" s="81">
+      <c r="C8" s="81">
         <v>-80.074659999999994</v>
       </c>
-      <c r="C8" s="82">
+      <c r="D8" s="82">
         <v>12597540200.183653</v>
       </c>
-      <c r="D8" s="83">
-        <v>0</v>
-      </c>
       <c r="E8" s="83">
+        <v>0</v>
+      </c>
+      <c r="F8" s="83">
         <f t="shared" si="0"/>
         <v>12597540200.183653</v>
       </c>
-      <c r="F8" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="81">
+      <c r="G8" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="94">
+        <v>1</v>
+      </c>
+      <c r="B9" s="81">
         <v>26.853491000000002</v>
       </c>
-      <c r="B9" s="81">
+      <c r="C9" s="81">
         <v>-80.190280999999999</v>
       </c>
-      <c r="C9" s="82">
+      <c r="D9" s="82">
         <v>12596064143.542929</v>
       </c>
-      <c r="D9" s="83">
-        <v>0</v>
-      </c>
       <c r="E9" s="83">
+        <v>0</v>
+      </c>
+      <c r="F9" s="83">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
-      <c r="F9" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="81">
+      <c r="G9" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="94">
+        <v>1</v>
+      </c>
+      <c r="B10" s="81">
         <v>26.845099000000001</v>
       </c>
-      <c r="B10" s="81">
+      <c r="C10" s="81">
         <v>-80.083904000000004</v>
       </c>
-      <c r="C10" s="82">
+      <c r="D10" s="82">
         <v>12620969361.889448</v>
       </c>
-      <c r="D10" s="83">
-        <v>0</v>
-      </c>
       <c r="E10" s="83">
+        <v>0</v>
+      </c>
+      <c r="F10" s="83">
         <f t="shared" si="0"/>
         <v>12620969361.889448</v>
       </c>
-      <c r="F10" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="81">
+      <c r="G10" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="94">
+        <v>1</v>
+      </c>
+      <c r="B11" s="81">
         <v>26.826509999999999</v>
       </c>
-      <c r="B11" s="81">
+      <c r="C11" s="81">
         <v>-80.213493</v>
       </c>
-      <c r="C11" s="82">
+      <c r="D11" s="82">
         <v>12596064143.542929</v>
       </c>
-      <c r="D11" s="83">
-        <v>0</v>
-      </c>
       <c r="E11" s="83">
+        <v>0</v>
+      </c>
+      <c r="F11" s="83">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
-      <c r="F11" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="81">
+      <c r="G11" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="94">
+        <v>1</v>
+      </c>
+      <c r="B12" s="81">
         <v>26.842772</v>
       </c>
-      <c r="B12" s="81">
+      <c r="C12" s="81">
         <v>-80.059100000000001</v>
       </c>
-      <c r="C12" s="82">
+      <c r="D12" s="82">
         <v>12604279672.155575</v>
       </c>
-      <c r="D12" s="83">
-        <v>0</v>
-      </c>
       <c r="E12" s="83">
+        <v>0</v>
+      </c>
+      <c r="F12" s="83">
         <f t="shared" si="0"/>
         <v>12604279672.155575</v>
       </c>
-      <c r="F12" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="81">
+      <c r="G12" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="94">
+        <v>1</v>
+      </c>
+      <c r="B13" s="81">
         <v>26.825904999999999</v>
       </c>
-      <c r="B13" s="81">
+      <c r="C13" s="81">
         <v>-80.630095999999995</v>
       </c>
-      <c r="C13" s="82">
+      <c r="D13" s="82">
         <v>12596064143.542929</v>
       </c>
-      <c r="D13" s="83">
-        <v>0</v>
-      </c>
       <c r="E13" s="83">
+        <v>0</v>
+      </c>
+      <c r="F13" s="83">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
-      <c r="F13" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="81">
+      <c r="G13" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="94">
+        <v>1</v>
+      </c>
+      <c r="B14" s="81">
         <v>26.804649999999999</v>
       </c>
-      <c r="B14" s="81">
+      <c r="C14" s="81">
         <v>-80.075300999999996</v>
       </c>
-      <c r="C14" s="82">
+      <c r="D14" s="82">
         <v>13445096962.15469</v>
       </c>
-      <c r="D14" s="83">
-        <v>0</v>
-      </c>
       <c r="E14" s="83">
+        <v>0</v>
+      </c>
+      <c r="F14" s="83">
         <f t="shared" si="0"/>
         <v>13445096962.15469</v>
       </c>
-      <c r="F14" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="81">
+      <c r="G14" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="94">
+        <v>1</v>
+      </c>
+      <c r="B15" s="81">
         <v>26.788648999999999</v>
       </c>
-      <c r="B15" s="81">
+      <c r="C15" s="81">
         <v>-80.069884999999999</v>
       </c>
-      <c r="C15" s="82">
+      <c r="D15" s="82">
         <v>14739583848.133047</v>
       </c>
-      <c r="D15" s="83">
-        <v>0</v>
-      </c>
       <c r="E15" s="83">
+        <v>0</v>
+      </c>
+      <c r="F15" s="83">
         <f t="shared" si="0"/>
         <v>14739583848.133047</v>
       </c>
-      <c r="F15" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="81">
+      <c r="G15" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="94">
+        <v>1</v>
+      </c>
+      <c r="B16" s="81">
         <v>26.704277000000001</v>
       </c>
-      <c r="B16" s="81">
+      <c r="C16" s="81">
         <v>-80.656841</v>
       </c>
-      <c r="C16" s="82">
+      <c r="D16" s="82">
         <v>12605429846.161364</v>
       </c>
-      <c r="D16" s="83">
-        <v>0</v>
-      </c>
       <c r="E16" s="83">
+        <v>0</v>
+      </c>
+      <c r="F16" s="83">
         <f t="shared" si="0"/>
         <v>12605429846.161364</v>
       </c>
-      <c r="F16" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="81">
+      <c r="G16" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="94">
+        <v>1</v>
+      </c>
+      <c r="B17" s="81">
         <v>26.710049999999999</v>
       </c>
-      <c r="B17" s="81">
+      <c r="C17" s="81">
         <v>-80.190084999999996</v>
       </c>
-      <c r="C17" s="82">
+      <c r="D17" s="82">
         <v>13008874519.979589</v>
       </c>
-      <c r="D17" s="83">
-        <v>0</v>
-      </c>
       <c r="E17" s="83">
+        <v>0</v>
+      </c>
+      <c r="F17" s="83">
         <f t="shared" si="0"/>
         <v>13008874519.979589</v>
       </c>
-      <c r="F17" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="81">
+      <c r="G17" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="94">
+        <v>1</v>
+      </c>
+      <c r="B18" s="81">
         <v>26.755412</v>
       </c>
-      <c r="B18" s="81">
+      <c r="C18" s="81">
         <v>-80.089550000000003</v>
       </c>
-      <c r="C18" s="82">
+      <c r="D18" s="82">
         <v>12611887251.65089</v>
       </c>
-      <c r="D18" s="83">
-        <v>0</v>
-      </c>
       <c r="E18" s="83">
+        <v>0</v>
+      </c>
+      <c r="F18" s="83">
         <f t="shared" si="0"/>
         <v>12611887251.65089</v>
       </c>
-      <c r="F18" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="81">
+      <c r="G18" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="94">
+        <v>1</v>
+      </c>
+      <c r="B19" s="81">
         <v>26.678449000000001</v>
       </c>
-      <c r="B19" s="81">
+      <c r="C19" s="81">
         <v>-80.041179</v>
       </c>
-      <c r="C19" s="82">
+      <c r="D19" s="82">
         <v>12631336146.38661</v>
       </c>
-      <c r="D19" s="83">
-        <v>0</v>
-      </c>
       <c r="E19" s="83">
+        <v>0</v>
+      </c>
+      <c r="F19" s="83">
         <f t="shared" si="0"/>
         <v>12631336146.38661</v>
       </c>
-      <c r="F19" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="81">
+      <c r="G19" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="94">
+        <v>1</v>
+      </c>
+      <c r="B20" s="81">
         <v>26.725649000000001</v>
       </c>
-      <c r="B20" s="81">
+      <c r="C20" s="81">
         <v>-80.132400000000004</v>
       </c>
-      <c r="C20" s="82">
+      <c r="D20" s="82">
         <v>12598249474.153875</v>
       </c>
-      <c r="D20" s="83">
-        <v>0</v>
-      </c>
       <c r="E20" s="83">
+        <v>0</v>
+      </c>
+      <c r="F20" s="83">
         <f t="shared" si="0"/>
         <v>12598249474.153875</v>
       </c>
-      <c r="F20" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="81">
+      <c r="G20" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="94">
+        <v>1</v>
+      </c>
+      <c r="B21" s="81">
         <v>26.720599</v>
       </c>
-      <c r="B21" s="81">
+      <c r="C21" s="81">
         <v>-80.091746000000001</v>
       </c>
-      <c r="C21" s="82">
+      <c r="D21" s="82">
         <v>12600014826.942177</v>
       </c>
-      <c r="D21" s="83">
-        <v>0</v>
-      </c>
       <c r="E21" s="83">
+        <v>0</v>
+      </c>
+      <c r="F21" s="83">
         <f t="shared" si="0"/>
         <v>12600014826.942177</v>
       </c>
-      <c r="F21" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="81">
+      <c r="G21" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="94">
+        <v>1</v>
+      </c>
+      <c r="B22" s="81">
         <v>26.71255</v>
       </c>
-      <c r="B22" s="81">
+      <c r="C22" s="81">
         <v>-80.068579</v>
       </c>
-      <c r="C22" s="82">
+      <c r="D22" s="82">
         <v>12597595737.157084</v>
       </c>
-      <c r="D22" s="83">
-        <v>0</v>
-      </c>
       <c r="E22" s="83">
+        <v>0</v>
+      </c>
+      <c r="F22" s="83">
         <f t="shared" si="0"/>
         <v>12597595737.157084</v>
       </c>
-      <c r="F22" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="81">
+      <c r="G22" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="94">
+        <v>1</v>
+      </c>
+      <c r="B23" s="81">
         <v>26.664899999999999</v>
       </c>
-      <c r="B23" s="81">
+      <c r="C23" s="81">
         <v>-80.090698000000003</v>
       </c>
-      <c r="C23" s="82">
+      <c r="D23" s="82">
         <v>12814536300.187536</v>
       </c>
-      <c r="D23" s="83">
-        <v>0</v>
-      </c>
       <c r="E23" s="83">
+        <v>0</v>
+      </c>
+      <c r="F23" s="83">
         <f t="shared" si="0"/>
         <v>12814536300.187536</v>
       </c>
-      <c r="F23" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="81">
+      <c r="G23" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="94">
+        <v>1</v>
+      </c>
+      <c r="B24" s="81">
         <v>26.664698999999999</v>
       </c>
-      <c r="B24" s="81">
+      <c r="C24" s="81">
         <v>-80.125399999999999</v>
       </c>
-      <c r="C24" s="82">
+      <c r="D24" s="82">
         <v>12621764444.317513</v>
       </c>
-      <c r="D24" s="83">
-        <v>0</v>
-      </c>
       <c r="E24" s="83">
+        <v>0</v>
+      </c>
+      <c r="F24" s="83">
         <f t="shared" si="0"/>
         <v>12621764444.317513</v>
       </c>
-      <c r="F24" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="81">
+      <c r="G24" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="94">
+        <v>1</v>
+      </c>
+      <c r="B25" s="81">
         <v>26.663149000000001</v>
       </c>
-      <c r="B25" s="81">
+      <c r="C25" s="81">
         <v>-80.151401000000007</v>
       </c>
-      <c r="C25" s="82">
+      <c r="D25" s="82">
         <v>12597535489.94726</v>
       </c>
-      <c r="D25" s="83">
-        <v>0</v>
-      </c>
       <c r="E25" s="83">
+        <v>0</v>
+      </c>
+      <c r="F25" s="83">
         <f t="shared" si="0"/>
         <v>12597535489.94726</v>
       </c>
-      <c r="F25" s="79">
+      <c r="G25" s="79">
         <v>1</v>
       </c>
     </row>
@@ -2386,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
@@ -7482,7 +7593,7 @@
         <v>63</v>
       </c>
       <c r="B22" s="11">
-        <f>B20*SUM(assets!C2:C4)*_measures_details!B21</f>
+        <f>B20*SUM(assets!D2:D4)*_measures_details!B21</f>
         <v>3911963265.4766488</v>
       </c>
       <c r="C22" s="2" t="s">

--- a/data/entities/entity_template.xlsx
+++ b/data/entities/entity_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820" tabRatio="766" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -150,19 +150,6 @@
           </rPr>
           <t>OPTIONAL
 to group assets into regions, only integer values allowed (it's in fatc an ID)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>The year for which the assets (and other information in this Excel file) is valid for.
-If not provided, climada assumes the present_reference_year, as defined in climada_global.present_reference_year (usually the actual year, i.e. this vaue is updated in GitHub annually).</t>
         </r>
       </text>
     </comment>
@@ -731,6 +718,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>A satisfied Microsoft Office user</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -768,7 +756,22 @@
             <color indexed="81"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t>a speaking name. Do only use letters, numbers and spaces, do not start with a number</t>
+          <t>a speaking name. Do only use letters, numbers and spaces, do not start with a number.
+Special for Item Reference year: the year as yyyy, such as 2016</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">to define the reference year
+</t>
         </r>
       </text>
     </comment>
@@ -804,9 +807,6 @@
   </si>
   <si>
     <t>Region_ID</t>
-  </si>
-  <si>
-    <t>Reference_year</t>
   </si>
   <si>
     <t>USD</t>
@@ -1165,6 +1165,9 @@
   <si>
     <t>Default region</t>
   </si>
+  <si>
+    <t>reference_year</t>
+  </si>
 </sst>
 </file>
 
@@ -1172,12 +1175,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="195" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="197" formatCode="0.0"/>
-    <numFmt numFmtId="198" formatCode="0.0%"/>
-    <numFmt numFmtId="199" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1274,13 +1277,19 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="SwissReSans"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1320,6 +1329,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,7 +1403,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1396,50 +1411,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="198" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="197" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="199" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="199" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="11" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
@@ -1448,15 +1463,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="195" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1467,10 +1482,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="14" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1482,6 +1495,8 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1835,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1854,8 +1869,8 @@
     <col min="10" max="16384" width="20" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="64" t="s">
@@ -1867,27 +1882,24 @@
       <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="80" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="79">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="77">
         <v>1</v>
       </c>
       <c r="B2" s="51">
@@ -1899,28 +1911,25 @@
       <c r="D2" s="52">
         <v>13927504367.680632</v>
       </c>
-      <c r="E2" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="81">
-        <v>0</v>
-      </c>
-      <c r="G2" s="81">
+      <c r="E2" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="79">
+        <v>0</v>
+      </c>
+      <c r="G2" s="79">
         <f>D2</f>
         <v>13927504367.680632</v>
       </c>
       <c r="H2" s="50">
         <v>1</v>
       </c>
-      <c r="I2" s="79">
-        <v>1</v>
-      </c>
-      <c r="J2" s="79">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="79">
+      <c r="I2" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="77">
         <v>1</v>
       </c>
       <c r="B3" s="51">
@@ -1932,25 +1941,25 @@
       <c r="D3" s="52">
         <v>12596064143.542929</v>
       </c>
-      <c r="E3" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="81">
-        <v>0</v>
-      </c>
-      <c r="G3" s="81">
+      <c r="E3" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="79">
+        <v>0</v>
+      </c>
+      <c r="G3" s="79">
         <f t="shared" ref="G3:G25" si="0">D3</f>
         <v>12596064143.542929</v>
       </c>
       <c r="H3" s="50">
         <v>1</v>
       </c>
-      <c r="I3" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="79">
+      <c r="I3" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="77">
         <v>1</v>
       </c>
       <c r="B4" s="51">
@@ -1962,25 +1971,25 @@
       <c r="D4" s="52">
         <v>12596064143.542929</v>
       </c>
-      <c r="E4" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="81">
-        <v>0</v>
-      </c>
-      <c r="G4" s="81">
+      <c r="E4" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="79">
+        <v>0</v>
+      </c>
+      <c r="G4" s="79">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
       <c r="H4" s="50">
         <v>1</v>
       </c>
-      <c r="I4" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="79">
+      <c r="I4" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="77">
         <v>1</v>
       </c>
       <c r="B5" s="51">
@@ -1992,25 +2001,25 @@
       <c r="D5" s="52">
         <v>12596064143.542929</v>
       </c>
-      <c r="E5" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="81">
-        <v>0</v>
-      </c>
-      <c r="G5" s="81">
+      <c r="E5" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="79">
+        <v>0</v>
+      </c>
+      <c r="G5" s="79">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
       <c r="H5" s="50">
         <v>1</v>
       </c>
-      <c r="I5" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="79">
+      <c r="I5" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="77">
         <v>1</v>
       </c>
       <c r="B6" s="51">
@@ -2022,25 +2031,25 @@
       <c r="D6" s="52">
         <v>12596064143.542929</v>
       </c>
-      <c r="E6" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="81">
-        <v>0</v>
-      </c>
-      <c r="G6" s="81">
+      <c r="E6" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="79">
+        <v>0</v>
+      </c>
+      <c r="G6" s="79">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
       <c r="H6" s="50">
         <v>1</v>
       </c>
-      <c r="I6" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="79">
+      <c r="I6" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="77">
         <v>1</v>
       </c>
       <c r="B7" s="51">
@@ -2052,25 +2061,25 @@
       <c r="D7" s="52">
         <v>12596064143.542929</v>
       </c>
-      <c r="E7" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="81">
-        <v>0</v>
-      </c>
-      <c r="G7" s="81">
+      <c r="E7" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="79">
+        <v>0</v>
+      </c>
+      <c r="G7" s="79">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
       <c r="H7" s="50">
         <v>1</v>
       </c>
-      <c r="I7" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="79">
+      <c r="I7" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="77">
         <v>1</v>
       </c>
       <c r="B8" s="51">
@@ -2082,25 +2091,25 @@
       <c r="D8" s="52">
         <v>12597540200.183653</v>
       </c>
-      <c r="E8" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="81">
-        <v>0</v>
-      </c>
-      <c r="G8" s="81">
+      <c r="E8" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="79">
+        <v>0</v>
+      </c>
+      <c r="G8" s="79">
         <f t="shared" si="0"/>
         <v>12597540200.183653</v>
       </c>
       <c r="H8" s="50">
         <v>1</v>
       </c>
-      <c r="I8" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="79">
+      <c r="I8" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="77">
         <v>1</v>
       </c>
       <c r="B9" s="51">
@@ -2112,25 +2121,25 @@
       <c r="D9" s="52">
         <v>12596064143.542929</v>
       </c>
-      <c r="E9" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="81">
-        <v>0</v>
-      </c>
-      <c r="G9" s="81">
+      <c r="E9" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="79">
+        <v>0</v>
+      </c>
+      <c r="G9" s="79">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
       <c r="H9" s="50">
         <v>1</v>
       </c>
-      <c r="I9" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="79">
+      <c r="I9" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="77">
         <v>1</v>
       </c>
       <c r="B10" s="51">
@@ -2142,25 +2151,25 @@
       <c r="D10" s="52">
         <v>12620969361.889448</v>
       </c>
-      <c r="E10" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="81">
-        <v>0</v>
-      </c>
-      <c r="G10" s="81">
+      <c r="E10" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="79">
+        <v>0</v>
+      </c>
+      <c r="G10" s="79">
         <f t="shared" si="0"/>
         <v>12620969361.889448</v>
       </c>
       <c r="H10" s="50">
         <v>1</v>
       </c>
-      <c r="I10" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="79">
+      <c r="I10" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="77">
         <v>1</v>
       </c>
       <c r="B11" s="51">
@@ -2172,25 +2181,25 @@
       <c r="D11" s="52">
         <v>12596064143.542929</v>
       </c>
-      <c r="E11" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="81">
-        <v>0</v>
-      </c>
-      <c r="G11" s="81">
+      <c r="E11" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="79">
+        <v>0</v>
+      </c>
+      <c r="G11" s="79">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
       <c r="H11" s="50">
         <v>1</v>
       </c>
-      <c r="I11" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="79">
+      <c r="I11" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="77">
         <v>1</v>
       </c>
       <c r="B12" s="51">
@@ -2202,25 +2211,25 @@
       <c r="D12" s="52">
         <v>12604279672.155575</v>
       </c>
-      <c r="E12" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="81">
-        <v>0</v>
-      </c>
-      <c r="G12" s="81">
+      <c r="E12" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="79">
+        <v>0</v>
+      </c>
+      <c r="G12" s="79">
         <f t="shared" si="0"/>
         <v>12604279672.155575</v>
       </c>
       <c r="H12" s="50">
         <v>1</v>
       </c>
-      <c r="I12" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="79">
+      <c r="I12" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="77">
         <v>1</v>
       </c>
       <c r="B13" s="51">
@@ -2232,25 +2241,25 @@
       <c r="D13" s="52">
         <v>12596064143.542929</v>
       </c>
-      <c r="E13" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="81">
-        <v>0</v>
-      </c>
-      <c r="G13" s="81">
+      <c r="E13" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="79">
+        <v>0</v>
+      </c>
+      <c r="G13" s="79">
         <f t="shared" si="0"/>
         <v>12596064143.542929</v>
       </c>
       <c r="H13" s="50">
         <v>1</v>
       </c>
-      <c r="I13" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="79">
+      <c r="I13" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="77">
         <v>1</v>
       </c>
       <c r="B14" s="51">
@@ -2262,25 +2271,25 @@
       <c r="D14" s="52">
         <v>13445096962.15469</v>
       </c>
-      <c r="E14" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="81">
-        <v>0</v>
-      </c>
-      <c r="G14" s="81">
+      <c r="E14" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="79">
+        <v>0</v>
+      </c>
+      <c r="G14" s="79">
         <f t="shared" si="0"/>
         <v>13445096962.15469</v>
       </c>
       <c r="H14" s="50">
         <v>1</v>
       </c>
-      <c r="I14" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="79">
+      <c r="I14" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="77">
         <v>1</v>
       </c>
       <c r="B15" s="51">
@@ -2292,25 +2301,25 @@
       <c r="D15" s="52">
         <v>14739583848.133047</v>
       </c>
-      <c r="E15" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="81">
-        <v>0</v>
-      </c>
-      <c r="G15" s="81">
+      <c r="E15" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="79">
+        <v>0</v>
+      </c>
+      <c r="G15" s="79">
         <f t="shared" si="0"/>
         <v>14739583848.133047</v>
       </c>
       <c r="H15" s="50">
         <v>1</v>
       </c>
-      <c r="I15" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="79">
+      <c r="I15" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="77">
         <v>1</v>
       </c>
       <c r="B16" s="51">
@@ -2322,25 +2331,25 @@
       <c r="D16" s="52">
         <v>12605429846.161364</v>
       </c>
-      <c r="E16" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="81">
-        <v>0</v>
-      </c>
-      <c r="G16" s="81">
+      <c r="E16" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="79">
+        <v>0</v>
+      </c>
+      <c r="G16" s="79">
         <f t="shared" si="0"/>
         <v>12605429846.161364</v>
       </c>
       <c r="H16" s="50">
         <v>1</v>
       </c>
-      <c r="I16" s="79">
+      <c r="I16" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="79">
+      <c r="A17" s="77">
         <v>1</v>
       </c>
       <c r="B17" s="51">
@@ -2352,25 +2361,25 @@
       <c r="D17" s="52">
         <v>13008874519.979589</v>
       </c>
-      <c r="E17" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="81">
-        <v>0</v>
-      </c>
-      <c r="G17" s="81">
+      <c r="E17" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="79">
+        <v>0</v>
+      </c>
+      <c r="G17" s="79">
         <f t="shared" si="0"/>
         <v>13008874519.979589</v>
       </c>
       <c r="H17" s="50">
         <v>1</v>
       </c>
-      <c r="I17" s="79">
+      <c r="I17" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="79">
+      <c r="A18" s="77">
         <v>1</v>
       </c>
       <c r="B18" s="51">
@@ -2382,25 +2391,25 @@
       <c r="D18" s="52">
         <v>12611887251.65089</v>
       </c>
-      <c r="E18" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="81">
-        <v>0</v>
-      </c>
-      <c r="G18" s="81">
+      <c r="E18" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="79">
+        <v>0</v>
+      </c>
+      <c r="G18" s="79">
         <f t="shared" si="0"/>
         <v>12611887251.65089</v>
       </c>
       <c r="H18" s="50">
         <v>1</v>
       </c>
-      <c r="I18" s="79">
+      <c r="I18" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="79">
+      <c r="A19" s="77">
         <v>1</v>
       </c>
       <c r="B19" s="51">
@@ -2412,25 +2421,25 @@
       <c r="D19" s="52">
         <v>12631336146.38661</v>
       </c>
-      <c r="E19" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="81">
-        <v>0</v>
-      </c>
-      <c r="G19" s="81">
+      <c r="E19" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="79">
+        <v>0</v>
+      </c>
+      <c r="G19" s="79">
         <f t="shared" si="0"/>
         <v>12631336146.38661</v>
       </c>
       <c r="H19" s="50">
         <v>1</v>
       </c>
-      <c r="I19" s="79">
+      <c r="I19" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="79">
+      <c r="A20" s="77">
         <v>1</v>
       </c>
       <c r="B20" s="51">
@@ -2442,25 +2451,25 @@
       <c r="D20" s="52">
         <v>12598249474.153875</v>
       </c>
-      <c r="E20" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="81">
-        <v>0</v>
-      </c>
-      <c r="G20" s="81">
+      <c r="E20" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="79">
+        <v>0</v>
+      </c>
+      <c r="G20" s="79">
         <f t="shared" si="0"/>
         <v>12598249474.153875</v>
       </c>
       <c r="H20" s="50">
         <v>1</v>
       </c>
-      <c r="I20" s="79">
+      <c r="I20" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="79">
+      <c r="A21" s="77">
         <v>1</v>
       </c>
       <c r="B21" s="51">
@@ -2472,25 +2481,25 @@
       <c r="D21" s="52">
         <v>12600014826.942177</v>
       </c>
-      <c r="E21" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="81">
-        <v>0</v>
-      </c>
-      <c r="G21" s="81">
+      <c r="E21" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="79">
+        <v>0</v>
+      </c>
+      <c r="G21" s="79">
         <f t="shared" si="0"/>
         <v>12600014826.942177</v>
       </c>
       <c r="H21" s="50">
         <v>1</v>
       </c>
-      <c r="I21" s="79">
+      <c r="I21" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="79">
+      <c r="A22" s="77">
         <v>1</v>
       </c>
       <c r="B22" s="51">
@@ -2502,25 +2511,25 @@
       <c r="D22" s="52">
         <v>12597595737.157084</v>
       </c>
-      <c r="E22" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="81">
-        <v>0</v>
-      </c>
-      <c r="G22" s="81">
+      <c r="E22" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="79">
+        <v>0</v>
+      </c>
+      <c r="G22" s="79">
         <f t="shared" si="0"/>
         <v>12597595737.157084</v>
       </c>
       <c r="H22" s="50">
         <v>1</v>
       </c>
-      <c r="I22" s="79">
+      <c r="I22" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="79">
+      <c r="A23" s="77">
         <v>1</v>
       </c>
       <c r="B23" s="51">
@@ -2532,25 +2541,25 @@
       <c r="D23" s="52">
         <v>12814536300.187536</v>
       </c>
-      <c r="E23" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="81">
-        <v>0</v>
-      </c>
-      <c r="G23" s="81">
+      <c r="E23" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="79">
+        <v>0</v>
+      </c>
+      <c r="G23" s="79">
         <f t="shared" si="0"/>
         <v>12814536300.187536</v>
       </c>
       <c r="H23" s="50">
         <v>1</v>
       </c>
-      <c r="I23" s="79">
+      <c r="I23" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="79">
+      <c r="A24" s="77">
         <v>1</v>
       </c>
       <c r="B24" s="51">
@@ -2562,25 +2571,25 @@
       <c r="D24" s="52">
         <v>12621764444.317513</v>
       </c>
-      <c r="E24" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="81">
-        <v>0</v>
-      </c>
-      <c r="G24" s="81">
+      <c r="E24" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="79">
+        <v>0</v>
+      </c>
+      <c r="G24" s="79">
         <f t="shared" si="0"/>
         <v>12621764444.317513</v>
       </c>
       <c r="H24" s="50">
         <v>1</v>
       </c>
-      <c r="I24" s="79">
+      <c r="I24" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="79">
+      <c r="A25" s="77">
         <v>1</v>
       </c>
       <c r="B25" s="51">
@@ -2592,20 +2601,20 @@
       <c r="D25" s="52">
         <v>12597535489.94726</v>
       </c>
-      <c r="E25" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="81">
-        <v>0</v>
-      </c>
-      <c r="G25" s="81">
+      <c r="E25" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="79">
+        <v>0</v>
+      </c>
+      <c r="G25" s="79">
         <f t="shared" si="0"/>
         <v>12597535489.94726</v>
       </c>
       <c r="H25" s="50">
         <v>1</v>
       </c>
-      <c r="I25" s="79">
+      <c r="I25" s="77">
         <v>1</v>
       </c>
     </row>
@@ -2640,25 +2649,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="H1" s="81" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="83" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -2679,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="H2" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2706,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="H3" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2733,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="H4" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -2760,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="H5" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -2787,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="H6" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -2814,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="H7" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -2841,13 +2850,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="H8" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H8" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -2868,13 +2877,13 @@
         <v>4.4199999999999992E-6</v>
       </c>
       <c r="F9" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H9" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -2895,13 +2904,13 @@
         <v>4.0949999999999999E-5</v>
       </c>
       <c r="F10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="H10" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H10" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -2922,13 +2931,13 @@
         <v>2.2112999999999999E-4</v>
       </c>
       <c r="F11" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="H11" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H11" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -2949,13 +2958,13 @@
         <v>8.8634E-4</v>
       </c>
       <c r="F12" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="H12" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H12" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -2976,13 +2985,13 @@
         <v>2.9194199999999998E-3</v>
       </c>
       <c r="F13" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="H13" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H13" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -3003,13 +3012,13 @@
         <v>8.0996999999999996E-3</v>
       </c>
       <c r="F14" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="H14" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H14" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -3030,13 +3039,13 @@
         <v>1.932621E-2</v>
       </c>
       <c r="F15" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="H15" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H15" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -3057,13 +3066,13 @@
         <v>4.0032999999999999E-2</v>
       </c>
       <c r="F16" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="84" t="s">
+      <c r="H16" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H16" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -3084,13 +3093,13 @@
         <v>7.2787120000000011E-2</v>
       </c>
       <c r="F17" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="H17" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H17" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -3111,13 +3120,13 @@
         <v>0.11736212</v>
       </c>
       <c r="F18" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="84" t="s">
+      <c r="H18" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H18" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -3138,13 +3147,13 @@
         <v>0.169983</v>
       </c>
       <c r="F19" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="84" t="s">
+      <c r="H19" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H19" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -3165,13 +3174,13 @@
         <v>0.22406371</v>
       </c>
       <c r="F20" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="H20" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H20" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -3192,13 +3201,13 @@
         <v>0.27287470000000003</v>
       </c>
       <c r="F21" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="84" t="s">
+      <c r="H21" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H21" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -3219,13 +3228,13 @@
         <v>0.31174442000000002</v>
       </c>
       <c r="F22" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="84" t="s">
+      <c r="H22" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H22" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -3246,13 +3255,13 @@
         <v>0.33942384000000003</v>
       </c>
       <c r="F23" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="84" t="s">
+      <c r="H23" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H23" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -3273,13 +3282,13 @@
         <v>0.35700862999999999</v>
       </c>
       <c r="F24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="84" t="s">
+      <c r="H24" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H24" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -3300,13 +3309,13 @@
         <v>0.36720344999999999</v>
       </c>
       <c r="F25" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="84" t="s">
+      <c r="H25" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H25" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -3327,13 +3336,13 @@
         <v>0.37242942000000001</v>
       </c>
       <c r="F26" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="84" t="s">
+      <c r="H26" s="82" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -3354,13 +3363,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="H27" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H27" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -3381,13 +3390,13 @@
         <v>3.9346934028736662E-3</v>
       </c>
       <c r="F28" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="H28" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H28" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -3408,13 +3417,13 @@
         <v>1.2642411176571153E-2</v>
       </c>
       <c r="F29" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="H29" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H29" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -3435,13 +3444,13 @@
         <v>3.8843491992578513E-2</v>
       </c>
       <c r="F30" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="H30" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H30" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -3462,13 +3471,13 @@
         <v>8.6466471676338738E-2</v>
       </c>
       <c r="F31" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="84" t="s">
+      <c r="H31" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H31" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -3489,13 +3498,13 @@
         <v>0.18358300027522023</v>
       </c>
       <c r="F32" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="84" t="s">
+      <c r="H32" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H32" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -3516,13 +3525,13 @@
         <v>0.28506387948964079</v>
       </c>
       <c r="F33" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="H33" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H33" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -3543,13 +3552,13 @@
         <v>0.38792104663107263</v>
       </c>
       <c r="F34" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="H34" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H34" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -3570,13 +3579,13 @@
         <v>0.49084218055563289</v>
       </c>
       <c r="F35" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="H35" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H35" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -3597,13 +3606,13 @@
         <v>0.59333460207705457</v>
       </c>
       <c r="F36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="84" t="s">
+      <c r="H36" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H36" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -3624,13 +3633,13 @@
         <v>0.64562033445059441</v>
       </c>
       <c r="F37" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="H37" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H37" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -3651,13 +3660,13 @@
         <v>0.67224142927903685</v>
       </c>
       <c r="F38" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="H38" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H38" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -3678,13 +3687,13 @@
         <v>0.69826487347633348</v>
       </c>
       <c r="F39" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="84" t="s">
+      <c r="H39" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H39" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -3705,13 +3714,13 @@
         <v>0.70893255817298584</v>
       </c>
       <c r="F40" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="84" t="s">
+      <c r="H40" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H40" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -3732,13 +3741,13 @@
         <v>0.71934344498480074</v>
       </c>
       <c r="F41" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="84" t="s">
+      <c r="H41" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H41" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -3759,13 +3768,13 @@
         <v>0.72459901383164282</v>
       </c>
       <c r="F42" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="84" t="s">
+      <c r="H42" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H42" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -3786,13 +3795,13 @@
         <v>0.72475678959477063</v>
       </c>
       <c r="F43" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="84" t="s">
+      <c r="H43" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H43" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -3813,13 +3822,13 @@
         <v>0.72496708505092222</v>
       </c>
       <c r="F44" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="84" t="s">
+      <c r="H44" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H44" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -3840,13 +3849,13 @@
         <v>0.72499991841199829</v>
       </c>
       <c r="F45" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="84" t="s">
+      <c r="H45" s="82" t="s">
         <v>22</v>
-      </c>
-      <c r="H45" s="84" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -3867,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G46" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -3894,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G47" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -3921,13 +3930,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G48" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -3948,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G49" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -3975,13 +3984,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G50" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4002,13 +4011,13 @@
         <v>1.3225E-6</v>
       </c>
       <c r="F51" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G51" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4029,13 +4038,13 @@
         <v>1.5869999999999999E-5</v>
       </c>
       <c r="F52" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G52" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4056,13 +4065,13 @@
         <v>1.9044E-4</v>
       </c>
       <c r="F53" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G53" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4083,13 +4092,13 @@
         <v>1.0619675E-3</v>
       </c>
       <c r="F54" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G54" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4110,13 +4119,13 @@
         <v>4.2372899999999995E-3</v>
       </c>
       <c r="F55" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G55" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4137,13 +4146,13 @@
         <v>1.1954077499999997E-2</v>
       </c>
       <c r="F56" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G56" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4164,13 +4173,13 @@
         <v>2.5991092499999993E-2</v>
       </c>
       <c r="F57" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G57" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4191,13 +4200,13 @@
         <v>4.2840949999999996E-2</v>
       </c>
       <c r="F58" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G58" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4218,13 +4227,13 @@
         <v>4.2840949999999996E-2</v>
       </c>
       <c r="F59" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G59" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4245,13 +4254,13 @@
         <v>4.2840949999999996E-2</v>
       </c>
       <c r="F60" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G60" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4272,13 +4281,13 @@
         <v>4.2840949999999996E-2</v>
       </c>
       <c r="F61" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G61" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4299,13 +4308,13 @@
         <v>4.2840949999999996E-2</v>
       </c>
       <c r="F62" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G62" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4326,13 +4335,13 @@
         <v>4.2840949999999996E-2</v>
       </c>
       <c r="F63" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G63" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4353,13 +4362,13 @@
         <v>4.2840949999999996E-2</v>
       </c>
       <c r="F64" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G64" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4380,13 +4389,13 @@
         <v>4.2840949999999996E-2</v>
       </c>
       <c r="F65" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G65" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4407,13 +4416,13 @@
         <v>4.2840949999999996E-2</v>
       </c>
       <c r="F66" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="82" t="s">
         <v>24</v>
-      </c>
-      <c r="G66" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="84" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -4434,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="F67" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G67" s="84" t="s">
+      <c r="H67" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H67" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -4461,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="F68" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G68" s="84" t="s">
+      <c r="H68" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H68" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -4488,13 +4497,13 @@
         <v>0</v>
       </c>
       <c r="F69" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="84" t="s">
+      <c r="H69" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H69" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -4515,13 +4524,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="84" t="s">
+      <c r="H70" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H70" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -4542,13 +4551,13 @@
         <v>0</v>
       </c>
       <c r="F71" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G71" s="84" t="s">
+      <c r="H71" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H71" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -4569,13 +4578,13 @@
         <v>9.0249999999999998E-5</v>
       </c>
       <c r="F72" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G72" s="84" t="s">
+      <c r="H72" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H72" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
@@ -4596,13 +4605,13 @@
         <v>1.8232900000000002E-3</v>
       </c>
       <c r="F73" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G73" s="84" t="s">
+      <c r="H73" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H73" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
@@ -4623,13 +4632,13 @@
         <v>1.6179840000000001E-2</v>
       </c>
       <c r="F74" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G74" s="84" t="s">
+      <c r="H74" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H74" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
@@ -4650,13 +4659,13 @@
         <v>8.1111039999999995E-2</v>
       </c>
       <c r="F75" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G75" s="84" t="s">
+      <c r="H75" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H75" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
@@ -4677,13 +4686,13 @@
         <v>0.25</v>
       </c>
       <c r="F76" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G76" s="84" t="s">
+      <c r="H76" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H76" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
@@ -4704,13 +4713,13 @@
         <v>0.51151103999999992</v>
       </c>
       <c r="F77" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G77" s="84" t="s">
+      <c r="H77" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H77" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
@@ -4731,13 +4740,13 @@
         <v>0.76177983999999999</v>
       </c>
       <c r="F78" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G78" s="84" t="s">
+      <c r="H78" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H78" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
@@ -4758,13 +4767,13 @@
         <v>0.91642329000000011</v>
       </c>
       <c r="F79" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G79" s="84" t="s">
+      <c r="H79" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H79" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
@@ -4785,13 +4794,13 @@
         <v>0.98109025000000005</v>
       </c>
       <c r="F80" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="G80" s="84" t="s">
+      <c r="H80" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="H80" s="84" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
@@ -4812,13 +4821,13 @@
         <v>0</v>
       </c>
       <c r="F81" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G81" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
@@ -4839,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="F82" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G82" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
@@ -4866,13 +4875,13 @@
         <v>6.9999999999999997E-7</v>
       </c>
       <c r="F83" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G83" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
@@ -4893,13 +4902,13 @@
         <v>3.9099999999999998E-6</v>
       </c>
       <c r="F84" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G84" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
@@ -4920,13 +4929,13 @@
         <v>1.271E-5</v>
       </c>
       <c r="F85" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G85" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
@@ -4947,13 +4956,13 @@
         <v>3.0719999999999997E-5</v>
       </c>
       <c r="F86" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G86" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
@@ -4974,13 +4983,13 @@
         <v>6.745E-5</v>
       </c>
       <c r="F87" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G87" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
@@ -5001,13 +5010,13 @@
         <v>1.3634999999999998E-4</v>
       </c>
       <c r="F88" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G88" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
@@ -5028,13 +5037,13 @@
         <v>2.5853999999999997E-4</v>
       </c>
       <c r="F89" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G89" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
@@ -5055,13 +5064,13 @@
         <v>4.6750000000000003E-4</v>
       </c>
       <c r="F90" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G90" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
@@ -5082,13 +5091,13 @@
         <v>8.1262999999999995E-4</v>
       </c>
       <c r="F91" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G91" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
@@ -5109,13 +5118,13 @@
         <v>1.3664E-3</v>
       </c>
       <c r="F92" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G92" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
@@ -5136,13 +5145,13 @@
         <v>2.2290499999999998E-3</v>
       </c>
       <c r="F93" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G93" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
@@ -5163,13 +5172,13 @@
         <v>3.5380499999999996E-3</v>
       </c>
       <c r="F94" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G94" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
@@ -5190,13 +5199,13 @@
         <v>5.4592E-3</v>
       </c>
       <c r="F95" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G95" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
@@ -5217,13 +5226,13 @@
         <v>8.2372800000000013E-3</v>
       </c>
       <c r="F96" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G96" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
@@ -5244,13 +5253,13 @@
         <v>1.2134880000000001E-2</v>
       </c>
       <c r="F97" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G97" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
@@ -5271,13 +5280,13 @@
         <v>1.748415E-2</v>
       </c>
       <c r="F98" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G98" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
@@ -5298,13 +5307,13 @@
         <v>2.4625079999999997E-2</v>
       </c>
       <c r="F99" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G99" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
@@ -5325,13 +5334,13 @@
         <v>3.3962879999999994E-2</v>
       </c>
       <c r="F100" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G100" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
@@ -5352,13 +5361,13 @@
         <v>4.5917439999999997E-2</v>
       </c>
       <c r="F101" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G101" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.15">
@@ -5379,13 +5388,13 @@
         <v>6.0833280000000003E-2</v>
       </c>
       <c r="F102" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G102" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.15">
@@ -5406,13 +5415,13 @@
         <v>7.9040100000000002E-2</v>
       </c>
       <c r="F103" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G103" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
@@ -5433,13 +5442,13 @@
         <v>0.10075084999999999</v>
       </c>
       <c r="F104" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G104" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H104" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
@@ -5460,13 +5469,13 @@
         <v>0.12614676</v>
       </c>
       <c r="F105" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G105" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
@@ -5487,13 +5496,13 @@
         <v>0.15509817000000001</v>
       </c>
       <c r="F106" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G106" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H106" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
@@ -5514,13 +5523,13 @@
         <v>0.1875</v>
       </c>
       <c r="F107" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H107" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G107" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H107" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
@@ -5541,13 +5550,13 @@
         <v>0.22297317</v>
       </c>
       <c r="F108" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G108" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
@@ -5568,13 +5577,13 @@
         <v>0.26097176</v>
       </c>
       <c r="F109" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G109" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H109" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
@@ -5595,13 +5604,13 @@
         <v>0.30097584999999999</v>
       </c>
       <c r="F110" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H110" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G110" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
@@ -5622,13 +5631,13 @@
         <v>0.34209009999999995</v>
       </c>
       <c r="F111" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G111" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H111" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
@@ -5649,13 +5658,13 @@
         <v>0.38363327999999997</v>
       </c>
       <c r="F112" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H112" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G112" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H112" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
@@ -5676,13 +5685,13 @@
         <v>0.42476744000000005</v>
       </c>
       <c r="F113" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H113" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G113" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H113" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.15">
@@ -5703,13 +5712,13 @@
         <v>0.46476288000000004</v>
       </c>
       <c r="F114" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H114" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G114" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H114" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.15">
@@ -5730,13 +5739,13 @@
         <v>0.50282507999999992</v>
       </c>
       <c r="F115" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G115" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H115" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G115" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.15">
@@ -5757,13 +5766,13 @@
         <v>0.53845915</v>
       </c>
       <c r="F116" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H116" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G116" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H116" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
@@ -5784,13 +5793,13 @@
         <v>0.57133487999999999</v>
       </c>
       <c r="F117" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G117" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H117" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.15">
@@ -5811,13 +5820,13 @@
         <v>0.60103728000000001</v>
       </c>
       <c r="F118" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H118" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G118" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H118" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
@@ -5838,13 +5847,13 @@
         <v>0.62748420000000005</v>
       </c>
       <c r="F119" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H119" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G119" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H119" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.15">
@@ -5865,13 +5874,13 @@
         <v>0.65051305000000004</v>
       </c>
       <c r="F120" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H120" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G120" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.15">
@@ -5892,13 +5901,13 @@
         <v>0.67045404999999991</v>
       </c>
       <c r="F121" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G121" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H121" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.15">
@@ -5919,13 +5928,13 @@
         <v>0.68734139999999999</v>
       </c>
       <c r="F122" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H122" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G122" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.15">
@@ -5946,13 +5955,13 @@
         <v>0.70143762999999992</v>
       </c>
       <c r="F123" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H123" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G123" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H123" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.15">
@@ -5973,13 +5982,13 @@
         <v>0.71301749999999997</v>
       </c>
       <c r="F124" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H124" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G124" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H124" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.15">
@@ -6000,13 +6009,13 @@
         <v>0.72240853999999999</v>
       </c>
       <c r="F125" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G125" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H125" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.15">
@@ -6027,13 +6036,13 @@
         <v>0.72991135000000007</v>
       </c>
       <c r="F126" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H126" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G126" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.15">
@@ -6054,13 +6063,13 @@
         <v>0.73584245000000004</v>
       </c>
       <c r="F127" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G127" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G127" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H127" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.15">
@@ -6081,13 +6090,13 @@
         <v>0.74043071999999999</v>
       </c>
       <c r="F128" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H128" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G128" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.15">
@@ -6108,13 +6117,13 @@
         <v>0.74383770999999999</v>
       </c>
       <c r="F129" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G129" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H129" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.15">
@@ -6135,13 +6144,13 @@
         <v>0.74657890999999998</v>
       </c>
       <c r="F130" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G130" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H130" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.15">
@@ -6162,13 +6171,13 @@
         <v>0.74855070000000001</v>
       </c>
       <c r="F131" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G131" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H131" s="82" t="s">
         <v>29</v>
-      </c>
-      <c r="G131" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H131" s="84" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.15">
@@ -6189,13 +6198,13 @@
         <v>0</v>
       </c>
       <c r="F132" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H132" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G132" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H132" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.15">
@@ -6216,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="F133" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H133" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G133" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H133" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.15">
@@ -6243,13 +6252,13 @@
         <v>0</v>
       </c>
       <c r="F134" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G134" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H134" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.15">
@@ -6270,13 +6279,13 @@
         <v>0</v>
       </c>
       <c r="F135" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G135" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H135" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G135" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H135" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.15">
@@ -6297,13 +6306,13 @@
         <v>0</v>
       </c>
       <c r="F136" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H136" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G136" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H136" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.15">
@@ -6324,13 +6333,13 @@
         <v>0</v>
       </c>
       <c r="F137" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G137" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G137" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H137" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.15">
@@ -6351,13 +6360,13 @@
         <v>0</v>
       </c>
       <c r="F138" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H138" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G138" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H138" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.15">
@@ -6378,13 +6387,13 @@
         <v>4.4199999999999992E-6</v>
       </c>
       <c r="F139" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H139" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G139" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H139" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.15">
@@ -6405,13 +6414,13 @@
         <v>4.0949999999999999E-5</v>
       </c>
       <c r="F140" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G140" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H140" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G140" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H140" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.15">
@@ -6432,13 +6441,13 @@
         <v>2.2112999999999999E-4</v>
       </c>
       <c r="F141" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H141" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G141" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H141" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.15">
@@ -6459,13 +6468,13 @@
         <v>8.8634E-4</v>
       </c>
       <c r="F142" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H142" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G142" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H142" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.15">
@@ -6486,13 +6495,13 @@
         <v>2.9194199999999998E-3</v>
       </c>
       <c r="F143" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H143" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G143" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H143" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.15">
@@ -6513,13 +6522,13 @@
         <v>8.0996999999999996E-3</v>
       </c>
       <c r="F144" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G144" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H144" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G144" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H144" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.15">
@@ -6540,13 +6549,13 @@
         <v>1.932621E-2</v>
       </c>
       <c r="F145" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G145" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H145" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G145" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H145" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.15">
@@ -6567,13 +6576,13 @@
         <v>4.0032999999999999E-2</v>
       </c>
       <c r="F146" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H146" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G146" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H146" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.15">
@@ -6594,13 +6603,13 @@
         <v>7.2787120000000011E-2</v>
       </c>
       <c r="F147" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H147" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G147" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H147" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.15">
@@ -6621,13 +6630,13 @@
         <v>0.11736212</v>
       </c>
       <c r="F148" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H148" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G148" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H148" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.15">
@@ -6648,13 +6657,13 @@
         <v>0.169983</v>
       </c>
       <c r="F149" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H149" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G149" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H149" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.15">
@@ -6675,13 +6684,13 @@
         <v>0.22406371</v>
       </c>
       <c r="F150" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H150" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G150" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H150" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.15">
@@ -6702,13 +6711,13 @@
         <v>0.27287470000000003</v>
       </c>
       <c r="F151" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G151" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H151" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G151" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H151" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.15">
@@ -6729,13 +6738,13 @@
         <v>0.31174442000000002</v>
       </c>
       <c r="F152" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H152" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G152" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H152" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.15">
@@ -6756,13 +6765,13 @@
         <v>0.33942384000000003</v>
       </c>
       <c r="F153" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G153" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H153" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G153" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H153" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.15">
@@ -6783,13 +6792,13 @@
         <v>0.35700862999999999</v>
       </c>
       <c r="F154" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G154" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H154" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G154" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H154" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.15">
@@ -6810,13 +6819,13 @@
         <v>0.36720344999999999</v>
       </c>
       <c r="F155" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G155" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H155" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G155" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H155" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.15">
@@ -6837,13 +6846,13 @@
         <v>0.37242942000000001</v>
       </c>
       <c r="F156" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G156" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H156" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G156" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H156" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.15">
@@ -6864,13 +6873,13 @@
         <v>0.37242942000000001</v>
       </c>
       <c r="F157" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G157" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H157" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G157" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H157" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.15">
@@ -6891,13 +6900,13 @@
         <v>0.37242942000000001</v>
       </c>
       <c r="F158" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G158" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G158" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H158" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.15">
@@ -6918,13 +6927,13 @@
         <v>0.37242942000000001</v>
       </c>
       <c r="F159" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G159" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H159" s="82" t="s">
         <v>31</v>
-      </c>
-      <c r="G159" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H159" s="84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.15">
@@ -6945,13 +6954,13 @@
         <v>0</v>
       </c>
       <c r="F160" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G160" s="84" t="s">
+      <c r="H160" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H160" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.15">
@@ -6972,13 +6981,13 @@
         <v>6.7894977625149707E-3</v>
       </c>
       <c r="F161" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G161" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G161" s="84" t="s">
+      <c r="H161" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H161" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.15">
@@ -6999,13 +7008,13 @@
         <v>8.1452892025085273E-3</v>
       </c>
       <c r="F162" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G162" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G162" s="84" t="s">
+      <c r="H162" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H162" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.15">
@@ -7026,13 +7035,13 @@
         <v>9.7250935234509377E-3</v>
       </c>
       <c r="F163" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G163" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G163" s="84" t="s">
+      <c r="H163" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H163" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.15">
@@ -7053,13 +7062,13 @@
         <v>1.1558965622772255E-2</v>
       </c>
       <c r="F164" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G164" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G164" s="84" t="s">
+      <c r="H164" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H164" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.15">
@@ -7080,13 +7089,13 @@
         <v>1.3679929811126701E-2</v>
       </c>
       <c r="F165" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G165" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G165" s="84" t="s">
+      <c r="H165" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H165" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.15">
@@ -7107,13 +7116,13 @@
         <v>1.612411040175948E-2</v>
       </c>
       <c r="F166" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G166" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G166" s="84" t="s">
+      <c r="H166" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H166" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.15">
@@ -7134,13 +7143,13 @@
         <v>1.8930840810322529E-2</v>
       </c>
       <c r="F167" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G167" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G167" s="84" t="s">
+      <c r="H167" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H167" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.15">
@@ -7161,13 +7170,13 @@
         <v>2.2142745565971369E-2</v>
       </c>
       <c r="F168" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G168" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G168" s="84" t="s">
+      <c r="H168" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H168" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.15">
@@ -7188,13 +7197,13 @@
         <v>2.5805789159262998E-2</v>
       </c>
       <c r="F169" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G169" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G169" s="84" t="s">
+      <c r="H169" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H169" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.15">
@@ -7215,13 +7224,13 @@
         <v>2.9969285220214359E-2</v>
       </c>
       <c r="F170" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G170" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G170" s="84" t="s">
+      <c r="H170" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H170" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.15">
@@ -7242,13 +7251,13 @@
         <v>3.4685859148140347E-2</v>
       </c>
       <c r="F171" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G171" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G171" s="84" t="s">
+      <c r="H171" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H171" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.15">
@@ -7269,13 +7278,13 @@
         <v>4.0011357022279731E-2</v>
       </c>
       <c r="F172" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G172" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G172" s="84" t="s">
+      <c r="H172" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H172" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.15">
@@ -7296,13 +7305,13 @@
         <v>4.6004693428603236E-2</v>
       </c>
       <c r="F173" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G173" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G173" s="84" t="s">
+      <c r="H173" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H173" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.15">
@@ -7323,13 +7332,13 @@
         <v>5.2727630764276362E-2</v>
       </c>
       <c r="F174" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G174" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G174" s="84" t="s">
+      <c r="H174" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H174" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.15">
@@ -7350,13 +7359,13 @@
         <v>6.0244482648057873E-2</v>
       </c>
       <c r="F175" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G175" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G175" s="84" t="s">
+      <c r="H175" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H175" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.15">
@@ -7377,13 +7386,13 @@
         <v>6.8621734293342507E-2</v>
       </c>
       <c r="F176" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G176" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G176" s="84" t="s">
+      <c r="H176" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H176" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.15">
@@ -7404,13 +7413,13 @@
         <v>7.7927573110664561E-2</v>
       </c>
       <c r="F177" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G177" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G177" s="84" t="s">
+      <c r="H177" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H177" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.15">
@@ -7431,13 +7440,13 @@
         <v>8.8231323416828294E-2</v>
       </c>
       <c r="F178" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G178" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G178" s="84" t="s">
+      <c r="H178" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H178" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.15">
@@ -7458,13 +7467,13 @@
         <v>9.9602779954607035E-2</v>
       </c>
       <c r="F179" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G179" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G179" s="84" t="s">
+      <c r="H179" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H179" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.15">
@@ -7485,13 +7494,13 @@
         <v>0.11211143598319059</v>
       </c>
       <c r="F180" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G180" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G180" s="84" t="s">
+      <c r="H180" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H180" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.15">
@@ -7512,13 +7521,13 @@
         <v>0.12582560299401158</v>
       </c>
       <c r="F181" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G181" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G181" s="84" t="s">
+      <c r="H181" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H181" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.15">
@@ -7539,13 +7548,13 @@
         <v>0.14081142064289429</v>
       </c>
       <c r="F182" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G182" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G182" s="84" t="s">
+      <c r="H182" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H182" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.15">
@@ -7566,13 +7575,13 @@
         <v>0.15713175726498158</v>
       </c>
       <c r="F183" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G183" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G183" s="84" t="s">
+      <c r="H183" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H183" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.15">
@@ -7593,13 +7602,13 @@
         <v>0.1748450033435115</v>
       </c>
       <c r="F184" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G184" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G184" s="84" t="s">
+      <c r="H184" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H184" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.15">
@@ -7620,13 +7629,13 @@
         <v>0.19400376251873502</v>
       </c>
       <c r="F185" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G185" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G185" s="84" t="s">
+      <c r="H185" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H185" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.15">
@@ -7647,13 +7656,13 @@
         <v>0.21465344712068224</v>
       </c>
       <c r="F186" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G186" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G186" s="84" t="s">
+      <c r="H186" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H186" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.15">
@@ -7674,13 +7683,13 @@
         <v>0.23683078774987801</v>
       </c>
       <c r="F187" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G187" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G187" s="84" t="s">
+      <c r="H187" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H187" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.15">
@@ -7701,13 +7710,13 @@
         <v>0.26056226906163876</v>
       </c>
       <c r="F188" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G188" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G188" s="84" t="s">
+      <c r="H188" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H188" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.15">
@@ -7728,13 +7737,13 @@
         <v>0.28586250656655443</v>
       </c>
       <c r="F189" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G189" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G189" s="84" t="s">
+      <c r="H189" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H189" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.15">
@@ -7755,13 +7764,13 @@
         <v>0.31273258186018732</v>
       </c>
       <c r="F190" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G190" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G190" s="84" t="s">
+      <c r="H190" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H190" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.15">
@@ -7782,13 +7791,13 @@
         <v>0.34115835613808448</v>
       </c>
       <c r="F191" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G191" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G191" s="84" t="s">
+      <c r="H191" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H191" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.15">
@@ -7809,13 +7818,13 @@
         <v>0.37110878401387581</v>
       </c>
       <c r="F192" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G192" s="84" t="s">
+      <c r="H192" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H192" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.15">
@@ -7836,13 +7845,13 @@
         <v>0.40253425138521626</v>
       </c>
       <c r="F193" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G193" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G193" s="84" t="s">
+      <c r="H193" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H193" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.15">
@@ -7863,13 +7872,13 @@
         <v>0.43536496219154253</v>
       </c>
       <c r="F194" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G194" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G194" s="84" t="s">
+      <c r="H194" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H194" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.15">
@@ -7890,13 +7899,13 @@
         <v>0.46950939913000722</v>
       </c>
       <c r="F195" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G195" s="84" t="s">
+      <c r="H195" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H195" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.15">
@@ -7917,13 +7926,13 @@
         <v>0.50485288240794324</v>
       </c>
       <c r="F196" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G196" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G196" s="84" t="s">
+      <c r="H196" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H196" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.15">
@@ -7944,13 +7953,13 @@
         <v>0.54125624794663152</v>
       </c>
       <c r="F197" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G197" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G197" s="84" t="s">
+      <c r="H197" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H197" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.15">
@@ -7971,13 +7980,13 @@
         <v>0.57855466143021683</v>
       </c>
       <c r="F198" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G198" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G198" s="84" t="s">
+      <c r="H198" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H198" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.15">
@@ -7998,13 +8007,13 @@
         <v>0.61655657616662185</v>
       </c>
       <c r="F199" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G199" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G199" s="84" t="s">
+      <c r="H199" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H199" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.15">
@@ -8025,13 +8034,13 @@
         <v>0.65504282919680723</v>
       </c>
       <c r="F200" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G200" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G200" s="84" t="s">
+      <c r="H200" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H200" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.15">
@@ -8052,13 +8061,13 @@
         <v>0.69376584856657464</v>
       </c>
       <c r="F201" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G201" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G201" s="84" t="s">
+      <c r="H201" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H201" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.15">
@@ -8079,13 +8088,13 @@
         <v>0.73244890999046364</v>
       </c>
       <c r="F202" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G202" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G202" s="84" t="s">
+      <c r="H202" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H202" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.15">
@@ -8106,13 +8115,13 @@
         <v>0.77078532351724727</v>
       </c>
       <c r="F203" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G203" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G203" s="84" t="s">
+      <c r="H203" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H203" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.15">
@@ -8133,13 +8142,13 @@
         <v>0.80843733063706336</v>
       </c>
       <c r="F204" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G204" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G204" s="84" t="s">
+      <c r="H204" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H204" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.15">
@@ -8160,13 +8169,13 @@
         <v>0.84503430732816953</v>
       </c>
       <c r="F205" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G205" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G205" s="84" t="s">
+      <c r="H205" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H205" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.15">
@@ -8187,13 +8196,13 @@
         <v>0.88016949984130288</v>
       </c>
       <c r="F206" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G206" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G206" s="84" t="s">
+      <c r="H206" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H206" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.15">
@@ -8214,13 +8223,13 @@
         <v>0.9133937089650993</v>
       </c>
       <c r="F207" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G207" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G207" s="84" t="s">
+      <c r="H207" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H207" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.15">
@@ -8241,13 +8250,13 @@
         <v>0.94420230443054021</v>
       </c>
       <c r="F208" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G208" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G208" s="84" t="s">
+      <c r="H208" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H208" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.15">
@@ -8268,13 +8277,13 @@
         <v>0.97200579347616878</v>
       </c>
       <c r="F209" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G209" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G209" s="84" t="s">
+      <c r="H209" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H209" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.15">
@@ -8295,13 +8304,13 @@
         <v>0.996048734278002</v>
       </c>
       <c r="F210" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G210" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G210" s="84" t="s">
+      <c r="H210" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H210" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.15">
@@ -8322,13 +8331,13 @@
         <v>1</v>
       </c>
       <c r="F211" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G211" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G211" s="84" t="s">
+      <c r="H211" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H211" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.15">
@@ -8349,13 +8358,13 @@
         <v>1</v>
       </c>
       <c r="F212" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G212" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G212" s="84" t="s">
+      <c r="H212" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H212" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.15">
@@ -8376,13 +8385,13 @@
         <v>1</v>
       </c>
       <c r="F213" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G213" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G213" s="84" t="s">
+      <c r="H213" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H213" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.15">
@@ -8403,13 +8412,13 @@
         <v>1</v>
       </c>
       <c r="F214" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G214" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G214" s="84" t="s">
+      <c r="H214" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H214" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.15">
@@ -8430,13 +8439,13 @@
         <v>1</v>
       </c>
       <c r="F215" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G215" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G215" s="84" t="s">
+      <c r="H215" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H215" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.15">
@@ -8457,13 +8466,13 @@
         <v>1</v>
       </c>
       <c r="F216" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G216" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G216" s="84" t="s">
+      <c r="H216" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H216" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.15">
@@ -8484,13 +8493,13 @@
         <v>1</v>
       </c>
       <c r="F217" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G217" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G217" s="84" t="s">
+      <c r="H217" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H217" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.15">
@@ -8511,13 +8520,13 @@
         <v>1</v>
       </c>
       <c r="F218" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G218" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G218" s="84" t="s">
+      <c r="H218" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H218" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.15">
@@ -8538,13 +8547,13 @@
         <v>1</v>
       </c>
       <c r="F219" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G219" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G219" s="84" t="s">
+      <c r="H219" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H219" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.15">
@@ -8565,13 +8574,13 @@
         <v>1</v>
       </c>
       <c r="F220" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G220" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G220" s="84" t="s">
+      <c r="H220" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H220" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.15">
@@ -8592,13 +8601,13 @@
         <v>1</v>
       </c>
       <c r="F221" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G221" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G221" s="84" t="s">
+      <c r="H221" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H221" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.15">
@@ -8619,13 +8628,13 @@
         <v>1</v>
       </c>
       <c r="F222" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G222" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G222" s="84" t="s">
+      <c r="H222" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H222" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.15">
@@ -8646,13 +8655,13 @@
         <v>1</v>
       </c>
       <c r="F223" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G223" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G223" s="84" t="s">
+      <c r="H223" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H223" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.15">
@@ -8673,13 +8682,13 @@
         <v>1</v>
       </c>
       <c r="F224" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G224" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G224" s="84" t="s">
+      <c r="H224" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H224" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.15">
@@ -8700,13 +8709,13 @@
         <v>1</v>
       </c>
       <c r="F225" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G225" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G225" s="84" t="s">
+      <c r="H225" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H225" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.15">
@@ -8727,13 +8736,13 @@
         <v>1</v>
       </c>
       <c r="F226" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G226" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G226" s="84" t="s">
+      <c r="H226" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H226" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.15">
@@ -8754,13 +8763,13 @@
         <v>1</v>
       </c>
       <c r="F227" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G227" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G227" s="84" t="s">
+      <c r="H227" s="82" t="s">
         <v>34</v>
-      </c>
-      <c r="H227" s="84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.15">
@@ -8781,247 +8790,247 @@
         <v>1</v>
       </c>
       <c r="F228" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G228" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G228" s="84" t="s">
+      <c r="H228" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="H228" s="84" t="s">
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A229" s="85">
+        <v>3</v>
+      </c>
+      <c r="B229" s="85">
+        <v>0</v>
+      </c>
+      <c r="C229" s="85">
+        <v>0</v>
+      </c>
+      <c r="D229" s="85">
+        <v>0</v>
+      </c>
+      <c r="E229" s="85">
+        <v>0</v>
+      </c>
+      <c r="F229" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G229" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H229" s="82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A229" s="87">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A230" s="85">
         <v>3</v>
       </c>
-      <c r="B229" s="87">
-        <v>0</v>
-      </c>
-      <c r="C229" s="87">
-        <v>0</v>
-      </c>
-      <c r="D229" s="87">
-        <v>0</v>
-      </c>
-      <c r="E229" s="87">
-        <v>0</v>
-      </c>
-      <c r="F229" s="87" t="s">
+      <c r="B230" s="85">
+        <v>20</v>
+      </c>
+      <c r="C230" s="85">
+        <v>0</v>
+      </c>
+      <c r="D230" s="85">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E230" s="85">
+        <v>0</v>
+      </c>
+      <c r="F230" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G230" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G229" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H229" s="84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A230" s="87">
+      <c r="H230" s="82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A231" s="85">
         <v>3</v>
       </c>
-      <c r="B230" s="87">
-        <v>20</v>
-      </c>
-      <c r="C230" s="87">
-        <v>0</v>
-      </c>
-      <c r="D230" s="87">
+      <c r="B231" s="85">
+        <v>30</v>
+      </c>
+      <c r="C231" s="85">
+        <v>0</v>
+      </c>
+      <c r="D231" s="85">
+        <v>0</v>
+      </c>
+      <c r="E231" s="85">
+        <v>0</v>
+      </c>
+      <c r="F231" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G231" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H231" s="82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A232" s="85">
+        <v>3</v>
+      </c>
+      <c r="B232" s="85">
+        <v>40</v>
+      </c>
+      <c r="C232" s="85">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D232" s="85">
+        <v>0.16</v>
+      </c>
+      <c r="E232" s="85">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E230" s="87">
-        <v>0</v>
-      </c>
-      <c r="F230" s="87" t="s">
+      <c r="F232" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G232" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G230" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H230" s="84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A231" s="87">
+      <c r="H232" s="82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A233" s="85">
         <v>3</v>
       </c>
-      <c r="B231" s="87">
-        <v>30</v>
-      </c>
-      <c r="C231" s="87">
-        <v>0</v>
-      </c>
-      <c r="D231" s="87">
-        <v>0</v>
-      </c>
-      <c r="E231" s="87">
-        <v>0</v>
-      </c>
-      <c r="F231" s="87" t="s">
+      <c r="B233" s="85">
+        <v>50</v>
+      </c>
+      <c r="C233" s="85">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="D233" s="85">
+        <v>0.37</v>
+      </c>
+      <c r="E233" s="85">
+        <v>0.02</v>
+      </c>
+      <c r="F233" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G233" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G231" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H231" s="84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A232" s="87">
+      <c r="H233" s="82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A234" s="85">
         <v>3</v>
       </c>
-      <c r="B232" s="87">
-        <v>40</v>
-      </c>
-      <c r="C232" s="87">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D232" s="87">
-        <v>0.16</v>
-      </c>
-      <c r="E232" s="87">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F232" s="87" t="s">
+      <c r="B234" s="85">
+        <v>60</v>
+      </c>
+      <c r="C234" s="85">
+        <v>0.10461538461538462</v>
+      </c>
+      <c r="D234" s="85">
+        <v>0.65</v>
+      </c>
+      <c r="E234" s="85">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F234" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G234" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G232" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H232" s="84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A233" s="87">
+      <c r="H234" s="82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A235" s="85">
         <v>3</v>
       </c>
-      <c r="B233" s="87">
-        <v>50</v>
-      </c>
-      <c r="C233" s="87">
-        <v>5.4054054054054057E-2</v>
-      </c>
-      <c r="D233" s="87">
-        <v>0.37</v>
-      </c>
-      <c r="E233" s="87">
-        <v>0.02</v>
-      </c>
-      <c r="F233" s="87" t="s">
+      <c r="B235" s="85">
+        <v>70</v>
+      </c>
+      <c r="C235" s="85">
+        <v>0.21176470588235294</v>
+      </c>
+      <c r="D235" s="85">
+        <v>0.85</v>
+      </c>
+      <c r="E235" s="85">
+        <v>0.18</v>
+      </c>
+      <c r="F235" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G235" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G233" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H233" s="84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A234" s="87">
+      <c r="H235" s="82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A236" s="85">
         <v>3</v>
       </c>
-      <c r="B234" s="87">
-        <v>60</v>
-      </c>
-      <c r="C234" s="87">
-        <v>0.10461538461538462</v>
-      </c>
-      <c r="D234" s="87">
-        <v>0.65</v>
-      </c>
-      <c r="E234" s="87">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F234" s="87" t="s">
+      <c r="B236" s="85">
+        <v>80</v>
+      </c>
+      <c r="C236" s="85">
+        <v>0.4</v>
+      </c>
+      <c r="D236" s="85">
+        <v>1</v>
+      </c>
+      <c r="E236" s="85">
+        <v>0.4</v>
+      </c>
+      <c r="F236" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G236" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G234" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H234" s="84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A235" s="87">
+      <c r="H236" s="82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A237" s="85">
         <v>3</v>
       </c>
-      <c r="B235" s="87">
-        <v>70</v>
-      </c>
-      <c r="C235" s="87">
-        <v>0.21176470588235294</v>
-      </c>
-      <c r="D235" s="87">
-        <v>0.85</v>
-      </c>
-      <c r="E235" s="87">
-        <v>0.18</v>
-      </c>
-      <c r="F235" s="87" t="s">
+      <c r="B237" s="85">
+        <v>100</v>
+      </c>
+      <c r="C237" s="85">
+        <v>0.4</v>
+      </c>
+      <c r="D237" s="85">
+        <v>1</v>
+      </c>
+      <c r="E237" s="85">
+        <v>0.4</v>
+      </c>
+      <c r="F237" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G237" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G235" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H235" s="84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A236" s="87">
-        <v>3</v>
-      </c>
-      <c r="B236" s="87">
-        <v>80</v>
-      </c>
-      <c r="C236" s="87">
-        <v>0.4</v>
-      </c>
-      <c r="D236" s="87">
-        <v>1</v>
-      </c>
-      <c r="E236" s="87">
-        <v>0.4</v>
-      </c>
-      <c r="F236" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G236" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H236" s="84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A237" s="87">
-        <v>3</v>
-      </c>
-      <c r="B237" s="87">
-        <v>100</v>
-      </c>
-      <c r="C237" s="87">
-        <v>0.4</v>
-      </c>
-      <c r="D237" s="87">
-        <v>1</v>
-      </c>
-      <c r="E237" s="87">
-        <v>0.4</v>
-      </c>
-      <c r="F237" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H237" s="84" t="s">
-        <v>36</v>
+      <c r="H237" s="82" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -9062,69 +9071,69 @@
   <sheetData>
     <row r="1" spans="1:17" s="58" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="D1" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="E1" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="F1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="G1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="H1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="I1" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="J1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="K1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="L1" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="M1" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="N1" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="70" t="s">
+      <c r="P1" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="70" t="s">
-        <v>50</v>
-      </c>
       <c r="Q1" s="71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>52</v>
       </c>
       <c r="C2" s="74">
         <f>_measures_details!B15</f>
         <v>40572510.205771826</v>
       </c>
-      <c r="D2" s="86">
+      <c r="D2" s="84">
         <v>1</v>
       </c>
       <c r="E2" s="75">
@@ -9134,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="59">
         <v>1</v>
@@ -9149,12 +9158,12 @@
         <v>0</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="88">
+        <v>52</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="86">
         <v>0</v>
       </c>
       <c r="O2" s="59">
@@ -9164,21 +9173,21 @@
         <v>0</v>
       </c>
       <c r="Q2" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>55</v>
       </c>
       <c r="C3" s="63">
         <f>_measures_details!B26</f>
         <v>63968125.006875344</v>
       </c>
-      <c r="D3" s="86">
+      <c r="D3" s="84">
         <v>1</v>
       </c>
       <c r="E3" s="59">
@@ -9188,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="59">
         <v>1</v>
@@ -9203,12 +9212,12 @@
         <v>0</v>
       </c>
       <c r="L3" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="88">
+        <v>52</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="86">
         <v>0</v>
       </c>
       <c r="O3" s="59">
@@ -9218,21 +9227,21 @@
         <v>0</v>
       </c>
       <c r="Q3" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="63">
         <f>_measures_details!B34</f>
         <v>22388843.752406374</v>
       </c>
-      <c r="D4" s="86">
+      <c r="D4" s="84">
         <v>1</v>
       </c>
       <c r="E4" s="59">
@@ -9242,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="59">
         <v>0.9</v>
@@ -9257,12 +9266,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="88">
+        <v>52</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="86">
         <v>0</v>
       </c>
       <c r="O4" s="59">
@@ -9272,21 +9281,21 @@
         <v>0</v>
       </c>
       <c r="Q4" s="59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="63">
         <f>_measures_details!B43</f>
         <v>731904375.02062607</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="84">
         <v>1</v>
       </c>
       <c r="E5" s="59">
@@ -9297,7 +9306,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="59">
         <v>1</v>
@@ -9312,12 +9321,12 @@
         <v>0</v>
       </c>
       <c r="L5" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="88">
+        <v>52</v>
+      </c>
+      <c r="M5" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="86">
         <v>0</v>
       </c>
       <c r="O5" s="59">
@@ -9327,21 +9336,21 @@
         <v>0</v>
       </c>
       <c r="Q5" s="59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="63">
         <f>_measures_details!B22</f>
         <v>3911963265.4766488</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="84">
         <v>1</v>
       </c>
       <c r="E6" s="59">
@@ -9351,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="59">
         <v>0.9</v>
@@ -9366,12 +9375,12 @@
         <v>0</v>
       </c>
       <c r="L6" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="88">
+        <v>52</v>
+      </c>
+      <c r="M6" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="86">
         <v>0</v>
       </c>
       <c r="O6" s="59">
@@ -9381,20 +9390,20 @@
         <v>0</v>
       </c>
       <c r="Q6" s="59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="63">
         <v>10000000</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="84">
         <v>1</v>
       </c>
       <c r="E7" s="59">
@@ -9404,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="59">
         <v>1</v>
@@ -9419,12 +9428,12 @@
         <v>0</v>
       </c>
       <c r="L7" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="88">
+        <v>59</v>
+      </c>
+      <c r="M7" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="86">
         <v>0</v>
       </c>
       <c r="O7" s="59">
@@ -9434,21 +9443,21 @@
         <v>0</v>
       </c>
       <c r="Q7" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="60" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>62</v>
       </c>
       <c r="C8" s="61">
         <f>1000000+2%*P8</f>
         <v>21000000</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="84">
         <v>1</v>
       </c>
       <c r="E8" s="59">
@@ -9458,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="59">
         <v>1</v>
@@ -9473,12 +9482,12 @@
         <v>0</v>
       </c>
       <c r="L8" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="88">
+        <v>52</v>
+      </c>
+      <c r="M8" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="86">
         <v>0</v>
       </c>
       <c r="O8" s="61">
@@ -9488,7 +9497,7 @@
         <v>1000000000</v>
       </c>
       <c r="Q8" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -9516,13 +9525,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="C1" s="72" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -10670,17 +10679,17 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -10695,50 +10704,50 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="18">
         <v>22.859999965252801</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="18">
         <v>160934.39999999999</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="18">
         <v>0.50000000075999995</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="19">
         <f>B6*B7*B8</f>
         <v>1839480.1919999998</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -10749,13 +10758,13 @@
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="18">
         <v>13.733481502801117</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -10765,43 +10774,43 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="20">
         <f>B9*B11</f>
         <v>25262467.191601045</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="20">
         <f>B13*0.25</f>
         <v>6315616.7979002614</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="21">
         <f>_discounting_sheet!D4</f>
         <v>40572510.205771826</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -10816,12 +10825,12 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5">
         <v>0.5</v>
@@ -10829,30 +10838,30 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="5">
         <v>0.2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="10">
         <f>B20*SUM(assets!D2:D4)*_measures_details!B21</f>
         <v>3911963265.4766488</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -10867,30 +10876,30 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3">
         <v>4000000</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="10">
         <f>_discounting_sheet!F4</f>
         <v>63968125.006875344</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -10905,68 +10914,68 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="3">
         <v>20000000</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3">
         <v>500000</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="3">
         <v>500000</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="3">
         <v>400000</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="10">
         <f>_discounting_sheet!H4</f>
         <v>22388843.752406374</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -10981,76 +10990,76 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="3">
         <v>30000</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="4">
         <f>B38^2*B39*2000</f>
         <v>540000000</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1">
         <v>400</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="4">
         <f>B39*B41</f>
         <v>12000000</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="10">
         <f>_discounting_sheet!J4+B40</f>
         <v>731904375.02062607</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -11082,39 +11091,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -11885,17 +11894,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="257" max="261" width="10.83203125" customWidth="1"/>
     <col min="263" max="266" width="10.83203125" customWidth="1"/>
     <col min="269" max="269" width="10.83203125" customWidth="1"/>
@@ -13300,16 +13309,17 @@
     <col min="5780" max="5781" width="10.83203125" customWidth="1"/>
     <col min="5784" max="5793" width="10.83203125" customWidth="1"/>
     <col min="5797" max="5797" width="10.83203125" customWidth="1"/>
-    <col min="5800" max="5812" width="10.83203125" customWidth="1"/>
-    <col min="5816" max="5818" width="10.83203125" customWidth="1"/>
-    <col min="5821" max="5821" width="10.83203125" customWidth="1"/>
+    <col min="5800" max="5816" width="10.83203125" customWidth="1"/>
+    <col min="5818" max="5818" width="10.83203125" customWidth="1"/>
+    <col min="5820" max="5820" width="10.83203125" customWidth="1"/>
+    <col min="5822" max="5823" width="10.83203125" customWidth="1"/>
     <col min="5826" max="5826" width="10.83203125" customWidth="1"/>
-    <col min="5828" max="5828" width="10.83203125" customWidth="1"/>
+    <col min="5828" max="5829" width="10.83203125" customWidth="1"/>
     <col min="5831" max="5831" width="10.83203125" customWidth="1"/>
     <col min="5833" max="5834" width="10.83203125" customWidth="1"/>
-    <col min="5837" max="5837" width="10.83203125" customWidth="1"/>
-    <col min="5839" max="5839" width="10.83203125" customWidth="1"/>
-    <col min="5841" max="5841" width="10.83203125" customWidth="1"/>
+    <col min="5836" max="5836" width="10.83203125" customWidth="1"/>
+    <col min="5842" max="5843" width="10.83203125" customWidth="1"/>
+    <col min="5847" max="5847" width="10.83203125" customWidth="1"/>
     <col min="5856" max="5937" width="10.83203125" customWidth="1"/>
     <col min="5941" max="5941" width="10.83203125" customWidth="1"/>
     <col min="5944" max="5954" width="10.83203125" customWidth="1"/>
@@ -13324,10 +13334,11 @@
     <col min="6000" max="6004" width="10.83203125" customWidth="1"/>
     <col min="6006" max="6006" width="10.83203125" customWidth="1"/>
     <col min="6008" max="6008" width="10.83203125" customWidth="1"/>
-    <col min="6012" max="6020" width="10.83203125" customWidth="1"/>
-    <col min="6022" max="6025" width="10.83203125" customWidth="1"/>
-    <col min="6027" max="6027" width="10.83203125" customWidth="1"/>
-    <col min="6030" max="6030" width="10.83203125" customWidth="1"/>
+    <col min="6012" max="6012" width="10.83203125" customWidth="1"/>
+    <col min="6015" max="6016" width="10.83203125" customWidth="1"/>
+    <col min="6018" max="6018" width="10.83203125" customWidth="1"/>
+    <col min="6021" max="6022" width="10.83203125" customWidth="1"/>
+    <col min="6029" max="6030" width="10.83203125" customWidth="1"/>
     <col min="6032" max="6032" width="10.83203125" customWidth="1"/>
     <col min="6048" max="6064" width="10.83203125" customWidth="1"/>
     <col min="6066" max="6066" width="10.83203125" customWidth="1"/>
@@ -13343,140 +13354,145 @@
     <col min="6935" max="6964" width="10.83203125" customWidth="1"/>
     <col min="6967" max="6967" width="10.83203125" customWidth="1"/>
     <col min="6971" max="6971" width="10.83203125" customWidth="1"/>
-    <col min="6973" max="6980" width="10.83203125" customWidth="1"/>
-    <col min="6982" max="6985" width="10.83203125" customWidth="1"/>
-    <col min="6987" max="6987" width="10.83203125" customWidth="1"/>
-    <col min="6990" max="6990" width="10.83203125" customWidth="1"/>
+    <col min="6975" max="6976" width="10.83203125" customWidth="1"/>
+    <col min="6978" max="6978" width="10.83203125" customWidth="1"/>
+    <col min="6981" max="6982" width="10.83203125" customWidth="1"/>
+    <col min="6989" max="6990" width="10.83203125" customWidth="1"/>
     <col min="6992" max="6992" width="10.83203125" customWidth="1"/>
     <col min="7008" max="7030" width="10.83203125" customWidth="1"/>
     <col min="7033" max="7033" width="10.83203125" customWidth="1"/>
     <col min="7035" max="7035" width="10.83203125" customWidth="1"/>
-    <col min="7037" max="7044" width="10.83203125" customWidth="1"/>
-    <col min="7046" max="7049" width="10.83203125" customWidth="1"/>
-    <col min="7051" max="7051" width="10.83203125" customWidth="1"/>
-    <col min="7054" max="7054" width="10.83203125" customWidth="1"/>
+    <col min="7039" max="7040" width="10.83203125" customWidth="1"/>
+    <col min="7042" max="7042" width="10.83203125" customWidth="1"/>
+    <col min="7045" max="7046" width="10.83203125" customWidth="1"/>
+    <col min="7053" max="7054" width="10.83203125" customWidth="1"/>
     <col min="7056" max="7056" width="10.83203125" customWidth="1"/>
     <col min="7072" max="7088" width="10.83203125" customWidth="1"/>
     <col min="7090" max="7090" width="10.83203125" customWidth="1"/>
     <col min="7093" max="7093" width="10.83203125" customWidth="1"/>
     <col min="7095" max="7096" width="10.83203125" customWidth="1"/>
-    <col min="7100" max="7100" width="10.83203125" customWidth="1"/>
-    <col min="7102" max="7104" width="10.83203125" customWidth="1"/>
+    <col min="7100" max="7103" width="10.83203125" customWidth="1"/>
     <col min="7106" max="7106" width="10.83203125" customWidth="1"/>
-    <col min="7108" max="7111" width="10.83203125" customWidth="1"/>
-    <col min="7113" max="7113" width="10.83203125" customWidth="1"/>
-    <col min="7116" max="7116" width="10.83203125" customWidth="1"/>
+    <col min="7110" max="7110" width="10.83203125" customWidth="1"/>
+    <col min="7114" max="7115" width="10.83203125" customWidth="1"/>
     <col min="7118" max="7119" width="10.83203125" customWidth="1"/>
     <col min="7136" max="7157" width="10.83203125" customWidth="1"/>
     <col min="7159" max="7188" width="10.83203125" customWidth="1"/>
     <col min="7191" max="7220" width="10.83203125" customWidth="1"/>
     <col min="7222" max="7222" width="10.83203125" customWidth="1"/>
     <col min="7227" max="7227" width="10.83203125" customWidth="1"/>
-    <col min="7229" max="7236" width="10.83203125" customWidth="1"/>
-    <col min="7238" max="7241" width="10.83203125" customWidth="1"/>
-    <col min="7243" max="7243" width="10.83203125" customWidth="1"/>
-    <col min="7246" max="7246" width="10.83203125" customWidth="1"/>
+    <col min="7231" max="7232" width="10.83203125" customWidth="1"/>
+    <col min="7234" max="7234" width="10.83203125" customWidth="1"/>
+    <col min="7237" max="7238" width="10.83203125" customWidth="1"/>
+    <col min="7245" max="7246" width="10.83203125" customWidth="1"/>
     <col min="7248" max="7248" width="10.83203125" customWidth="1"/>
     <col min="7264" max="7285" width="10.83203125" customWidth="1"/>
     <col min="7289" max="7289" width="10.83203125" customWidth="1"/>
     <col min="7291" max="7291" width="10.83203125" customWidth="1"/>
-    <col min="7293" max="7300" width="10.83203125" customWidth="1"/>
-    <col min="7302" max="7305" width="10.83203125" customWidth="1"/>
-    <col min="7307" max="7307" width="10.83203125" customWidth="1"/>
-    <col min="7310" max="7310" width="10.83203125" customWidth="1"/>
+    <col min="7295" max="7296" width="10.83203125" customWidth="1"/>
+    <col min="7298" max="7298" width="10.83203125" customWidth="1"/>
+    <col min="7301" max="7302" width="10.83203125" customWidth="1"/>
+    <col min="7309" max="7310" width="10.83203125" customWidth="1"/>
     <col min="7312" max="7312" width="10.83203125" customWidth="1"/>
     <col min="7328" max="7353" width="10.83203125" customWidth="1"/>
     <col min="7355" max="7355" width="10.83203125" customWidth="1"/>
-    <col min="7357" max="7361" width="10.83203125" customWidth="1"/>
-    <col min="7364" max="7364" width="10.83203125" customWidth="1"/>
-    <col min="7369" max="7369" width="10.83203125" customWidth="1"/>
-    <col min="7373" max="7376" width="10.83203125" customWidth="1"/>
+    <col min="7358" max="7359" width="10.83203125" customWidth="1"/>
+    <col min="7361" max="7361" width="10.83203125" customWidth="1"/>
+    <col min="7365" max="7365" width="10.83203125" customWidth="1"/>
+    <col min="7367" max="7368" width="10.83203125" customWidth="1"/>
+    <col min="7370" max="7371" width="10.83203125" customWidth="1"/>
+    <col min="7374" max="7376" width="10.83203125" customWidth="1"/>
     <col min="7378" max="7415" width="10.83203125" customWidth="1"/>
     <col min="7417" max="7417" width="10.83203125" customWidth="1"/>
-    <col min="7420" max="7428" width="10.83203125" customWidth="1"/>
-    <col min="7430" max="7433" width="10.83203125" customWidth="1"/>
-    <col min="7435" max="7435" width="10.83203125" customWidth="1"/>
-    <col min="7438" max="7438" width="10.83203125" customWidth="1"/>
+    <col min="7420" max="7420" width="10.83203125" customWidth="1"/>
+    <col min="7423" max="7424" width="10.83203125" customWidth="1"/>
+    <col min="7426" max="7426" width="10.83203125" customWidth="1"/>
+    <col min="7429" max="7430" width="10.83203125" customWidth="1"/>
+    <col min="7437" max="7438" width="10.83203125" customWidth="1"/>
     <col min="7440" max="7440" width="10.83203125" customWidth="1"/>
     <col min="7456" max="7473" width="10.83203125" customWidth="1"/>
     <col min="7475" max="7476" width="10.83203125" customWidth="1"/>
     <col min="7478" max="7478" width="10.83203125" customWidth="1"/>
     <col min="7480" max="7481" width="10.83203125" customWidth="1"/>
-    <col min="7486" max="7487" width="10.83203125" customWidth="1"/>
-    <col min="7490" max="7490" width="10.83203125" customWidth="1"/>
-    <col min="7492" max="7492" width="10.83203125" customWidth="1"/>
-    <col min="7494" max="7494" width="10.83203125" customWidth="1"/>
-    <col min="7498" max="7499" width="10.83203125" customWidth="1"/>
+    <col min="7487" max="7491" width="10.83203125" customWidth="1"/>
+    <col min="7493" max="7494" width="10.83203125" customWidth="1"/>
+    <col min="7496" max="7496" width="10.83203125" customWidth="1"/>
+    <col min="7500" max="7500" width="10.83203125" customWidth="1"/>
     <col min="7502" max="7503" width="10.83203125" customWidth="1"/>
     <col min="7520" max="7609" width="10.83203125" customWidth="1"/>
-    <col min="7611" max="7611" width="10.83203125" customWidth="1"/>
-    <col min="7613" max="7617" width="10.83203125" customWidth="1"/>
-    <col min="7620" max="7620" width="10.83203125" customWidth="1"/>
-    <col min="7625" max="7625" width="10.83203125" customWidth="1"/>
-    <col min="7629" max="7632" width="10.83203125" customWidth="1"/>
-    <col min="7634" max="7676" width="10.83203125" customWidth="1"/>
+    <col min="7613" max="7613" width="10.83203125" customWidth="1"/>
+    <col min="7615" max="7615" width="10.83203125" customWidth="1"/>
+    <col min="7617" max="7617" width="10.83203125" customWidth="1"/>
+    <col min="7621" max="7621" width="10.83203125" customWidth="1"/>
+    <col min="7623" max="7624" width="10.83203125" customWidth="1"/>
+    <col min="7626" max="7627" width="10.83203125" customWidth="1"/>
+    <col min="7630" max="7632" width="10.83203125" customWidth="1"/>
+    <col min="7634" max="7665" width="10.83203125" customWidth="1"/>
+    <col min="7667" max="7676" width="10.83203125" customWidth="1"/>
     <col min="7678" max="7731" width="10.83203125" customWidth="1"/>
     <col min="7733" max="7733" width="10.83203125" customWidth="1"/>
-    <col min="7735" max="7815" width="10.83203125" customWidth="1"/>
+    <col min="7735" max="7813" width="10.83203125" customWidth="1"/>
+    <col min="7815" max="7815" width="10.83203125" customWidth="1"/>
     <col min="7817" max="7818" width="10.83203125" customWidth="1"/>
-    <col min="7821" max="7821" width="10.83203125" customWidth="1"/>
-    <col min="7823" max="7823" width="10.83203125" customWidth="1"/>
-    <col min="7825" max="7825" width="10.83203125" customWidth="1"/>
-    <col min="7840" max="7868" width="10.83203125" customWidth="1"/>
-    <col min="7870" max="7870" width="10.83203125" customWidth="1"/>
-    <col min="7873" max="7873" width="10.83203125" customWidth="1"/>
-    <col min="7875" max="7876" width="10.83203125" customWidth="1"/>
-    <col min="7880" max="7880" width="10.83203125" customWidth="1"/>
+    <col min="7820" max="7820" width="10.83203125" customWidth="1"/>
+    <col min="7826" max="7827" width="10.83203125" customWidth="1"/>
+    <col min="7831" max="7831" width="10.83203125" customWidth="1"/>
+    <col min="7840" max="7869" width="10.83203125" customWidth="1"/>
+    <col min="7872" max="7873" width="10.83203125" customWidth="1"/>
+    <col min="7877" max="7877" width="10.83203125" customWidth="1"/>
+    <col min="7879" max="7880" width="10.83203125" customWidth="1"/>
     <col min="7882" max="7883" width="10.83203125" customWidth="1"/>
-    <col min="7885" max="7888" width="10.83203125" customWidth="1"/>
+    <col min="7886" max="7888" width="10.83203125" customWidth="1"/>
     <col min="7890" max="7920" width="10.83203125" customWidth="1"/>
-    <col min="7923" max="7991" width="10.83203125" customWidth="1"/>
-    <col min="7993" max="7996" width="10.83203125" customWidth="1"/>
-    <col min="8000" max="8000" width="10.83203125" customWidth="1"/>
-    <col min="8003" max="8003" width="10.83203125" customWidth="1"/>
-    <col min="8005" max="8007" width="10.83203125" customWidth="1"/>
+    <col min="7923" max="7988" width="10.83203125" customWidth="1"/>
+    <col min="7992" max="7994" width="10.83203125" customWidth="1"/>
+    <col min="7996" max="7997" width="10.83203125" customWidth="1"/>
+    <col min="7999" max="7999" width="10.83203125" customWidth="1"/>
+    <col min="8001" max="8002" width="10.83203125" customWidth="1"/>
+    <col min="8004" max="8005" width="10.83203125" customWidth="1"/>
+    <col min="8007" max="8007" width="10.83203125" customWidth="1"/>
     <col min="8009" max="8010" width="10.83203125" customWidth="1"/>
-    <col min="8013" max="8013" width="10.83203125" customWidth="1"/>
-    <col min="8015" max="8015" width="10.83203125" customWidth="1"/>
-    <col min="8017" max="8017" width="10.83203125" customWidth="1"/>
-    <col min="8032" max="8060" width="10.83203125" customWidth="1"/>
+    <col min="8012" max="8012" width="10.83203125" customWidth="1"/>
+    <col min="8018" max="8019" width="10.83203125" customWidth="1"/>
+    <col min="8023" max="8023" width="10.83203125" customWidth="1"/>
+    <col min="8032" max="8049" width="10.83203125" customWidth="1"/>
+    <col min="8051" max="8060" width="10.83203125" customWidth="1"/>
     <col min="8062" max="8103" width="10.83203125" customWidth="1"/>
-    <col min="8129" max="8132" width="10.83203125" customWidth="1"/>
-    <col min="8134" max="8137" width="10.83203125" customWidth="1"/>
-    <col min="8139" max="8139" width="10.83203125" customWidth="1"/>
-    <col min="8142" max="8142" width="10.83203125" customWidth="1"/>
+    <col min="8130" max="8130" width="10.83203125" customWidth="1"/>
+    <col min="8133" max="8134" width="10.83203125" customWidth="1"/>
+    <col min="8141" max="8142" width="10.83203125" customWidth="1"/>
     <col min="8144" max="8144" width="10.83203125" customWidth="1"/>
     <col min="8160" max="8182" width="10.83203125" customWidth="1"/>
     <col min="8185" max="8186" width="10.83203125" customWidth="1"/>
-    <col min="8188" max="8189" width="10.83203125" customWidth="1"/>
-    <col min="8194" max="8196" width="10.83203125" customWidth="1"/>
-    <col min="8198" max="8198" width="10.83203125" customWidth="1"/>
-    <col min="8200" max="8200" width="10.83203125" customWidth="1"/>
-    <col min="8204" max="8204" width="10.83203125" customWidth="1"/>
-    <col min="8206" max="8207" width="10.83203125" customWidth="1"/>
+    <col min="8188" max="8188" width="10.83203125" customWidth="1"/>
+    <col min="8190" max="8190" width="10.83203125" customWidth="1"/>
+    <col min="8196" max="8196" width="10.83203125" customWidth="1"/>
+    <col min="8199" max="8199" width="10.83203125" customWidth="1"/>
+    <col min="8201" max="8202" width="10.83203125" customWidth="1"/>
+    <col min="8205" max="8207" width="10.83203125" customWidth="1"/>
     <col min="8224" max="8305" width="10.83203125" customWidth="1"/>
-    <col min="8307" max="8308" width="10.83203125" customWidth="1"/>
-    <col min="8310" max="8310" width="10.83203125" customWidth="1"/>
-    <col min="8315" max="8317" width="10.83203125" customWidth="1"/>
-    <col min="8321" max="8327" width="10.83203125" customWidth="1"/>
-    <col min="8329" max="8329" width="10.83203125" customWidth="1"/>
-    <col min="8331" max="8336" width="10.83203125" customWidth="1"/>
-    <col min="8339" max="8341" width="10.83203125" customWidth="1"/>
-    <col min="8343" max="8343" width="10.83203125" customWidth="1"/>
-    <col min="8346" max="8346" width="10.83203125" customWidth="1"/>
-    <col min="8348" max="8350" width="10.83203125" customWidth="1"/>
-    <col min="8353" max="8360" width="10.83203125" customWidth="1"/>
+    <col min="8307" max="8309" width="10.83203125" customWidth="1"/>
+    <col min="8313" max="8314" width="10.83203125" customWidth="1"/>
+    <col min="8318" max="8323" width="10.83203125" customWidth="1"/>
+    <col min="8325" max="8326" width="10.83203125" customWidth="1"/>
+    <col min="8328" max="8329" width="10.83203125" customWidth="1"/>
+    <col min="8331" max="8332" width="10.83203125" customWidth="1"/>
+    <col min="8334" max="8334" width="10.83203125" customWidth="1"/>
+    <col min="8337" max="8337" width="10.83203125" customWidth="1"/>
+    <col min="8339" max="8340" width="10.83203125" customWidth="1"/>
+    <col min="8344" max="8344" width="10.83203125" customWidth="1"/>
+    <col min="8347" max="8348" width="10.83203125" customWidth="1"/>
+    <col min="8352" max="8360" width="10.83203125" customWidth="1"/>
+    <col min="8363" max="8363" width="10.83203125" customWidth="1"/>
     <col min="8365" max="8365" width="10.83203125" customWidth="1"/>
-    <col min="8367" max="8367" width="10.83203125" customWidth="1"/>
+    <col min="8368" max="8368" width="10.83203125" customWidth="1"/>
     <col min="8370" max="8370" width="10.83203125" customWidth="1"/>
     <col min="8373" max="8373" width="10.83203125" customWidth="1"/>
     <col min="8375" max="8376" width="10.83203125" customWidth="1"/>
-    <col min="8380" max="8380" width="10.83203125" customWidth="1"/>
-    <col min="8382" max="8384" width="10.83203125" customWidth="1"/>
+    <col min="8380" max="8383" width="10.83203125" customWidth="1"/>
     <col min="8386" max="8386" width="10.83203125" customWidth="1"/>
-    <col min="8388" max="8391" width="10.83203125" customWidth="1"/>
-    <col min="8393" max="8393" width="10.83203125" customWidth="1"/>
-    <col min="8396" max="8396" width="10.83203125" customWidth="1"/>
+    <col min="8390" max="8390" width="10.83203125" customWidth="1"/>
+    <col min="8394" max="8395" width="10.83203125" customWidth="1"/>
     <col min="8398" max="8399" width="10.83203125" customWidth="1"/>
     <col min="8410" max="8412" width="10.83203125" customWidth="1"/>
     <col min="8415" max="8416" width="10.83203125" customWidth="1"/>
@@ -13489,171 +13505,181 @@
     <col min="8440" max="8501" width="10.83203125" customWidth="1"/>
     <col min="8503" max="8503" width="10.83203125" customWidth="1"/>
     <col min="8505" max="8506" width="10.83203125" customWidth="1"/>
-    <col min="8509" max="8516" width="10.83203125" customWidth="1"/>
-    <col min="8518" max="8521" width="10.83203125" customWidth="1"/>
-    <col min="8523" max="8523" width="10.83203125" customWidth="1"/>
-    <col min="8526" max="8526" width="10.83203125" customWidth="1"/>
+    <col min="8511" max="8512" width="10.83203125" customWidth="1"/>
+    <col min="8514" max="8514" width="10.83203125" customWidth="1"/>
+    <col min="8517" max="8518" width="10.83203125" customWidth="1"/>
+    <col min="8525" max="8526" width="10.83203125" customWidth="1"/>
     <col min="8528" max="8528" width="10.83203125" customWidth="1"/>
     <col min="8544" max="8561" width="10.83203125" customWidth="1"/>
-    <col min="8563" max="8564" width="10.83203125" customWidth="1"/>
-    <col min="8566" max="8566" width="10.83203125" customWidth="1"/>
-    <col min="8571" max="8573" width="10.83203125" customWidth="1"/>
-    <col min="8577" max="8583" width="10.83203125" customWidth="1"/>
-    <col min="8585" max="8585" width="10.83203125" customWidth="1"/>
-    <col min="8587" max="8592" width="10.83203125" customWidth="1"/>
-    <col min="8595" max="8597" width="10.83203125" customWidth="1"/>
-    <col min="8599" max="8599" width="10.83203125" customWidth="1"/>
-    <col min="8602" max="8602" width="10.83203125" customWidth="1"/>
-    <col min="8604" max="8606" width="10.83203125" customWidth="1"/>
-    <col min="8609" max="8616" width="10.83203125" customWidth="1"/>
+    <col min="8563" max="8565" width="10.83203125" customWidth="1"/>
+    <col min="8569" max="8570" width="10.83203125" customWidth="1"/>
+    <col min="8574" max="8579" width="10.83203125" customWidth="1"/>
+    <col min="8581" max="8582" width="10.83203125" customWidth="1"/>
+    <col min="8584" max="8585" width="10.83203125" customWidth="1"/>
+    <col min="8587" max="8588" width="10.83203125" customWidth="1"/>
+    <col min="8590" max="8590" width="10.83203125" customWidth="1"/>
+    <col min="8593" max="8593" width="10.83203125" customWidth="1"/>
+    <col min="8595" max="8596" width="10.83203125" customWidth="1"/>
+    <col min="8600" max="8600" width="10.83203125" customWidth="1"/>
+    <col min="8603" max="8604" width="10.83203125" customWidth="1"/>
+    <col min="8608" max="8616" width="10.83203125" customWidth="1"/>
+    <col min="8619" max="8619" width="10.83203125" customWidth="1"/>
     <col min="8621" max="8621" width="10.83203125" customWidth="1"/>
-    <col min="8623" max="8623" width="10.83203125" customWidth="1"/>
-    <col min="8625" max="8688" width="10.83203125" customWidth="1"/>
+    <col min="8624" max="8688" width="10.83203125" customWidth="1"/>
     <col min="8691" max="8820" width="10.83203125" customWidth="1"/>
     <col min="8823" max="8823" width="10.83203125" customWidth="1"/>
     <col min="8827" max="8827" width="10.83203125" customWidth="1"/>
-    <col min="8829" max="8836" width="10.83203125" customWidth="1"/>
-    <col min="8838" max="8841" width="10.83203125" customWidth="1"/>
-    <col min="8843" max="8843" width="10.83203125" customWidth="1"/>
-    <col min="8846" max="8846" width="10.83203125" customWidth="1"/>
+    <col min="8831" max="8832" width="10.83203125" customWidth="1"/>
+    <col min="8834" max="8834" width="10.83203125" customWidth="1"/>
+    <col min="8837" max="8838" width="10.83203125" customWidth="1"/>
+    <col min="8845" max="8846" width="10.83203125" customWidth="1"/>
     <col min="8848" max="8848" width="10.83203125" customWidth="1"/>
-    <col min="8864" max="8885" width="10.83203125" customWidth="1"/>
-    <col min="8888" max="8890" width="10.83203125" customWidth="1"/>
-    <col min="8893" max="8893" width="10.83203125" customWidth="1"/>
+    <col min="8864" max="8884" width="10.83203125" customWidth="1"/>
+    <col min="8889" max="8890" width="10.83203125" customWidth="1"/>
+    <col min="8892" max="8892" width="10.83203125" customWidth="1"/>
+    <col min="8894" max="8895" width="10.83203125" customWidth="1"/>
     <col min="8898" max="8898" width="10.83203125" customWidth="1"/>
-    <col min="8900" max="8900" width="10.83203125" customWidth="1"/>
+    <col min="8900" max="8901" width="10.83203125" customWidth="1"/>
     <col min="8903" max="8903" width="10.83203125" customWidth="1"/>
     <col min="8905" max="8906" width="10.83203125" customWidth="1"/>
-    <col min="8909" max="8909" width="10.83203125" customWidth="1"/>
-    <col min="8911" max="8911" width="10.83203125" customWidth="1"/>
-    <col min="8913" max="8913" width="10.83203125" customWidth="1"/>
+    <col min="8908" max="8908" width="10.83203125" customWidth="1"/>
+    <col min="8914" max="8915" width="10.83203125" customWidth="1"/>
+    <col min="8919" max="8919" width="10.83203125" customWidth="1"/>
     <col min="8928" max="8949" width="10.83203125" customWidth="1"/>
     <col min="8951" max="8951" width="10.83203125" customWidth="1"/>
     <col min="8955" max="8955" width="10.83203125" customWidth="1"/>
-    <col min="8957" max="8964" width="10.83203125" customWidth="1"/>
-    <col min="8966" max="8969" width="10.83203125" customWidth="1"/>
-    <col min="8971" max="8971" width="10.83203125" customWidth="1"/>
-    <col min="8974" max="8974" width="10.83203125" customWidth="1"/>
+    <col min="8959" max="8960" width="10.83203125" customWidth="1"/>
+    <col min="8962" max="8962" width="10.83203125" customWidth="1"/>
+    <col min="8965" max="8966" width="10.83203125" customWidth="1"/>
+    <col min="8973" max="8974" width="10.83203125" customWidth="1"/>
     <col min="8976" max="8976" width="10.83203125" customWidth="1"/>
     <col min="8992" max="9012" width="10.83203125" customWidth="1"/>
     <col min="9014" max="9014" width="10.83203125" customWidth="1"/>
     <col min="9017" max="9018" width="10.83203125" customWidth="1"/>
-    <col min="9021" max="9022" width="10.83203125" customWidth="1"/>
-    <col min="9026" max="9027" width="10.83203125" customWidth="1"/>
-    <col min="9030" max="9030" width="10.83203125" customWidth="1"/>
-    <col min="9032" max="9033" width="10.83203125" customWidth="1"/>
-    <col min="9036" max="9039" width="10.83203125" customWidth="1"/>
+    <col min="9021" max="9021" width="10.83203125" customWidth="1"/>
+    <col min="9023" max="9023" width="10.83203125" customWidth="1"/>
+    <col min="9025" max="9025" width="10.83203125" customWidth="1"/>
+    <col min="9028" max="9028" width="10.83203125" customWidth="1"/>
+    <col min="9032" max="9032" width="10.83203125" customWidth="1"/>
+    <col min="9037" max="9039" width="10.83203125" customWidth="1"/>
     <col min="9056" max="9076" width="10.83203125" customWidth="1"/>
     <col min="9078" max="9078" width="10.83203125" customWidth="1"/>
     <col min="9083" max="9083" width="10.83203125" customWidth="1"/>
-    <col min="9085" max="9092" width="10.83203125" customWidth="1"/>
-    <col min="9094" max="9097" width="10.83203125" customWidth="1"/>
-    <col min="9099" max="9099" width="10.83203125" customWidth="1"/>
-    <col min="9102" max="9102" width="10.83203125" customWidth="1"/>
+    <col min="9087" max="9088" width="10.83203125" customWidth="1"/>
+    <col min="9090" max="9090" width="10.83203125" customWidth="1"/>
+    <col min="9093" max="9094" width="10.83203125" customWidth="1"/>
+    <col min="9101" max="9102" width="10.83203125" customWidth="1"/>
     <col min="9104" max="9104" width="10.83203125" customWidth="1"/>
-    <col min="9120" max="9141" width="10.83203125" customWidth="1"/>
-    <col min="9144" max="9146" width="10.83203125" customWidth="1"/>
-    <col min="9149" max="9149" width="10.83203125" customWidth="1"/>
+    <col min="9120" max="9140" width="10.83203125" customWidth="1"/>
+    <col min="9145" max="9146" width="10.83203125" customWidth="1"/>
+    <col min="9148" max="9148" width="10.83203125" customWidth="1"/>
+    <col min="9150" max="9151" width="10.83203125" customWidth="1"/>
     <col min="9154" max="9154" width="10.83203125" customWidth="1"/>
-    <col min="9156" max="9156" width="10.83203125" customWidth="1"/>
+    <col min="9156" max="9157" width="10.83203125" customWidth="1"/>
     <col min="9159" max="9159" width="10.83203125" customWidth="1"/>
     <col min="9161" max="9162" width="10.83203125" customWidth="1"/>
-    <col min="9165" max="9165" width="10.83203125" customWidth="1"/>
-    <col min="9167" max="9167" width="10.83203125" customWidth="1"/>
-    <col min="9169" max="9169" width="10.83203125" customWidth="1"/>
+    <col min="9164" max="9164" width="10.83203125" customWidth="1"/>
+    <col min="9170" max="9171" width="10.83203125" customWidth="1"/>
+    <col min="9175" max="9175" width="10.83203125" customWidth="1"/>
     <col min="9184" max="9206" width="10.83203125" customWidth="1"/>
     <col min="9211" max="9211" width="10.83203125" customWidth="1"/>
-    <col min="9213" max="9220" width="10.83203125" customWidth="1"/>
-    <col min="9222" max="9225" width="10.83203125" customWidth="1"/>
-    <col min="9227" max="9227" width="10.83203125" customWidth="1"/>
-    <col min="9230" max="9230" width="10.83203125" customWidth="1"/>
+    <col min="9215" max="9216" width="10.83203125" customWidth="1"/>
+    <col min="9218" max="9218" width="10.83203125" customWidth="1"/>
+    <col min="9221" max="9222" width="10.83203125" customWidth="1"/>
+    <col min="9229" max="9230" width="10.83203125" customWidth="1"/>
     <col min="9232" max="9296" width="10.83203125" customWidth="1"/>
     <col min="9312" max="9462" width="10.83203125" customWidth="1"/>
     <col min="9465" max="9466" width="10.83203125" customWidth="1"/>
-    <col min="9468" max="9469" width="10.83203125" customWidth="1"/>
-    <col min="9474" max="9476" width="10.83203125" customWidth="1"/>
-    <col min="9478" max="9478" width="10.83203125" customWidth="1"/>
-    <col min="9480" max="9480" width="10.83203125" customWidth="1"/>
-    <col min="9484" max="9484" width="10.83203125" customWidth="1"/>
-    <col min="9486" max="9487" width="10.83203125" customWidth="1"/>
-    <col min="9489" max="9553" width="10.83203125" customWidth="1"/>
+    <col min="9468" max="9468" width="10.83203125" customWidth="1"/>
+    <col min="9470" max="9470" width="10.83203125" customWidth="1"/>
+    <col min="9476" max="9476" width="10.83203125" customWidth="1"/>
+    <col min="9479" max="9479" width="10.83203125" customWidth="1"/>
+    <col min="9481" max="9482" width="10.83203125" customWidth="1"/>
+    <col min="9485" max="9487" width="10.83203125" customWidth="1"/>
+    <col min="9489" max="9552" width="10.83203125" customWidth="1"/>
+    <col min="9554" max="9555" width="10.83203125" customWidth="1"/>
+    <col min="9559" max="9559" width="10.83203125" customWidth="1"/>
     <col min="9568" max="9585" width="10.83203125" customWidth="1"/>
-    <col min="9587" max="9588" width="10.83203125" customWidth="1"/>
-    <col min="9590" max="9590" width="10.83203125" customWidth="1"/>
-    <col min="9595" max="9597" width="10.83203125" customWidth="1"/>
-    <col min="9601" max="9607" width="10.83203125" customWidth="1"/>
-    <col min="9609" max="9609" width="10.83203125" customWidth="1"/>
-    <col min="9611" max="9616" width="10.83203125" customWidth="1"/>
-    <col min="9619" max="9621" width="10.83203125" customWidth="1"/>
-    <col min="9623" max="9623" width="10.83203125" customWidth="1"/>
-    <col min="9626" max="9626" width="10.83203125" customWidth="1"/>
-    <col min="9628" max="9630" width="10.83203125" customWidth="1"/>
-    <col min="9633" max="9640" width="10.83203125" customWidth="1"/>
+    <col min="9587" max="9589" width="10.83203125" customWidth="1"/>
+    <col min="9593" max="9594" width="10.83203125" customWidth="1"/>
+    <col min="9598" max="9603" width="10.83203125" customWidth="1"/>
+    <col min="9605" max="9606" width="10.83203125" customWidth="1"/>
+    <col min="9608" max="9609" width="10.83203125" customWidth="1"/>
+    <col min="9611" max="9612" width="10.83203125" customWidth="1"/>
+    <col min="9614" max="9614" width="10.83203125" customWidth="1"/>
+    <col min="9617" max="9617" width="10.83203125" customWidth="1"/>
+    <col min="9619" max="9620" width="10.83203125" customWidth="1"/>
+    <col min="9624" max="9624" width="10.83203125" customWidth="1"/>
+    <col min="9627" max="9628" width="10.83203125" customWidth="1"/>
+    <col min="9632" max="9640" width="10.83203125" customWidth="1"/>
+    <col min="9643" max="9643" width="10.83203125" customWidth="1"/>
     <col min="9645" max="9645" width="10.83203125" customWidth="1"/>
-    <col min="9647" max="9647" width="10.83203125" customWidth="1"/>
-    <col min="9649" max="9652" width="10.83203125" customWidth="1"/>
+    <col min="9648" max="9652" width="10.83203125" customWidth="1"/>
     <col min="9655" max="9655" width="10.83203125" customWidth="1"/>
     <col min="9657" max="9659" width="10.83203125" customWidth="1"/>
-    <col min="9661" max="9668" width="10.83203125" customWidth="1"/>
-    <col min="9670" max="9673" width="10.83203125" customWidth="1"/>
-    <col min="9675" max="9675" width="10.83203125" customWidth="1"/>
-    <col min="9678" max="9678" width="10.83203125" customWidth="1"/>
+    <col min="9663" max="9664" width="10.83203125" customWidth="1"/>
+    <col min="9666" max="9666" width="10.83203125" customWidth="1"/>
+    <col min="9669" max="9670" width="10.83203125" customWidth="1"/>
+    <col min="9677" max="9678" width="10.83203125" customWidth="1"/>
     <col min="9680" max="9680" width="10.83203125" customWidth="1"/>
     <col min="9696" max="9716" width="10.83203125" customWidth="1"/>
-    <col min="9721" max="9725" width="10.83203125" customWidth="1"/>
-    <col min="9727" max="9729" width="10.83203125" customWidth="1"/>
+    <col min="9721" max="9724" width="10.83203125" customWidth="1"/>
     <col min="9731" max="9732" width="10.83203125" customWidth="1"/>
-    <col min="9734" max="9734" width="10.83203125" customWidth="1"/>
+    <col min="9735" max="9735" width="10.83203125" customWidth="1"/>
     <col min="9740" max="9740" width="10.83203125" customWidth="1"/>
     <col min="9744" max="9744" width="10.83203125" customWidth="1"/>
     <col min="9760" max="9780" width="10.83203125" customWidth="1"/>
     <col min="9783" max="9783" width="10.83203125" customWidth="1"/>
-    <col min="9789" max="9796" width="10.83203125" customWidth="1"/>
-    <col min="9798" max="9801" width="10.83203125" customWidth="1"/>
-    <col min="9803" max="9803" width="10.83203125" customWidth="1"/>
-    <col min="9806" max="9806" width="10.83203125" customWidth="1"/>
+    <col min="9791" max="9792" width="10.83203125" customWidth="1"/>
+    <col min="9794" max="9794" width="10.83203125" customWidth="1"/>
+    <col min="9797" max="9798" width="10.83203125" customWidth="1"/>
+    <col min="9805" max="9806" width="10.83203125" customWidth="1"/>
     <col min="9808" max="9808" width="10.83203125" customWidth="1"/>
     <col min="9824" max="9840" width="10.83203125" customWidth="1"/>
     <col min="9905" max="9972" width="10.83203125" customWidth="1"/>
     <col min="9974" max="9975" width="10.83203125" customWidth="1"/>
     <col min="9977" max="9979" width="10.83203125" customWidth="1"/>
-    <col min="9981" max="9988" width="10.83203125" customWidth="1"/>
-    <col min="9990" max="9993" width="10.83203125" customWidth="1"/>
-    <col min="9995" max="9995" width="10.83203125" customWidth="1"/>
-    <col min="9998" max="9998" width="10.83203125" customWidth="1"/>
+    <col min="9983" max="9984" width="10.83203125" customWidth="1"/>
+    <col min="9986" max="9986" width="10.83203125" customWidth="1"/>
+    <col min="9989" max="9990" width="10.83203125" customWidth="1"/>
+    <col min="9997" max="9998" width="10.83203125" customWidth="1"/>
     <col min="10000" max="10000" width="10.83203125" customWidth="1"/>
     <col min="10016" max="10032" width="10.83203125" customWidth="1"/>
     <col min="10034" max="10038" width="10.83203125" customWidth="1"/>
     <col min="10041" max="10041" width="10.83203125" customWidth="1"/>
-    <col min="10044" max="10047" width="10.83203125" customWidth="1"/>
-    <col min="10051" max="10052" width="10.83203125" customWidth="1"/>
-    <col min="10054" max="10057" width="10.83203125" customWidth="1"/>
-    <col min="10060" max="10060" width="10.83203125" customWidth="1"/>
+    <col min="10044" max="10044" width="10.83203125" customWidth="1"/>
+    <col min="10047" max="10048" width="10.83203125" customWidth="1"/>
+    <col min="10050" max="10050" width="10.83203125" customWidth="1"/>
+    <col min="10054" max="10054" width="10.83203125" customWidth="1"/>
+    <col min="10056" max="10056" width="10.83203125" customWidth="1"/>
+    <col min="10058" max="10060" width="10.83203125" customWidth="1"/>
     <col min="10062" max="10063" width="10.83203125" customWidth="1"/>
     <col min="10080" max="10096" width="10.83203125" customWidth="1"/>
     <col min="10161" max="10164" width="10.83203125" customWidth="1"/>
     <col min="10168" max="10168" width="10.83203125" customWidth="1"/>
     <col min="10171" max="10171" width="10.83203125" customWidth="1"/>
-    <col min="10173" max="10180" width="10.83203125" customWidth="1"/>
-    <col min="10182" max="10185" width="10.83203125" customWidth="1"/>
-    <col min="10187" max="10187" width="10.83203125" customWidth="1"/>
-    <col min="10190" max="10190" width="10.83203125" customWidth="1"/>
+    <col min="10175" max="10176" width="10.83203125" customWidth="1"/>
+    <col min="10178" max="10178" width="10.83203125" customWidth="1"/>
+    <col min="10181" max="10182" width="10.83203125" customWidth="1"/>
+    <col min="10189" max="10190" width="10.83203125" customWidth="1"/>
     <col min="10192" max="10192" width="10.83203125" customWidth="1"/>
     <col min="10208" max="10228" width="10.83203125" customWidth="1"/>
     <col min="10231" max="10231" width="10.83203125" customWidth="1"/>
     <col min="10233" max="10235" width="10.83203125" customWidth="1"/>
-    <col min="10237" max="10244" width="10.83203125" customWidth="1"/>
-    <col min="10246" max="10249" width="10.83203125" customWidth="1"/>
-    <col min="10251" max="10251" width="10.83203125" customWidth="1"/>
-    <col min="10254" max="10254" width="10.83203125" customWidth="1"/>
+    <col min="10239" max="10240" width="10.83203125" customWidth="1"/>
+    <col min="10242" max="10242" width="10.83203125" customWidth="1"/>
+    <col min="10245" max="10246" width="10.83203125" customWidth="1"/>
+    <col min="10253" max="10254" width="10.83203125" customWidth="1"/>
     <col min="10256" max="10256" width="10.83203125" customWidth="1"/>
     <col min="10272" max="10288" width="10.83203125" customWidth="1"/>
     <col min="10290" max="10294" width="10.83203125" customWidth="1"/>
     <col min="10297" max="10297" width="10.83203125" customWidth="1"/>
-    <col min="10300" max="10303" width="10.83203125" customWidth="1"/>
-    <col min="10307" max="10308" width="10.83203125" customWidth="1"/>
-    <col min="10310" max="10313" width="10.83203125" customWidth="1"/>
-    <col min="10316" max="10316" width="10.83203125" customWidth="1"/>
+    <col min="10300" max="10300" width="10.83203125" customWidth="1"/>
+    <col min="10303" max="10304" width="10.83203125" customWidth="1"/>
+    <col min="10306" max="10306" width="10.83203125" customWidth="1"/>
+    <col min="10310" max="10310" width="10.83203125" customWidth="1"/>
+    <col min="10312" max="10312" width="10.83203125" customWidth="1"/>
+    <col min="10314" max="10316" width="10.83203125" customWidth="1"/>
     <col min="10318" max="10319" width="10.83203125" customWidth="1"/>
     <col min="10336" max="10352" width="10.83203125" customWidth="1"/>
     <col min="10355" max="10357" width="10.83203125" customWidth="1"/>
@@ -13677,10 +13703,10 @@
     <col min="10415" max="10420" width="10.83203125" customWidth="1"/>
     <col min="10422" max="10423" width="10.83203125" customWidth="1"/>
     <col min="10427" max="10427" width="10.83203125" customWidth="1"/>
-    <col min="10429" max="10436" width="10.83203125" customWidth="1"/>
-    <col min="10438" max="10441" width="10.83203125" customWidth="1"/>
-    <col min="10443" max="10443" width="10.83203125" customWidth="1"/>
-    <col min="10446" max="10446" width="10.83203125" customWidth="1"/>
+    <col min="10431" max="10432" width="10.83203125" customWidth="1"/>
+    <col min="10434" max="10434" width="10.83203125" customWidth="1"/>
+    <col min="10437" max="10438" width="10.83203125" customWidth="1"/>
+    <col min="10445" max="10446" width="10.83203125" customWidth="1"/>
     <col min="10448" max="10448" width="10.83203125" customWidth="1"/>
     <col min="10464" max="10480" width="10.83203125" customWidth="1"/>
     <col min="10482" max="10482" width="10.83203125" customWidth="1"/>
@@ -13769,143 +13795,144 @@
     <col min="10784" max="10800" width="10.83203125" customWidth="1"/>
     <col min="10802" max="10804" width="10.83203125" customWidth="1"/>
     <col min="10806" max="10806" width="10.83203125" customWidth="1"/>
-    <col min="10808" max="10813" width="10.83203125" customWidth="1"/>
+    <col min="10808" max="10812" width="10.83203125" customWidth="1"/>
     <col min="10815" max="10816" width="10.83203125" customWidth="1"/>
-    <col min="10820" max="10820" width="10.83203125" customWidth="1"/>
-    <col min="10822" max="10823" width="10.83203125" customWidth="1"/>
-    <col min="10826" max="10827" width="10.83203125" customWidth="1"/>
-    <col min="10829" max="10832" width="10.83203125" customWidth="1"/>
+    <col min="10818" max="10819" width="10.83203125" customWidth="1"/>
+    <col min="10822" max="10822" width="10.83203125" customWidth="1"/>
+    <col min="10827" max="10828" width="10.83203125" customWidth="1"/>
+    <col min="10830" max="10832" width="10.83203125" customWidth="1"/>
     <col min="10834" max="10864" width="10.83203125" customWidth="1"/>
     <col min="10897" max="10897" width="10.83203125" customWidth="1"/>
     <col min="10929" max="10931" width="10.83203125" customWidth="1"/>
-    <col min="10935" max="10938" width="10.83203125" customWidth="1"/>
-    <col min="10940" max="10940" width="10.83203125" customWidth="1"/>
+    <col min="10935" max="10937" width="10.83203125" customWidth="1"/>
+    <col min="10939" max="10940" width="10.83203125" customWidth="1"/>
     <col min="10942" max="10942" width="10.83203125" customWidth="1"/>
-    <col min="10945" max="10947" width="10.83203125" customWidth="1"/>
-    <col min="10949" max="10950" width="10.83203125" customWidth="1"/>
-    <col min="10952" max="10952" width="10.83203125" customWidth="1"/>
-    <col min="10954" max="10955" width="10.83203125" customWidth="1"/>
-    <col min="10957" max="10957" width="10.83203125" customWidth="1"/>
-    <col min="10959" max="10959" width="10.83203125" customWidth="1"/>
-    <col min="10961" max="10961" width="10.83203125" customWidth="1"/>
+    <col min="10944" max="10944" width="10.83203125" customWidth="1"/>
+    <col min="10946" max="10949" width="10.83203125" customWidth="1"/>
+    <col min="10951" max="10951" width="10.83203125" customWidth="1"/>
+    <col min="10954" max="10956" width="10.83203125" customWidth="1"/>
+    <col min="10962" max="10963" width="10.83203125" customWidth="1"/>
+    <col min="10967" max="10967" width="10.83203125" customWidth="1"/>
     <col min="10976" max="10996" width="10.83203125" customWidth="1"/>
     <col min="10998" max="10998" width="10.83203125" customWidth="1"/>
     <col min="11000" max="11003" width="10.83203125" customWidth="1"/>
-    <col min="11006" max="11006" width="10.83203125" customWidth="1"/>
-    <col min="11008" max="11011" width="10.83203125" customWidth="1"/>
+    <col min="11007" max="11008" width="10.83203125" customWidth="1"/>
+    <col min="11010" max="11011" width="10.83203125" customWidth="1"/>
     <col min="11013" max="11013" width="10.83203125" customWidth="1"/>
-    <col min="11015" max="11016" width="10.83203125" customWidth="1"/>
-    <col min="11018" max="11019" width="10.83203125" customWidth="1"/>
-    <col min="11021" max="11021" width="10.83203125" customWidth="1"/>
-    <col min="11023" max="11023" width="10.83203125" customWidth="1"/>
-    <col min="11025" max="11025" width="10.83203125" customWidth="1"/>
+    <col min="11015" max="11015" width="10.83203125" customWidth="1"/>
+    <col min="11018" max="11020" width="10.83203125" customWidth="1"/>
+    <col min="11026" max="11027" width="10.83203125" customWidth="1"/>
+    <col min="11031" max="11031" width="10.83203125" customWidth="1"/>
     <col min="11040" max="11124" width="10.83203125" customWidth="1"/>
     <col min="11126" max="11126" width="10.83203125" customWidth="1"/>
     <col min="11128" max="11131" width="10.83203125" customWidth="1"/>
-    <col min="11133" max="11140" width="10.83203125" customWidth="1"/>
-    <col min="11142" max="11145" width="10.83203125" customWidth="1"/>
-    <col min="11147" max="11147" width="10.83203125" customWidth="1"/>
-    <col min="11150" max="11150" width="10.83203125" customWidth="1"/>
+    <col min="11135" max="11136" width="10.83203125" customWidth="1"/>
+    <col min="11138" max="11138" width="10.83203125" customWidth="1"/>
+    <col min="11141" max="11142" width="10.83203125" customWidth="1"/>
+    <col min="11149" max="11150" width="10.83203125" customWidth="1"/>
     <col min="11152" max="11152" width="10.83203125" customWidth="1"/>
     <col min="11168" max="11185" width="10.83203125" customWidth="1"/>
     <col min="11187" max="11187" width="10.83203125" customWidth="1"/>
     <col min="11190" max="11193" width="10.83203125" customWidth="1"/>
     <col min="11195" max="11196" width="10.83203125" customWidth="1"/>
-    <col min="11200" max="11200" width="10.83203125" customWidth="1"/>
+    <col min="11198" max="11198" width="10.83203125" customWidth="1"/>
+    <col min="11200" max="11202" width="10.83203125" customWidth="1"/>
     <col min="11204" max="11204" width="10.83203125" customWidth="1"/>
-    <col min="11206" max="11206" width="10.83203125" customWidth="1"/>
-    <col min="11208" max="11209" width="10.83203125" customWidth="1"/>
-    <col min="11212" max="11215" width="10.83203125" customWidth="1"/>
+    <col min="11208" max="11208" width="10.83203125" customWidth="1"/>
+    <col min="11213" max="11215" width="10.83203125" customWidth="1"/>
     <col min="11232" max="11248" width="10.83203125" customWidth="1"/>
     <col min="11252" max="11382" width="10.83203125" customWidth="1"/>
     <col min="11384" max="11384" width="10.83203125" customWidth="1"/>
     <col min="11386" max="11386" width="10.83203125" customWidth="1"/>
-    <col min="11389" max="11396" width="10.83203125" customWidth="1"/>
-    <col min="11398" max="11401" width="10.83203125" customWidth="1"/>
-    <col min="11403" max="11403" width="10.83203125" customWidth="1"/>
-    <col min="11406" max="11406" width="10.83203125" customWidth="1"/>
+    <col min="11391" max="11392" width="10.83203125" customWidth="1"/>
+    <col min="11394" max="11394" width="10.83203125" customWidth="1"/>
+    <col min="11397" max="11398" width="10.83203125" customWidth="1"/>
+    <col min="11405" max="11406" width="10.83203125" customWidth="1"/>
     <col min="11408" max="11408" width="10.83203125" customWidth="1"/>
     <col min="11424" max="11441" width="10.83203125" customWidth="1"/>
     <col min="11444" max="11446" width="10.83203125" customWidth="1"/>
     <col min="11450" max="11451" width="10.83203125" customWidth="1"/>
-    <col min="11455" max="11456" width="10.83203125" customWidth="1"/>
+    <col min="11454" max="11458" width="10.83203125" customWidth="1"/>
     <col min="11460" max="11460" width="10.83203125" customWidth="1"/>
-    <col min="11462" max="11462" width="10.83203125" customWidth="1"/>
-    <col min="11464" max="11465" width="10.83203125" customWidth="1"/>
-    <col min="11468" max="11471" width="10.83203125" customWidth="1"/>
+    <col min="11464" max="11464" width="10.83203125" customWidth="1"/>
+    <col min="11469" max="11471" width="10.83203125" customWidth="1"/>
     <col min="11488" max="11505" width="10.83203125" customWidth="1"/>
-    <col min="11507" max="11508" width="10.83203125" customWidth="1"/>
-    <col min="11510" max="11510" width="10.83203125" customWidth="1"/>
-    <col min="11515" max="11517" width="10.83203125" customWidth="1"/>
-    <col min="11521" max="11527" width="10.83203125" customWidth="1"/>
-    <col min="11529" max="11529" width="10.83203125" customWidth="1"/>
-    <col min="11531" max="11536" width="10.83203125" customWidth="1"/>
-    <col min="11539" max="11541" width="10.83203125" customWidth="1"/>
-    <col min="11543" max="11543" width="10.83203125" customWidth="1"/>
-    <col min="11546" max="11546" width="10.83203125" customWidth="1"/>
-    <col min="11548" max="11550" width="10.83203125" customWidth="1"/>
-    <col min="11553" max="11560" width="10.83203125" customWidth="1"/>
+    <col min="11507" max="11509" width="10.83203125" customWidth="1"/>
+    <col min="11513" max="11514" width="10.83203125" customWidth="1"/>
+    <col min="11518" max="11523" width="10.83203125" customWidth="1"/>
+    <col min="11525" max="11526" width="10.83203125" customWidth="1"/>
+    <col min="11528" max="11529" width="10.83203125" customWidth="1"/>
+    <col min="11531" max="11532" width="10.83203125" customWidth="1"/>
+    <col min="11534" max="11534" width="10.83203125" customWidth="1"/>
+    <col min="11537" max="11537" width="10.83203125" customWidth="1"/>
+    <col min="11539" max="11540" width="10.83203125" customWidth="1"/>
+    <col min="11544" max="11544" width="10.83203125" customWidth="1"/>
+    <col min="11547" max="11548" width="10.83203125" customWidth="1"/>
+    <col min="11552" max="11560" width="10.83203125" customWidth="1"/>
+    <col min="11563" max="11563" width="10.83203125" customWidth="1"/>
     <col min="11565" max="11565" width="10.83203125" customWidth="1"/>
-    <col min="11567" max="11567" width="10.83203125" customWidth="1"/>
+    <col min="11568" max="11568" width="10.83203125" customWidth="1"/>
     <col min="11578" max="11632" width="10.83203125" customWidth="1"/>
     <col min="11697" max="11764" width="10.83203125" customWidth="1"/>
     <col min="11767" max="11767" width="10.83203125" customWidth="1"/>
     <col min="11771" max="11771" width="10.83203125" customWidth="1"/>
-    <col min="11773" max="11780" width="10.83203125" customWidth="1"/>
-    <col min="11782" max="11785" width="10.83203125" customWidth="1"/>
-    <col min="11787" max="11787" width="10.83203125" customWidth="1"/>
-    <col min="11790" max="11790" width="10.83203125" customWidth="1"/>
+    <col min="11775" max="11776" width="10.83203125" customWidth="1"/>
+    <col min="11778" max="11778" width="10.83203125" customWidth="1"/>
+    <col min="11781" max="11782" width="10.83203125" customWidth="1"/>
+    <col min="11789" max="11790" width="10.83203125" customWidth="1"/>
     <col min="11792" max="11792" width="10.83203125" customWidth="1"/>
     <col min="11808" max="11892" width="10.83203125" customWidth="1"/>
     <col min="11894" max="11895" width="10.83203125" customWidth="1"/>
     <col min="11897" max="11897" width="10.83203125" customWidth="1"/>
     <col min="11899" max="11899" width="10.83203125" customWidth="1"/>
-    <col min="11901" max="11908" width="10.83203125" customWidth="1"/>
-    <col min="11910" max="11913" width="10.83203125" customWidth="1"/>
-    <col min="11915" max="11915" width="10.83203125" customWidth="1"/>
-    <col min="11918" max="11918" width="10.83203125" customWidth="1"/>
+    <col min="11903" max="11904" width="10.83203125" customWidth="1"/>
+    <col min="11906" max="11906" width="10.83203125" customWidth="1"/>
+    <col min="11909" max="11910" width="10.83203125" customWidth="1"/>
+    <col min="11917" max="11918" width="10.83203125" customWidth="1"/>
     <col min="11920" max="11920" width="10.83203125" customWidth="1"/>
     <col min="11936" max="11952" width="10.83203125" customWidth="1"/>
     <col min="11954" max="11954" width="10.83203125" customWidth="1"/>
     <col min="11957" max="11960" width="10.83203125" customWidth="1"/>
     <col min="11962" max="11963" width="10.83203125" customWidth="1"/>
-    <col min="11965" max="11966" width="10.83203125" customWidth="1"/>
-    <col min="11970" max="11972" width="10.83203125" customWidth="1"/>
-    <col min="11974" max="11977" width="10.83203125" customWidth="1"/>
-    <col min="11980" max="11980" width="10.83203125" customWidth="1"/>
+    <col min="11968" max="11968" width="10.83203125" customWidth="1"/>
+    <col min="11971" max="11971" width="10.83203125" customWidth="1"/>
+    <col min="11974" max="11974" width="10.83203125" customWidth="1"/>
+    <col min="11976" max="11976" width="10.83203125" customWidth="1"/>
+    <col min="11978" max="11980" width="10.83203125" customWidth="1"/>
     <col min="11982" max="11983" width="10.83203125" customWidth="1"/>
     <col min="12000" max="12020" width="10.83203125" customWidth="1"/>
     <col min="12022" max="12022" width="10.83203125" customWidth="1"/>
     <col min="12027" max="12027" width="10.83203125" customWidth="1"/>
-    <col min="12029" max="12036" width="10.83203125" customWidth="1"/>
-    <col min="12038" max="12041" width="10.83203125" customWidth="1"/>
-    <col min="12043" max="12043" width="10.83203125" customWidth="1"/>
-    <col min="12046" max="12046" width="10.83203125" customWidth="1"/>
+    <col min="12031" max="12032" width="10.83203125" customWidth="1"/>
+    <col min="12034" max="12034" width="10.83203125" customWidth="1"/>
+    <col min="12037" max="12038" width="10.83203125" customWidth="1"/>
+    <col min="12045" max="12046" width="10.83203125" customWidth="1"/>
     <col min="12048" max="12048" width="10.83203125" customWidth="1"/>
     <col min="12064" max="12084" width="10.83203125" customWidth="1"/>
     <col min="12087" max="12087" width="10.83203125" customWidth="1"/>
-    <col min="12093" max="12100" width="10.83203125" customWidth="1"/>
-    <col min="12102" max="12105" width="10.83203125" customWidth="1"/>
-    <col min="12107" max="12107" width="10.83203125" customWidth="1"/>
-    <col min="12110" max="12110" width="10.83203125" customWidth="1"/>
+    <col min="12095" max="12096" width="10.83203125" customWidth="1"/>
+    <col min="12098" max="12098" width="10.83203125" customWidth="1"/>
+    <col min="12101" max="12102" width="10.83203125" customWidth="1"/>
+    <col min="12109" max="12110" width="10.83203125" customWidth="1"/>
     <col min="12112" max="12112" width="10.83203125" customWidth="1"/>
     <col min="12128" max="12144" width="10.83203125" customWidth="1"/>
     <col min="12147" max="12148" width="10.83203125" customWidth="1"/>
     <col min="12151" max="12151" width="10.83203125" customWidth="1"/>
     <col min="12155" max="12155" width="10.83203125" customWidth="1"/>
-    <col min="12157" max="12164" width="10.83203125" customWidth="1"/>
-    <col min="12166" max="12169" width="10.83203125" customWidth="1"/>
-    <col min="12171" max="12171" width="10.83203125" customWidth="1"/>
-    <col min="12174" max="12174" width="10.83203125" customWidth="1"/>
+    <col min="12159" max="12160" width="10.83203125" customWidth="1"/>
+    <col min="12162" max="12162" width="10.83203125" customWidth="1"/>
+    <col min="12165" max="12166" width="10.83203125" customWidth="1"/>
+    <col min="12173" max="12174" width="10.83203125" customWidth="1"/>
     <col min="12176" max="12176" width="10.83203125" customWidth="1"/>
     <col min="12192" max="12208" width="10.83203125" customWidth="1"/>
     <col min="12210" max="12210" width="10.83203125" customWidth="1"/>
     <col min="12213" max="12216" width="10.83203125" customWidth="1"/>
     <col min="12218" max="12219" width="10.83203125" customWidth="1"/>
-    <col min="12221" max="12222" width="10.83203125" customWidth="1"/>
-    <col min="12226" max="12228" width="10.83203125" customWidth="1"/>
-    <col min="12230" max="12233" width="10.83203125" customWidth="1"/>
-    <col min="12236" max="12236" width="10.83203125" customWidth="1"/>
+    <col min="12224" max="12224" width="10.83203125" customWidth="1"/>
+    <col min="12227" max="12227" width="10.83203125" customWidth="1"/>
+    <col min="12230" max="12230" width="10.83203125" customWidth="1"/>
+    <col min="12232" max="12232" width="10.83203125" customWidth="1"/>
+    <col min="12234" max="12236" width="10.83203125" customWidth="1"/>
     <col min="12238" max="12239" width="10.83203125" customWidth="1"/>
     <col min="12243" max="12243" width="10.83203125" customWidth="1"/>
     <col min="12250" max="12275" width="10.83203125" customWidth="1"/>
@@ -13914,10 +13941,10 @@
     <col min="12305" max="12340" width="10.83203125" customWidth="1"/>
     <col min="12343" max="12343" width="10.83203125" customWidth="1"/>
     <col min="12347" max="12347" width="10.83203125" customWidth="1"/>
-    <col min="12349" max="12356" width="10.83203125" customWidth="1"/>
-    <col min="12358" max="12361" width="10.83203125" customWidth="1"/>
-    <col min="12363" max="12363" width="10.83203125" customWidth="1"/>
-    <col min="12366" max="12366" width="10.83203125" customWidth="1"/>
+    <col min="12351" max="12352" width="10.83203125" customWidth="1"/>
+    <col min="12354" max="12354" width="10.83203125" customWidth="1"/>
+    <col min="12357" max="12358" width="10.83203125" customWidth="1"/>
+    <col min="12365" max="12366" width="10.83203125" customWidth="1"/>
     <col min="12368" max="12368" width="10.83203125" customWidth="1"/>
     <col min="12384" max="12401" width="10.83203125" customWidth="1"/>
     <col min="12410" max="12432" width="10.83203125" customWidth="1"/>
@@ -13931,72 +13958,85 @@
     <col min="12564" max="12596" width="10.83203125" customWidth="1"/>
     <col min="12598" max="12598" width="10.83203125" customWidth="1"/>
     <col min="12603" max="12603" width="10.83203125" customWidth="1"/>
-    <col min="12605" max="12612" width="10.83203125" customWidth="1"/>
-    <col min="12614" max="12617" width="10.83203125" customWidth="1"/>
-    <col min="12619" max="12619" width="10.83203125" customWidth="1"/>
-    <col min="12622" max="12622" width="10.83203125" customWidth="1"/>
+    <col min="12607" max="12608" width="10.83203125" customWidth="1"/>
+    <col min="12610" max="12610" width="10.83203125" customWidth="1"/>
+    <col min="12613" max="12614" width="10.83203125" customWidth="1"/>
+    <col min="12621" max="12622" width="10.83203125" customWidth="1"/>
     <col min="12624" max="12624" width="10.83203125" customWidth="1"/>
     <col min="12640" max="12657" width="10.83203125" customWidth="1"/>
-    <col min="12666" max="12793" width="10.83203125" customWidth="1"/>
-    <col min="12796" max="12797" width="10.83203125" customWidth="1"/>
-    <col min="12799" max="12801" width="10.83203125" customWidth="1"/>
-    <col min="12803" max="12804" width="10.83203125" customWidth="1"/>
-    <col min="12806" max="12806" width="10.83203125" customWidth="1"/>
-    <col min="12812" max="12812" width="10.83203125" customWidth="1"/>
+    <col min="12666" max="12721" width="10.83203125" customWidth="1"/>
+    <col min="12723" max="12790" width="10.83203125" customWidth="1"/>
+    <col min="12792" max="12792" width="10.83203125" customWidth="1"/>
+    <col min="12794" max="12795" width="10.83203125" customWidth="1"/>
+    <col min="12799" max="12800" width="10.83203125" customWidth="1"/>
+    <col min="12802" max="12802" width="10.83203125" customWidth="1"/>
+    <col min="12805" max="12806" width="10.83203125" customWidth="1"/>
+    <col min="12813" max="12814" width="10.83203125" customWidth="1"/>
     <col min="12816" max="12816" width="10.83203125" customWidth="1"/>
     <col min="12832" max="12848" width="10.83203125" customWidth="1"/>
-    <col min="12852" max="12921" width="10.83203125" customWidth="1"/>
+    <col min="12854" max="12854" width="10.83203125" customWidth="1"/>
+    <col min="12856" max="12858" width="10.83203125" customWidth="1"/>
+    <col min="12864" max="12864" width="10.83203125" customWidth="1"/>
+    <col min="12866" max="12866" width="10.83203125" customWidth="1"/>
+    <col min="12870" max="12870" width="10.83203125" customWidth="1"/>
+    <col min="12874" max="12875" width="10.83203125" customWidth="1"/>
+    <col min="12878" max="12879" width="10.83203125" customWidth="1"/>
+    <col min="12896" max="12921" width="10.83203125" customWidth="1"/>
     <col min="12923" max="12923" width="10.83203125" customWidth="1"/>
-    <col min="12925" max="12929" width="10.83203125" customWidth="1"/>
-    <col min="12932" max="12932" width="10.83203125" customWidth="1"/>
-    <col min="12937" max="12937" width="10.83203125" customWidth="1"/>
-    <col min="12941" max="12944" width="10.83203125" customWidth="1"/>
+    <col min="12926" max="12927" width="10.83203125" customWidth="1"/>
+    <col min="12929" max="12929" width="10.83203125" customWidth="1"/>
+    <col min="12933" max="12933" width="10.83203125" customWidth="1"/>
+    <col min="12935" max="12936" width="10.83203125" customWidth="1"/>
+    <col min="12938" max="12939" width="10.83203125" customWidth="1"/>
+    <col min="12942" max="12944" width="10.83203125" customWidth="1"/>
     <col min="12946" max="12980" width="10.83203125" customWidth="1"/>
     <col min="12982" max="12983" width="10.83203125" customWidth="1"/>
     <col min="12986" max="12987" width="10.83203125" customWidth="1"/>
-    <col min="12989" max="12996" width="10.83203125" customWidth="1"/>
-    <col min="12998" max="13001" width="10.83203125" customWidth="1"/>
-    <col min="13003" max="13003" width="10.83203125" customWidth="1"/>
-    <col min="13006" max="13006" width="10.83203125" customWidth="1"/>
+    <col min="12991" max="12992" width="10.83203125" customWidth="1"/>
+    <col min="12994" max="12994" width="10.83203125" customWidth="1"/>
+    <col min="12997" max="12998" width="10.83203125" customWidth="1"/>
+    <col min="13005" max="13006" width="10.83203125" customWidth="1"/>
     <col min="13008" max="13008" width="10.83203125" customWidth="1"/>
-    <col min="13024" max="13052" width="10.83203125" customWidth="1"/>
-    <col min="13054" max="13054" width="10.83203125" customWidth="1"/>
-    <col min="13057" max="13057" width="10.83203125" customWidth="1"/>
-    <col min="13059" max="13060" width="10.83203125" customWidth="1"/>
-    <col min="13064" max="13064" width="10.83203125" customWidth="1"/>
+    <col min="13024" max="13053" width="10.83203125" customWidth="1"/>
+    <col min="13056" max="13057" width="10.83203125" customWidth="1"/>
+    <col min="13061" max="13061" width="10.83203125" customWidth="1"/>
+    <col min="13063" max="13064" width="10.83203125" customWidth="1"/>
     <col min="13066" max="13067" width="10.83203125" customWidth="1"/>
-    <col min="13069" max="13072" width="10.83203125" customWidth="1"/>
+    <col min="13070" max="13072" width="10.83203125" customWidth="1"/>
     <col min="13074" max="13113" width="10.83203125" customWidth="1"/>
-    <col min="13115" max="13115" width="10.83203125" customWidth="1"/>
-    <col min="13117" max="13121" width="10.83203125" customWidth="1"/>
-    <col min="13124" max="13124" width="10.83203125" customWidth="1"/>
-    <col min="13129" max="13129" width="10.83203125" customWidth="1"/>
-    <col min="13133" max="13136" width="10.83203125" customWidth="1"/>
+    <col min="13117" max="13117" width="10.83203125" customWidth="1"/>
+    <col min="13119" max="13119" width="10.83203125" customWidth="1"/>
+    <col min="13121" max="13121" width="10.83203125" customWidth="1"/>
+    <col min="13125" max="13125" width="10.83203125" customWidth="1"/>
+    <col min="13127" max="13128" width="10.83203125" customWidth="1"/>
+    <col min="13130" max="13131" width="10.83203125" customWidth="1"/>
+    <col min="13134" max="13136" width="10.83203125" customWidth="1"/>
     <col min="13138" max="13169" width="10.83203125" customWidth="1"/>
     <col min="13172" max="13236" width="10.83203125" customWidth="1"/>
     <col min="13239" max="13239" width="10.83203125" customWidth="1"/>
     <col min="13242" max="13243" width="10.83203125" customWidth="1"/>
-    <col min="13245" max="13252" width="10.83203125" customWidth="1"/>
-    <col min="13254" max="13257" width="10.83203125" customWidth="1"/>
-    <col min="13259" max="13259" width="10.83203125" customWidth="1"/>
-    <col min="13262" max="13262" width="10.83203125" customWidth="1"/>
+    <col min="13247" max="13248" width="10.83203125" customWidth="1"/>
+    <col min="13250" max="13250" width="10.83203125" customWidth="1"/>
+    <col min="13253" max="13254" width="10.83203125" customWidth="1"/>
+    <col min="13261" max="13262" width="10.83203125" customWidth="1"/>
     <col min="13264" max="13264" width="10.83203125" customWidth="1"/>
     <col min="13280" max="13300" width="10.83203125" customWidth="1"/>
     <col min="13303" max="13305" width="10.83203125" customWidth="1"/>
     <col min="13307" max="13307" width="10.83203125" customWidth="1"/>
-    <col min="13309" max="13316" width="10.83203125" customWidth="1"/>
-    <col min="13318" max="13321" width="10.83203125" customWidth="1"/>
-    <col min="13323" max="13323" width="10.83203125" customWidth="1"/>
-    <col min="13326" max="13326" width="10.83203125" customWidth="1"/>
+    <col min="13311" max="13312" width="10.83203125" customWidth="1"/>
+    <col min="13314" max="13314" width="10.83203125" customWidth="1"/>
+    <col min="13317" max="13318" width="10.83203125" customWidth="1"/>
+    <col min="13325" max="13326" width="10.83203125" customWidth="1"/>
     <col min="13328" max="13328" width="10.83203125" customWidth="1"/>
     <col min="13344" max="13361" width="10.83203125" customWidth="1"/>
     <col min="13364" max="13365" width="10.83203125" customWidth="1"/>
     <col min="13367" max="13369" width="10.83203125" customWidth="1"/>
     <col min="13371" max="13371" width="10.83203125" customWidth="1"/>
-    <col min="13377" max="13378" width="10.83203125" customWidth="1"/>
-    <col min="13380" max="13383" width="10.83203125" customWidth="1"/>
-    <col min="13385" max="13385" width="10.83203125" customWidth="1"/>
-    <col min="13388" max="13388" width="10.83203125" customWidth="1"/>
+    <col min="13373" max="13373" width="10.83203125" customWidth="1"/>
+    <col min="13376" max="13376" width="10.83203125" customWidth="1"/>
+    <col min="13378" max="13378" width="10.83203125" customWidth="1"/>
+    <col min="13382" max="13382" width="10.83203125" customWidth="1"/>
+    <col min="13386" max="13387" width="10.83203125" customWidth="1"/>
     <col min="13390" max="13391" width="10.83203125" customWidth="1"/>
     <col min="13408" max="14001" width="10.83203125" customWidth="1"/>
     <col min="14003" max="14005" width="10.83203125" customWidth="1"/>
@@ -14012,143 +14052,161 @@
     <col min="14027" max="14028" width="10.83203125" customWidth="1"/>
     <col min="14031" max="14512" width="10.83203125" customWidth="1"/>
     <col min="14515" max="15601" width="10.83203125" customWidth="1"/>
-    <col min="15603" max="15604" width="10.83203125" customWidth="1"/>
-    <col min="15606" max="15606" width="10.83203125" customWidth="1"/>
-    <col min="15611" max="15613" width="10.83203125" customWidth="1"/>
-    <col min="15617" max="15623" width="10.83203125" customWidth="1"/>
-    <col min="15625" max="15625" width="10.83203125" customWidth="1"/>
-    <col min="15627" max="15632" width="10.83203125" customWidth="1"/>
-    <col min="15635" max="15637" width="10.83203125" customWidth="1"/>
-    <col min="15639" max="15639" width="10.83203125" customWidth="1"/>
-    <col min="15642" max="15642" width="10.83203125" customWidth="1"/>
-    <col min="15644" max="15646" width="10.83203125" customWidth="1"/>
-    <col min="15649" max="15656" width="10.83203125" customWidth="1"/>
+    <col min="15603" max="15605" width="10.83203125" customWidth="1"/>
+    <col min="15609" max="15610" width="10.83203125" customWidth="1"/>
+    <col min="15614" max="15619" width="10.83203125" customWidth="1"/>
+    <col min="15621" max="15622" width="10.83203125" customWidth="1"/>
+    <col min="15624" max="15625" width="10.83203125" customWidth="1"/>
+    <col min="15627" max="15628" width="10.83203125" customWidth="1"/>
+    <col min="15630" max="15630" width="10.83203125" customWidth="1"/>
+    <col min="15633" max="15633" width="10.83203125" customWidth="1"/>
+    <col min="15635" max="15636" width="10.83203125" customWidth="1"/>
+    <col min="15640" max="15640" width="10.83203125" customWidth="1"/>
+    <col min="15643" max="15644" width="10.83203125" customWidth="1"/>
+    <col min="15648" max="15656" width="10.83203125" customWidth="1"/>
+    <col min="15659" max="15659" width="10.83203125" customWidth="1"/>
     <col min="15661" max="15661" width="10.83203125" customWidth="1"/>
-    <col min="15663" max="15663" width="10.83203125" customWidth="1"/>
-    <col min="15665" max="15665" width="10.83203125" customWidth="1"/>
-    <col min="15667" max="15668" width="10.83203125" customWidth="1"/>
-    <col min="15670" max="15670" width="10.83203125" customWidth="1"/>
-    <col min="15675" max="15677" width="10.83203125" customWidth="1"/>
-    <col min="15681" max="15687" width="10.83203125" customWidth="1"/>
-    <col min="15689" max="15689" width="10.83203125" customWidth="1"/>
-    <col min="15691" max="15696" width="10.83203125" customWidth="1"/>
-    <col min="15699" max="15701" width="10.83203125" customWidth="1"/>
-    <col min="15703" max="15703" width="10.83203125" customWidth="1"/>
-    <col min="15706" max="15706" width="10.83203125" customWidth="1"/>
-    <col min="15708" max="15710" width="10.83203125" customWidth="1"/>
-    <col min="15713" max="15720" width="10.83203125" customWidth="1"/>
+    <col min="15664" max="15665" width="10.83203125" customWidth="1"/>
+    <col min="15667" max="15669" width="10.83203125" customWidth="1"/>
+    <col min="15673" max="15674" width="10.83203125" customWidth="1"/>
+    <col min="15678" max="15683" width="10.83203125" customWidth="1"/>
+    <col min="15685" max="15686" width="10.83203125" customWidth="1"/>
+    <col min="15688" max="15689" width="10.83203125" customWidth="1"/>
+    <col min="15691" max="15692" width="10.83203125" customWidth="1"/>
+    <col min="15694" max="15694" width="10.83203125" customWidth="1"/>
+    <col min="15697" max="15697" width="10.83203125" customWidth="1"/>
+    <col min="15699" max="15700" width="10.83203125" customWidth="1"/>
+    <col min="15704" max="15704" width="10.83203125" customWidth="1"/>
+    <col min="15707" max="15708" width="10.83203125" customWidth="1"/>
+    <col min="15712" max="15720" width="10.83203125" customWidth="1"/>
+    <col min="15723" max="15723" width="10.83203125" customWidth="1"/>
     <col min="15725" max="15725" width="10.83203125" customWidth="1"/>
-    <col min="15727" max="15727" width="10.83203125" customWidth="1"/>
-    <col min="15729" max="15732" width="10.83203125" customWidth="1"/>
+    <col min="15728" max="15732" width="10.83203125" customWidth="1"/>
     <col min="15735" max="15735" width="10.83203125" customWidth="1"/>
     <col min="15739" max="15739" width="10.83203125" customWidth="1"/>
-    <col min="15741" max="15748" width="10.83203125" customWidth="1"/>
-    <col min="15750" max="15753" width="10.83203125" customWidth="1"/>
-    <col min="15755" max="15755" width="10.83203125" customWidth="1"/>
-    <col min="15758" max="15758" width="10.83203125" customWidth="1"/>
+    <col min="15743" max="15744" width="10.83203125" customWidth="1"/>
+    <col min="15746" max="15746" width="10.83203125" customWidth="1"/>
+    <col min="15749" max="15750" width="10.83203125" customWidth="1"/>
+    <col min="15757" max="15758" width="10.83203125" customWidth="1"/>
     <col min="15760" max="15760" width="10.83203125" customWidth="1"/>
     <col min="15776" max="15861" width="10.83203125" customWidth="1"/>
     <col min="15866" max="15867" width="10.83203125" customWidth="1"/>
-    <col min="15870" max="15876" width="10.83203125" customWidth="1"/>
-    <col min="15878" max="15881" width="10.83203125" customWidth="1"/>
-    <col min="15883" max="15883" width="10.83203125" customWidth="1"/>
-    <col min="15886" max="15886" width="10.83203125" customWidth="1"/>
+    <col min="15869" max="15870" width="10.83203125" customWidth="1"/>
+    <col min="15872" max="15872" width="10.83203125" customWidth="1"/>
+    <col min="15874" max="15874" width="10.83203125" customWidth="1"/>
+    <col min="15877" max="15878" width="10.83203125" customWidth="1"/>
+    <col min="15885" max="15886" width="10.83203125" customWidth="1"/>
     <col min="15888" max="15888" width="10.83203125" customWidth="1"/>
     <col min="15904" max="15921" width="10.83203125" customWidth="1"/>
     <col min="15923" max="15925" width="10.83203125" customWidth="1"/>
     <col min="15930" max="15931" width="10.83203125" customWidth="1"/>
-    <col min="15934" max="15940" width="10.83203125" customWidth="1"/>
-    <col min="15942" max="15945" width="10.83203125" customWidth="1"/>
-    <col min="15947" max="15947" width="10.83203125" customWidth="1"/>
-    <col min="15950" max="15950" width="10.83203125" customWidth="1"/>
+    <col min="15933" max="15934" width="10.83203125" customWidth="1"/>
+    <col min="15936" max="15936" width="10.83203125" customWidth="1"/>
+    <col min="15938" max="15938" width="10.83203125" customWidth="1"/>
+    <col min="15941" max="15942" width="10.83203125" customWidth="1"/>
+    <col min="15949" max="15950" width="10.83203125" customWidth="1"/>
     <col min="15952" max="15952" width="10.83203125" customWidth="1"/>
     <col min="15968" max="15988" width="10.83203125" customWidth="1"/>
     <col min="15991" max="15991" width="10.83203125" customWidth="1"/>
     <col min="15993" max="15993" width="10.83203125" customWidth="1"/>
     <col min="15995" max="15995" width="10.83203125" customWidth="1"/>
-    <col min="15997" max="16004" width="10.83203125" customWidth="1"/>
-    <col min="16006" max="16009" width="10.83203125" customWidth="1"/>
-    <col min="16011" max="16011" width="10.83203125" customWidth="1"/>
-    <col min="16014" max="16014" width="10.83203125" customWidth="1"/>
+    <col min="15999" max="16000" width="10.83203125" customWidth="1"/>
+    <col min="16002" max="16002" width="10.83203125" customWidth="1"/>
+    <col min="16005" max="16006" width="10.83203125" customWidth="1"/>
+    <col min="16013" max="16014" width="10.83203125" customWidth="1"/>
     <col min="16016" max="16016" width="10.83203125" customWidth="1"/>
     <col min="16032" max="16050" width="10.83203125" customWidth="1"/>
     <col min="16053" max="16053" width="10.83203125" customWidth="1"/>
     <col min="16056" max="16056" width="10.83203125" customWidth="1"/>
     <col min="16058" max="16059" width="10.83203125" customWidth="1"/>
-    <col min="16061" max="16062" width="10.83203125" customWidth="1"/>
-    <col min="16066" max="16068" width="10.83203125" customWidth="1"/>
-    <col min="16070" max="16073" width="10.83203125" customWidth="1"/>
-    <col min="16076" max="16076" width="10.83203125" customWidth="1"/>
+    <col min="16064" max="16064" width="10.83203125" customWidth="1"/>
+    <col min="16067" max="16067" width="10.83203125" customWidth="1"/>
+    <col min="16070" max="16070" width="10.83203125" customWidth="1"/>
+    <col min="16072" max="16072" width="10.83203125" customWidth="1"/>
+    <col min="16074" max="16076" width="10.83203125" customWidth="1"/>
     <col min="16078" max="16079" width="10.83203125" customWidth="1"/>
     <col min="16096" max="16116" width="10.83203125" customWidth="1"/>
     <col min="16120" max="16120" width="10.83203125" customWidth="1"/>
     <col min="16123" max="16123" width="10.83203125" customWidth="1"/>
-    <col min="16125" max="16132" width="10.83203125" customWidth="1"/>
-    <col min="16134" max="16137" width="10.83203125" customWidth="1"/>
-    <col min="16139" max="16139" width="10.83203125" customWidth="1"/>
-    <col min="16142" max="16142" width="10.83203125" customWidth="1"/>
+    <col min="16127" max="16128" width="10.83203125" customWidth="1"/>
+    <col min="16130" max="16130" width="10.83203125" customWidth="1"/>
+    <col min="16133" max="16134" width="10.83203125" customWidth="1"/>
+    <col min="16141" max="16142" width="10.83203125" customWidth="1"/>
     <col min="16144" max="16144" width="10.83203125" customWidth="1"/>
     <col min="16160" max="16177" width="10.83203125" customWidth="1"/>
     <col min="16179" max="16185" width="10.83203125" customWidth="1"/>
     <col min="16187" max="16187" width="10.83203125" customWidth="1"/>
-    <col min="16190" max="16196" width="10.83203125" customWidth="1"/>
-    <col min="16198" max="16201" width="10.83203125" customWidth="1"/>
-    <col min="16203" max="16203" width="10.83203125" customWidth="1"/>
-    <col min="16206" max="16206" width="10.83203125" customWidth="1"/>
+    <col min="16189" max="16190" width="10.83203125" customWidth="1"/>
+    <col min="16192" max="16192" width="10.83203125" customWidth="1"/>
+    <col min="16194" max="16194" width="10.83203125" customWidth="1"/>
+    <col min="16197" max="16198" width="10.83203125" customWidth="1"/>
+    <col min="16205" max="16206" width="10.83203125" customWidth="1"/>
     <col min="16208" max="16208" width="10.83203125" customWidth="1"/>
     <col min="16224" max="16245" width="10.83203125" customWidth="1"/>
     <col min="16247" max="16247" width="10.83203125" customWidth="1"/>
     <col min="16251" max="16251" width="10.83203125" customWidth="1"/>
-    <col min="16253" max="16260" width="10.83203125" customWidth="1"/>
-    <col min="16262" max="16265" width="10.83203125" customWidth="1"/>
-    <col min="16267" max="16267" width="10.83203125" customWidth="1"/>
-    <col min="16270" max="16270" width="10.83203125" customWidth="1"/>
+    <col min="16255" max="16256" width="10.83203125" customWidth="1"/>
+    <col min="16258" max="16258" width="10.83203125" customWidth="1"/>
+    <col min="16261" max="16262" width="10.83203125" customWidth="1"/>
+    <col min="16269" max="16270" width="10.83203125" customWidth="1"/>
     <col min="16272" max="16272" width="10.83203125" customWidth="1"/>
     <col min="16288" max="16305" width="10.83203125" customWidth="1"/>
     <col min="16308" max="16308" width="10.83203125" customWidth="1"/>
     <col min="16310" max="16313" width="10.83203125" customWidth="1"/>
-    <col min="16317" max="16318" width="10.83203125" customWidth="1"/>
-    <col min="16321" max="16324" width="10.83203125" customWidth="1"/>
-    <col min="16326" max="16329" width="10.83203125" customWidth="1"/>
-    <col min="16332" max="16332" width="10.83203125" customWidth="1"/>
+    <col min="16320" max="16321" width="10.83203125" customWidth="1"/>
+    <col min="16323" max="16323" width="10.83203125" customWidth="1"/>
+    <col min="16326" max="16326" width="10.83203125" customWidth="1"/>
+    <col min="16328" max="16328" width="10.83203125" customWidth="1"/>
+    <col min="16330" max="16332" width="10.83203125" customWidth="1"/>
     <col min="16334" max="16335" width="10.83203125" customWidth="1"/>
     <col min="16352" max="16372" width="10.83203125" customWidth="1"/>
     <col min="16374" max="16375" width="10.83203125" customWidth="1"/>
     <col min="16379" max="16379" width="10.83203125" customWidth="1"/>
-    <col min="16381" max="16384" width="10.83203125" customWidth="1"/>
+    <col min="16383" max="16384" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="C1" s="87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="88">
+        <v>1</v>
+      </c>
+      <c r="C2" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="76">
-        <v>1</v>
-      </c>
-      <c r="C2" s="76" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="88">
+        <v>1</v>
+      </c>
+      <c r="C3" s="88" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="76">
-        <v>1</v>
-      </c>
-      <c r="C3" s="76" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="88" t="s">
         <v>105</v>
+      </c>
+      <c r="B4" s="88">
+        <v>0</v>
+      </c>
+      <c r="C4" s="88">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>

--- a/data/entities/entity_template.xlsx
+++ b/data/entities/entity_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820" tabRatio="766" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="108">
   <si>
     <t>Category_ID</t>
   </si>
@@ -1167,6 +1167,12 @@
   </si>
   <si>
     <t>reference_year</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
@@ -2628,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="H244" sqref="H244"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132:G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4824,7 +4830,7 @@
         <v>28</v>
       </c>
       <c r="G81" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H81" s="82" t="s">
         <v>29</v>
@@ -4851,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="G82" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H82" s="82" t="s">
         <v>29</v>
@@ -4878,7 +4884,7 @@
         <v>28</v>
       </c>
       <c r="G83" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H83" s="82" t="s">
         <v>29</v>
@@ -4905,7 +4911,7 @@
         <v>28</v>
       </c>
       <c r="G84" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H84" s="82" t="s">
         <v>29</v>
@@ -4932,7 +4938,7 @@
         <v>28</v>
       </c>
       <c r="G85" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H85" s="82" t="s">
         <v>29</v>
@@ -4959,7 +4965,7 @@
         <v>28</v>
       </c>
       <c r="G86" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H86" s="82" t="s">
         <v>29</v>
@@ -4986,7 +4992,7 @@
         <v>28</v>
       </c>
       <c r="G87" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H87" s="82" t="s">
         <v>29</v>
@@ -5013,7 +5019,7 @@
         <v>28</v>
       </c>
       <c r="G88" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H88" s="82" t="s">
         <v>29</v>
@@ -5040,7 +5046,7 @@
         <v>28</v>
       </c>
       <c r="G89" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H89" s="82" t="s">
         <v>29</v>
@@ -5067,7 +5073,7 @@
         <v>28</v>
       </c>
       <c r="G90" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H90" s="82" t="s">
         <v>29</v>
@@ -5094,7 +5100,7 @@
         <v>28</v>
       </c>
       <c r="G91" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H91" s="82" t="s">
         <v>29</v>
@@ -5121,7 +5127,7 @@
         <v>28</v>
       </c>
       <c r="G92" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H92" s="82" t="s">
         <v>29</v>
@@ -5148,7 +5154,7 @@
         <v>28</v>
       </c>
       <c r="G93" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H93" s="82" t="s">
         <v>29</v>
@@ -5175,7 +5181,7 @@
         <v>28</v>
       </c>
       <c r="G94" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H94" s="82" t="s">
         <v>29</v>
@@ -5202,7 +5208,7 @@
         <v>28</v>
       </c>
       <c r="G95" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H95" s="82" t="s">
         <v>29</v>
@@ -5229,7 +5235,7 @@
         <v>28</v>
       </c>
       <c r="G96" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H96" s="82" t="s">
         <v>29</v>
@@ -5256,7 +5262,7 @@
         <v>28</v>
       </c>
       <c r="G97" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H97" s="82" t="s">
         <v>29</v>
@@ -5283,7 +5289,7 @@
         <v>28</v>
       </c>
       <c r="G98" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H98" s="82" t="s">
         <v>29</v>
@@ -5310,7 +5316,7 @@
         <v>28</v>
       </c>
       <c r="G99" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H99" s="82" t="s">
         <v>29</v>
@@ -5337,7 +5343,7 @@
         <v>28</v>
       </c>
       <c r="G100" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H100" s="82" t="s">
         <v>29</v>
@@ -5364,7 +5370,7 @@
         <v>28</v>
       </c>
       <c r="G101" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H101" s="82" t="s">
         <v>29</v>
@@ -5391,7 +5397,7 @@
         <v>28</v>
       </c>
       <c r="G102" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H102" s="82" t="s">
         <v>29</v>
@@ -5418,7 +5424,7 @@
         <v>28</v>
       </c>
       <c r="G103" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H103" s="82" t="s">
         <v>29</v>
@@ -5445,7 +5451,7 @@
         <v>28</v>
       </c>
       <c r="G104" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H104" s="82" t="s">
         <v>29</v>
@@ -5472,7 +5478,7 @@
         <v>28</v>
       </c>
       <c r="G105" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H105" s="82" t="s">
         <v>29</v>
@@ -5499,7 +5505,7 @@
         <v>28</v>
       </c>
       <c r="G106" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H106" s="82" t="s">
         <v>29</v>
@@ -5526,7 +5532,7 @@
         <v>28</v>
       </c>
       <c r="G107" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H107" s="82" t="s">
         <v>29</v>
@@ -5553,7 +5559,7 @@
         <v>28</v>
       </c>
       <c r="G108" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H108" s="82" t="s">
         <v>29</v>
@@ -5580,7 +5586,7 @@
         <v>28</v>
       </c>
       <c r="G109" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H109" s="82" t="s">
         <v>29</v>
@@ -5607,7 +5613,7 @@
         <v>28</v>
       </c>
       <c r="G110" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H110" s="82" t="s">
         <v>29</v>
@@ -5634,7 +5640,7 @@
         <v>28</v>
       </c>
       <c r="G111" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H111" s="82" t="s">
         <v>29</v>
@@ -5661,7 +5667,7 @@
         <v>28</v>
       </c>
       <c r="G112" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H112" s="82" t="s">
         <v>29</v>
@@ -5688,7 +5694,7 @@
         <v>28</v>
       </c>
       <c r="G113" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H113" s="82" t="s">
         <v>29</v>
@@ -5715,7 +5721,7 @@
         <v>28</v>
       </c>
       <c r="G114" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H114" s="82" t="s">
         <v>29</v>
@@ -5742,7 +5748,7 @@
         <v>28</v>
       </c>
       <c r="G115" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H115" s="82" t="s">
         <v>29</v>
@@ -5769,7 +5775,7 @@
         <v>28</v>
       </c>
       <c r="G116" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H116" s="82" t="s">
         <v>29</v>
@@ -5796,7 +5802,7 @@
         <v>28</v>
       </c>
       <c r="G117" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H117" s="82" t="s">
         <v>29</v>
@@ -5823,7 +5829,7 @@
         <v>28</v>
       </c>
       <c r="G118" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H118" s="82" t="s">
         <v>29</v>
@@ -5850,7 +5856,7 @@
         <v>28</v>
       </c>
       <c r="G119" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H119" s="82" t="s">
         <v>29</v>
@@ -5877,7 +5883,7 @@
         <v>28</v>
       </c>
       <c r="G120" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H120" s="82" t="s">
         <v>29</v>
@@ -5904,7 +5910,7 @@
         <v>28</v>
       </c>
       <c r="G121" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H121" s="82" t="s">
         <v>29</v>
@@ -5931,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="G122" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H122" s="82" t="s">
         <v>29</v>
@@ -5958,7 +5964,7 @@
         <v>28</v>
       </c>
       <c r="G123" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H123" s="82" t="s">
         <v>29</v>
@@ -5985,7 +5991,7 @@
         <v>28</v>
       </c>
       <c r="G124" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H124" s="82" t="s">
         <v>29</v>
@@ -6012,7 +6018,7 @@
         <v>28</v>
       </c>
       <c r="G125" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H125" s="82" t="s">
         <v>29</v>
@@ -6039,7 +6045,7 @@
         <v>28</v>
       </c>
       <c r="G126" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H126" s="82" t="s">
         <v>29</v>
@@ -6066,7 +6072,7 @@
         <v>28</v>
       </c>
       <c r="G127" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H127" s="82" t="s">
         <v>29</v>
@@ -6093,7 +6099,7 @@
         <v>28</v>
       </c>
       <c r="G128" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H128" s="82" t="s">
         <v>29</v>
@@ -6120,7 +6126,7 @@
         <v>28</v>
       </c>
       <c r="G129" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H129" s="82" t="s">
         <v>29</v>
@@ -6147,7 +6153,7 @@
         <v>28</v>
       </c>
       <c r="G130" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H130" s="82" t="s">
         <v>29</v>
@@ -6174,7 +6180,7 @@
         <v>28</v>
       </c>
       <c r="G131" s="82" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H131" s="82" t="s">
         <v>29</v>
@@ -6201,7 +6207,7 @@
         <v>30</v>
       </c>
       <c r="G132" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H132" s="82" t="s">
         <v>31</v>
@@ -6228,7 +6234,7 @@
         <v>30</v>
       </c>
       <c r="G133" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H133" s="82" t="s">
         <v>31</v>
@@ -6255,7 +6261,7 @@
         <v>30</v>
       </c>
       <c r="G134" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H134" s="82" t="s">
         <v>31</v>
@@ -6282,7 +6288,7 @@
         <v>30</v>
       </c>
       <c r="G135" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H135" s="82" t="s">
         <v>31</v>
@@ -6309,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="G136" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H136" s="82" t="s">
         <v>31</v>
@@ -6336,7 +6342,7 @@
         <v>30</v>
       </c>
       <c r="G137" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H137" s="82" t="s">
         <v>31</v>
@@ -6363,7 +6369,7 @@
         <v>30</v>
       </c>
       <c r="G138" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H138" s="82" t="s">
         <v>31</v>
@@ -6390,7 +6396,7 @@
         <v>30</v>
       </c>
       <c r="G139" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H139" s="82" t="s">
         <v>31</v>
@@ -6417,7 +6423,7 @@
         <v>30</v>
       </c>
       <c r="G140" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H140" s="82" t="s">
         <v>31</v>
@@ -6444,7 +6450,7 @@
         <v>30</v>
       </c>
       <c r="G141" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H141" s="82" t="s">
         <v>31</v>
@@ -6471,7 +6477,7 @@
         <v>30</v>
       </c>
       <c r="G142" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H142" s="82" t="s">
         <v>31</v>
@@ -6498,7 +6504,7 @@
         <v>30</v>
       </c>
       <c r="G143" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H143" s="82" t="s">
         <v>31</v>
@@ -6525,7 +6531,7 @@
         <v>30</v>
       </c>
       <c r="G144" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H144" s="82" t="s">
         <v>31</v>
@@ -6552,7 +6558,7 @@
         <v>30</v>
       </c>
       <c r="G145" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H145" s="82" t="s">
         <v>31</v>
@@ -6579,7 +6585,7 @@
         <v>30</v>
       </c>
       <c r="G146" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H146" s="82" t="s">
         <v>31</v>
@@ -6606,7 +6612,7 @@
         <v>30</v>
       </c>
       <c r="G147" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H147" s="82" t="s">
         <v>31</v>
@@ -6633,7 +6639,7 @@
         <v>30</v>
       </c>
       <c r="G148" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H148" s="82" t="s">
         <v>31</v>
@@ -6660,7 +6666,7 @@
         <v>30</v>
       </c>
       <c r="G149" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H149" s="82" t="s">
         <v>31</v>
@@ -6687,7 +6693,7 @@
         <v>30</v>
       </c>
       <c r="G150" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H150" s="82" t="s">
         <v>31</v>
@@ -6714,7 +6720,7 @@
         <v>30</v>
       </c>
       <c r="G151" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H151" s="82" t="s">
         <v>31</v>
@@ -6741,7 +6747,7 @@
         <v>30</v>
       </c>
       <c r="G152" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H152" s="82" t="s">
         <v>31</v>
@@ -6768,7 +6774,7 @@
         <v>30</v>
       </c>
       <c r="G153" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H153" s="82" t="s">
         <v>31</v>
@@ -6795,7 +6801,7 @@
         <v>30</v>
       </c>
       <c r="G154" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H154" s="82" t="s">
         <v>31</v>
@@ -6822,7 +6828,7 @@
         <v>30</v>
       </c>
       <c r="G155" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H155" s="82" t="s">
         <v>31</v>
@@ -6849,7 +6855,7 @@
         <v>30</v>
       </c>
       <c r="G156" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H156" s="82" t="s">
         <v>31</v>
@@ -6876,7 +6882,7 @@
         <v>30</v>
       </c>
       <c r="G157" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H157" s="82" t="s">
         <v>31</v>
@@ -6903,7 +6909,7 @@
         <v>30</v>
       </c>
       <c r="G158" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H158" s="82" t="s">
         <v>31</v>
@@ -6930,7 +6936,7 @@
         <v>30</v>
       </c>
       <c r="G159" s="82" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H159" s="82" t="s">
         <v>31</v>
@@ -11896,7 +11902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/data/entities/entity_template.xlsx
+++ b/data/entities/entity_template.xlsx
@@ -161,6 +161,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>A satisfied Microsoft Office user</author>
+    <author>David N. Bresch</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -420,6 +421,32 @@
             <rFont val="Calibri"/>
           </rPr>
           <t>o show the effect, NOT a really good damage function.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A238" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">added 20141204
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F238" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">20160929, added dummy FL damage function, a copy of TS
+</t>
         </r>
       </text>
     </comment>
@@ -780,7 +807,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="110">
   <si>
     <t>Category_ID</t>
   </si>
@@ -1173,6 +1200,12 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Flood default</t>
   </si>
 </sst>
 </file>
@@ -2632,10 +2665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132:G159"/>
+      <selection activeCell="I243" sqref="I243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9037,6 +9070,519 @@
       </c>
       <c r="H237" s="82" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A238" s="32">
+        <v>1</v>
+      </c>
+      <c r="B238" s="32">
+        <v>0</v>
+      </c>
+      <c r="C238" s="33">
+        <v>0</v>
+      </c>
+      <c r="D238" s="33">
+        <v>0</v>
+      </c>
+      <c r="E238" s="33">
+        <f>C238*D238</f>
+        <v>0</v>
+      </c>
+      <c r="F238" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G238" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H238" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A239" s="32">
+        <v>1</v>
+      </c>
+      <c r="B239" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C239" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="D239" s="33">
+        <v>0.39346934028736658</v>
+      </c>
+      <c r="E239" s="33">
+        <f t="shared" ref="E239:E254" si="7">C239*D239</f>
+        <v>3.9346934028736662E-3</v>
+      </c>
+      <c r="F239" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G239" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H239" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A240" s="32">
+        <v>1</v>
+      </c>
+      <c r="B240" s="32">
+        <v>1</v>
+      </c>
+      <c r="C240" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="D240" s="33">
+        <v>0.63212055882855767</v>
+      </c>
+      <c r="E240" s="33">
+        <f t="shared" si="7"/>
+        <v>1.2642411176571153E-2</v>
+      </c>
+      <c r="F240" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G240" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H240" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A241" s="32">
+        <v>1</v>
+      </c>
+      <c r="B241" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="C241" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="D241" s="33">
+        <v>0.77686983985157021</v>
+      </c>
+      <c r="E241" s="33">
+        <f t="shared" si="7"/>
+        <v>3.8843491992578513E-2</v>
+      </c>
+      <c r="F241" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G241" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H241" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A242" s="32">
+        <v>1</v>
+      </c>
+      <c r="B242" s="32">
+        <v>2</v>
+      </c>
+      <c r="C242" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="D242" s="33">
+        <v>0.8646647167633873</v>
+      </c>
+      <c r="E242" s="33">
+        <f t="shared" si="7"/>
+        <v>8.6466471676338738E-2</v>
+      </c>
+      <c r="F242" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G242" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H242" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A243" s="32">
+        <v>1</v>
+      </c>
+      <c r="B243" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="C243" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="D243" s="33">
+        <v>0.91791500137610116</v>
+      </c>
+      <c r="E243" s="33">
+        <f t="shared" si="7"/>
+        <v>0.18358300027522023</v>
+      </c>
+      <c r="F243" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G243" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H243" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A244" s="32">
+        <v>1</v>
+      </c>
+      <c r="B244" s="32">
+        <v>3</v>
+      </c>
+      <c r="C244" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="D244" s="33">
+        <v>0.95021293163213605</v>
+      </c>
+      <c r="E244" s="33">
+        <f t="shared" si="7"/>
+        <v>0.28506387948964079</v>
+      </c>
+      <c r="F244" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G244" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H244" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A245" s="32">
+        <v>1</v>
+      </c>
+      <c r="B245" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="C245" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="D245" s="33">
+        <v>0.96980261657768152</v>
+      </c>
+      <c r="E245" s="33">
+        <f t="shared" si="7"/>
+        <v>0.38792104663107263</v>
+      </c>
+      <c r="F245" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G245" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H245" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A246" s="32">
+        <v>1</v>
+      </c>
+      <c r="B246" s="32">
+        <v>4</v>
+      </c>
+      <c r="C246" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D246" s="33">
+        <v>0.98168436111126578</v>
+      </c>
+      <c r="E246" s="33">
+        <f t="shared" si="7"/>
+        <v>0.49084218055563289</v>
+      </c>
+      <c r="F246" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G246" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H246" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A247" s="32">
+        <v>1</v>
+      </c>
+      <c r="B247" s="32">
+        <v>4.5</v>
+      </c>
+      <c r="C247" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="D247" s="33">
+        <v>0.98889100346175773</v>
+      </c>
+      <c r="E247" s="33">
+        <f>C247*D247</f>
+        <v>0.59333460207705457</v>
+      </c>
+      <c r="F247" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G247" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H247" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A248" s="32">
+        <v>1</v>
+      </c>
+      <c r="B248" s="32">
+        <v>5</v>
+      </c>
+      <c r="C248" s="33">
+        <v>0.65</v>
+      </c>
+      <c r="D248" s="33">
+        <v>0.99326205300091452</v>
+      </c>
+      <c r="E248" s="33">
+        <f t="shared" ref="E248:E256" si="8">C248*D248</f>
+        <v>0.64562033445059441</v>
+      </c>
+      <c r="F248" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G248" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H248" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A249" s="32">
+        <v>1</v>
+      </c>
+      <c r="B249" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="C249" s="33">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D249" s="33">
+        <v>0.99591322856153597</v>
+      </c>
+      <c r="E249" s="33">
+        <f t="shared" si="8"/>
+        <v>0.67224142927903685</v>
+      </c>
+      <c r="F249" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G249" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H249" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A250" s="32">
+        <v>1</v>
+      </c>
+      <c r="B250" s="32">
+        <v>6</v>
+      </c>
+      <c r="C250" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="D250" s="33">
+        <v>0.99752124782333362</v>
+      </c>
+      <c r="E250" s="33">
+        <f t="shared" si="8"/>
+        <v>0.69826487347633348</v>
+      </c>
+      <c r="F250" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G250" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H250" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A251" s="32">
+        <v>1</v>
+      </c>
+      <c r="B251" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="C251" s="33">
+        <v>0.71</v>
+      </c>
+      <c r="D251" s="33">
+        <v>0.99849656080702243</v>
+      </c>
+      <c r="E251" s="33">
+        <f t="shared" si="8"/>
+        <v>0.70893255817298584</v>
+      </c>
+      <c r="F251" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G251" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H251" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A252" s="32">
+        <v>1</v>
+      </c>
+      <c r="B252" s="32">
+        <v>7</v>
+      </c>
+      <c r="C252" s="33">
+        <v>0.72</v>
+      </c>
+      <c r="D252" s="33">
+        <v>0.99908811803444553</v>
+      </c>
+      <c r="E252" s="33">
+        <f t="shared" si="8"/>
+        <v>0.71934344498480074</v>
+      </c>
+      <c r="F252" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G252" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H252" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A253" s="32">
+        <v>1</v>
+      </c>
+      <c r="B253" s="32">
+        <v>7.5</v>
+      </c>
+      <c r="C253" s="33">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D253" s="33">
+        <v>0.99944691562985222</v>
+      </c>
+      <c r="E253" s="33">
+        <f t="shared" si="8"/>
+        <v>0.72459901383164282</v>
+      </c>
+      <c r="F253" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G253" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H253" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A254" s="32">
+        <v>1</v>
+      </c>
+      <c r="B254" s="32">
+        <v>8</v>
+      </c>
+      <c r="C254" s="33">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D254" s="33">
+        <v>0.99966453737209748</v>
+      </c>
+      <c r="E254" s="33">
+        <f t="shared" si="8"/>
+        <v>0.72475678959477063</v>
+      </c>
+      <c r="F254" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G254" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H254" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A255" s="32">
+        <v>1</v>
+      </c>
+      <c r="B255" s="32">
+        <v>10</v>
+      </c>
+      <c r="C255" s="33">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D255" s="33">
+        <v>0.99995460007023751</v>
+      </c>
+      <c r="E255" s="33">
+        <f>C255*D255</f>
+        <v>0.72496708505092222</v>
+      </c>
+      <c r="F255" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G255" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H255" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A256" s="36">
+        <v>1</v>
+      </c>
+      <c r="B256" s="36">
+        <v>16</v>
+      </c>
+      <c r="C256" s="45">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D256" s="45">
+        <v>0.99999988746482527</v>
+      </c>
+      <c r="E256" s="45">
+        <f>C256*D256</f>
+        <v>0.72499991841199829</v>
+      </c>
+      <c r="F256" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G256" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H256" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/entities/entity_template.xlsx
+++ b/data/entities/entity_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,7 +20,7 @@
     <sheet name="_discounting_sheet" sheetId="6" r:id="rId6"/>
     <sheet name="names" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -450,6 +450,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="H257" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>0161006, added</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -807,7 +820,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="113">
   <si>
     <t>Category_ID</t>
   </si>
@@ -1206,6 +1219,15 @@
   </si>
   <si>
     <t>Flood default</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>Ekin</t>
+  </si>
+  <si>
+    <t>Hail default</t>
   </si>
 </sst>
 </file>
@@ -2665,10 +2687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I243" sqref="I243"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G257" sqref="G257:H257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9113,7 +9135,7 @@
         <v>0.39346934028736658</v>
       </c>
       <c r="E239" s="33">
-        <f t="shared" ref="E239:E254" si="7">C239*D239</f>
+        <f t="shared" ref="E239:E246" si="7">C239*D239</f>
         <v>3.9346934028736662E-3</v>
       </c>
       <c r="F239" s="34" t="s">
@@ -9356,7 +9378,7 @@
         <v>0.99326205300091452</v>
       </c>
       <c r="E248" s="33">
-        <f t="shared" ref="E248:E256" si="8">C248*D248</f>
+        <f t="shared" ref="E248:E254" si="8">C248*D248</f>
         <v>0.64562033445059441</v>
       </c>
       <c r="F248" s="34" t="s">
@@ -9583,6 +9605,438 @@
       </c>
       <c r="H256" s="82" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A257" s="31">
+        <v>1</v>
+      </c>
+      <c r="B257" s="31">
+        <v>0</v>
+      </c>
+      <c r="C257" s="31">
+        <v>0</v>
+      </c>
+      <c r="D257" s="31">
+        <v>0</v>
+      </c>
+      <c r="E257" s="31">
+        <f>C257*D257</f>
+        <v>0</v>
+      </c>
+      <c r="F257" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G257" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H257" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A258" s="31">
+        <v>1</v>
+      </c>
+      <c r="B258" s="31">
+        <v>200</v>
+      </c>
+      <c r="C258" s="31">
+        <v>0</v>
+      </c>
+      <c r="D258" s="31">
+        <v>0</v>
+      </c>
+      <c r="E258" s="31">
+        <f t="shared" ref="E258:E272" si="9">C258*D258</f>
+        <v>0</v>
+      </c>
+      <c r="F258" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G258" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H258" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A259" s="31">
+        <v>1</v>
+      </c>
+      <c r="B259" s="31">
+        <v>400</v>
+      </c>
+      <c r="C259" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="D259" s="31">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E259" s="31">
+        <f t="shared" si="9"/>
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="F259" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G259" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H259" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A260" s="31">
+        <v>1</v>
+      </c>
+      <c r="B260" s="31">
+        <v>600</v>
+      </c>
+      <c r="C260" s="31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D260" s="31">
+        <v>1E-4</v>
+      </c>
+      <c r="E260" s="31">
+        <f t="shared" si="9"/>
+        <v>1.2000000000000002E-6</v>
+      </c>
+      <c r="F260" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G260" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H260" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A261" s="31">
+        <v>1</v>
+      </c>
+      <c r="B261" s="31">
+        <v>800</v>
+      </c>
+      <c r="C261" s="31">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D261" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="E261" s="31">
+        <f t="shared" si="9"/>
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="F261" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G261" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H261" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A262" s="31">
+        <v>1</v>
+      </c>
+      <c r="B262" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C262" s="31">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D262" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="E262" s="31">
+        <f t="shared" si="9"/>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="F262" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G262" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H262" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A263" s="31">
+        <v>1</v>
+      </c>
+      <c r="B263" s="31">
+        <v>1200</v>
+      </c>
+      <c r="C263" s="31">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D263" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="E263" s="31">
+        <f t="shared" si="9"/>
+        <v>7.6000000000000004E-4</v>
+      </c>
+      <c r="F263" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G263" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H263" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A264" s="31">
+        <v>1</v>
+      </c>
+      <c r="B264" s="31">
+        <v>1400</v>
+      </c>
+      <c r="C264" s="31">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D264" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="E264" s="31">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F264" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G264" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H264" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A265" s="31">
+        <v>1</v>
+      </c>
+      <c r="B265" s="31">
+        <v>1600</v>
+      </c>
+      <c r="C265" s="31">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D265" s="31">
+        <v>0.16</v>
+      </c>
+      <c r="E265" s="31">
+        <f t="shared" si="9"/>
+        <v>4.64E-3</v>
+      </c>
+      <c r="F265" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G265" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H265" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A266" s="31">
+        <v>1</v>
+      </c>
+      <c r="B266" s="31">
+        <v>1800</v>
+      </c>
+      <c r="C266" s="31">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D266" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="E266" s="31">
+        <f t="shared" si="9"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="F266" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G266" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H266" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A267" s="31">
+        <v>1</v>
+      </c>
+      <c r="B267" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C267" s="31">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D267" s="31">
+        <v>0.27</v>
+      </c>
+      <c r="E267" s="31">
+        <f t="shared" si="9"/>
+        <v>1.2960000000000001E-2</v>
+      </c>
+      <c r="F267" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G267" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H267" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A268" s="31">
+        <v>1</v>
+      </c>
+      <c r="B268" s="31">
+        <v>2200</v>
+      </c>
+      <c r="C268" s="31">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D268" s="31">
+        <v>0.37</v>
+      </c>
+      <c r="E268" s="31">
+        <f t="shared" si="9"/>
+        <v>2.1829999999999999E-2</v>
+      </c>
+      <c r="F268" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G268" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H268" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A269" s="31">
+        <v>1</v>
+      </c>
+      <c r="B269" s="31">
+        <v>2400</v>
+      </c>
+      <c r="C269" s="31">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D269" s="31">
+        <v>0.49</v>
+      </c>
+      <c r="E269" s="31">
+        <f t="shared" si="9"/>
+        <v>3.4789999999999995E-2</v>
+      </c>
+      <c r="F269" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G269" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H269" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A270" s="31">
+        <v>1</v>
+      </c>
+      <c r="B270" s="31">
+        <v>2600</v>
+      </c>
+      <c r="C270" s="31">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D270" s="31">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E270" s="31">
+        <f t="shared" si="9"/>
+        <v>5.1869999999999993E-2</v>
+      </c>
+      <c r="F270" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G270" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H270" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A271" s="31">
+        <v>1</v>
+      </c>
+      <c r="B271" s="31">
+        <v>2800</v>
+      </c>
+      <c r="C271" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D271" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="E271" s="31">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+      <c r="F271" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G271" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H271" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A272" s="31">
+        <v>1</v>
+      </c>
+      <c r="B272" s="31">
+        <v>4000</v>
+      </c>
+      <c r="C272" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D272" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="E272" s="31">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+      <c r="F272" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G272" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H272" s="82" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/entities/entity_template.xlsx
+++ b/data/entities/entity_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -463,6 +463,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="F273" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">added 20170623
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -820,7 +834,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="116">
   <si>
     <t>Category_ID</t>
   </si>
@@ -1229,17 +1243,27 @@
   <si>
     <t>Hail default</t>
   </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>brightness</t>
+  </si>
+  <si>
+    <t>bushfire default</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1468,7 +1492,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1558,6 +1582,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2687,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H272"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G257" sqref="G257:H257"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A273" sqref="A273:H281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10037,6 +10063,249 @@
       </c>
       <c r="H272" s="82" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A273" s="89">
+        <v>1</v>
+      </c>
+      <c r="B273" s="89">
+        <v>0</v>
+      </c>
+      <c r="C273" s="90">
+        <v>0</v>
+      </c>
+      <c r="D273" s="90">
+        <v>0</v>
+      </c>
+      <c r="E273" s="90">
+        <f>C273*D273</f>
+        <v>0</v>
+      </c>
+      <c r="F273" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="G273" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="H273" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A274" s="89">
+        <v>1</v>
+      </c>
+      <c r="B274" s="89">
+        <v>30</v>
+      </c>
+      <c r="C274" s="90">
+        <v>1E-4</v>
+      </c>
+      <c r="D274" s="90">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E274" s="90">
+        <f t="shared" ref="E274:E281" si="10">C274*D274</f>
+        <v>2.5000000000000004E-7</v>
+      </c>
+      <c r="F274" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="G274" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="H274" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A275" s="89">
+        <v>1</v>
+      </c>
+      <c r="B275" s="89">
+        <v>50</v>
+      </c>
+      <c r="C275" s="90">
+        <v>1E-3</v>
+      </c>
+      <c r="D275" s="90">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E275" s="90">
+        <f t="shared" si="10"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F275" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="G275" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="H275" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A276" s="89">
+        <v>1</v>
+      </c>
+      <c r="B276" s="89">
+        <v>100</v>
+      </c>
+      <c r="C276" s="90">
+        <v>0.01</v>
+      </c>
+      <c r="D276" s="90">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E276" s="90">
+        <f t="shared" si="10"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F276" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="G276" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="H276" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A277" s="89">
+        <v>1</v>
+      </c>
+      <c r="B277" s="89">
+        <v>400</v>
+      </c>
+      <c r="C277" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="D277" s="90">
+        <v>0.06</v>
+      </c>
+      <c r="E277" s="90">
+        <f t="shared" si="10"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F277" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="G277" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="H277" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A278" s="89">
+        <v>1</v>
+      </c>
+      <c r="B278" s="89">
+        <v>600</v>
+      </c>
+      <c r="C278" s="90">
+        <v>0.25</v>
+      </c>
+      <c r="D278" s="90">
+        <v>0.125</v>
+      </c>
+      <c r="E278" s="90">
+        <f t="shared" si="10"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F278" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="G278" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="H278" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A279" s="89">
+        <v>1</v>
+      </c>
+      <c r="B279" s="89">
+        <v>800</v>
+      </c>
+      <c r="C279" s="90">
+        <v>0.45</v>
+      </c>
+      <c r="D279" s="90">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E279" s="90">
+        <f t="shared" si="10"/>
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="F279" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="G279" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="H279" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A280" s="89">
+        <v>1</v>
+      </c>
+      <c r="B280" s="89">
+        <v>1200</v>
+      </c>
+      <c r="C280" s="90">
+        <v>0.85</v>
+      </c>
+      <c r="D280" s="90">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E280" s="90">
+        <f t="shared" si="10"/>
+        <v>0.19125</v>
+      </c>
+      <c r="F280" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="G280" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="H280" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A281" s="89">
+        <v>1</v>
+      </c>
+      <c r="B281" s="89">
+        <v>1700</v>
+      </c>
+      <c r="C281" s="90">
+        <v>1</v>
+      </c>
+      <c r="D281" s="90">
+        <v>0.25</v>
+      </c>
+      <c r="E281" s="90">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="F281" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="G281" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="H281" s="89" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/entities/entity_template.xlsx
+++ b/data/entities/entity_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
     <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -553,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -566,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -579,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -593,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -635,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -666,7 +666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -679,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -692,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -718,7 +718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -773,6 +773,7 @@
   <authors>
     <author>A satisfied Microsoft Office user</author>
     <author>Microsoft Office User</author>
+    <author>David N. Bresch</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -829,12 +830,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="A5" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">to store further information for each damage function, like soure
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">to store further information for each damage function, like soure
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">to store further information for each measure like soure, range of applicability etc.
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="126">
   <si>
     <t>Category_ID</t>
   </si>
@@ -1252,6 +1295,36 @@
   <si>
     <t>bushfire default</t>
   </si>
+  <si>
+    <t>measureID</t>
+  </si>
+  <si>
+    <t>all default functions, based on expert judgement</t>
+  </si>
+  <si>
+    <t>demo damage function to reflect change in tropical cyclone (TC) buidling code, source expert judgement</t>
+  </si>
+  <si>
+    <t>beach nourishment, demo</t>
+  </si>
+  <si>
+    <t>vegetation management, demo</t>
+  </si>
+  <si>
+    <t>sandbags, demo</t>
+  </si>
+  <si>
+    <t>seawall, demo</t>
+  </si>
+  <si>
+    <t>elevate existing buildings, demo</t>
+  </si>
+  <si>
+    <t>enforce building code, demo, see DamageFunID 3</t>
+  </si>
+  <si>
+    <t>risk transfer, demo</t>
+  </si>
 </sst>
 </file>
 
@@ -1265,7 +1338,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1371,6 +1444,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="SwissReSans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1481,7 +1568,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1491,6 +1578,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1585,10 +1676,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 3" xfId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="5"/>
@@ -1939,9 +2034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2715,9 +2808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A273" sqref="A273:H281"/>
-    </sheetView>
+    <sheetView topLeftCell="A219" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10317,461 +10408,486 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="59" customWidth="1"/>
-    <col min="4" max="4" width="21" style="59" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="24" style="59" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="62" customWidth="1"/>
-    <col min="8" max="9" width="12.1640625" style="59" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="59" customWidth="1"/>
-    <col min="11" max="11" width="12" style="59" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" style="59" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="59" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="59" customWidth="1"/>
-    <col min="15" max="15" width="21" style="59" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="59" customWidth="1"/>
-    <col min="17" max="17" width="7.83203125" style="59" customWidth="1"/>
-    <col min="18" max="16384" width="11.5" style="59"/>
+    <col min="1" max="1" width="9.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="21" style="59" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="59" customWidth="1"/>
+    <col min="7" max="7" width="24" style="59" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="62" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" style="59" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="59" customWidth="1"/>
+    <col min="12" max="12" width="12" style="59" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="59" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="59" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="59" customWidth="1"/>
+    <col min="16" max="16" width="21" style="59" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="59" customWidth="1"/>
+    <col min="18" max="18" width="7.83203125" style="59" customWidth="1"/>
+    <col min="19" max="16384" width="11.5" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="58" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:18" s="58" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="C1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="D1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="E1" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="F1" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="G1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="H1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="I1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="J1" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="K1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="L1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="M1" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="N1" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="O1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="70" t="s">
+      <c r="P1" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="Q1" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="R1" s="71" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="59">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="C2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="74">
+      <c r="D2" s="74">
         <f>_measures_details!B15</f>
         <v>40572510.205771826</v>
       </c>
-      <c r="D2" s="84">
-        <v>1</v>
-      </c>
-      <c r="E2" s="75">
+      <c r="E2" s="84">
+        <v>1</v>
+      </c>
+      <c r="F2" s="75">
         <v>-1</v>
       </c>
-      <c r="F2" s="59">
-        <v>0</v>
-      </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="59">
+        <v>0</v>
+      </c>
+      <c r="H2" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="59">
-        <v>1</v>
-      </c>
       <c r="I2" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="59">
-        <v>0</v>
-      </c>
-      <c r="L2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="59">
+        <v>0</v>
+      </c>
+      <c r="M2" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="N2" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="86">
-        <v>0</v>
-      </c>
-      <c r="O2" s="59">
+      <c r="O2" s="86">
         <v>0</v>
       </c>
       <c r="P2" s="59">
         <v>0</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="59">
+        <v>0</v>
+      </c>
+      <c r="R2" s="59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="59">
+        <v>2</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="63">
+      <c r="D3" s="63">
         <f>_measures_details!B26</f>
         <v>63968125.006875344</v>
       </c>
-      <c r="D3" s="84">
-        <v>1</v>
-      </c>
-      <c r="E3" s="59">
+      <c r="E3" s="84">
+        <v>1</v>
+      </c>
+      <c r="F3" s="59">
         <v>-1</v>
       </c>
-      <c r="F3" s="59">
-        <v>0</v>
-      </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="59">
+        <v>0</v>
+      </c>
+      <c r="H3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="59">
-        <v>1</v>
-      </c>
       <c r="I3" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="59">
+        <v>0</v>
+      </c>
+      <c r="K3" s="59">
         <v>0.8</v>
       </c>
-      <c r="K3" s="59">
-        <v>0</v>
-      </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="59">
+        <v>0</v>
+      </c>
+      <c r="M3" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="N3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="86">
-        <v>0</v>
-      </c>
-      <c r="O3" s="59">
+      <c r="O3" s="86">
         <v>0</v>
       </c>
       <c r="P3" s="59">
         <v>0</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="59">
+        <v>0</v>
+      </c>
+      <c r="R3" s="59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="59">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="C4" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="63">
+      <c r="D4" s="63">
         <f>_measures_details!B34</f>
         <v>22388843.752406374</v>
       </c>
-      <c r="D4" s="84">
-        <v>1</v>
-      </c>
-      <c r="E4" s="59">
-        <v>0</v>
+      <c r="E4" s="84">
+        <v>1</v>
       </c>
       <c r="F4" s="59">
         <v>0</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="59">
+        <v>0</v>
+      </c>
+      <c r="H4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="59">
+      <c r="I4" s="59">
         <v>0.9</v>
       </c>
-      <c r="I4" s="59">
-        <v>0</v>
-      </c>
       <c r="J4" s="59">
+        <v>0</v>
+      </c>
+      <c r="K4" s="59">
         <v>0.9</v>
       </c>
-      <c r="K4" s="59">
-        <v>0</v>
-      </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="59">
+        <v>0</v>
+      </c>
+      <c r="M4" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="N4" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="86">
-        <v>0</v>
-      </c>
-      <c r="O4" s="59">
+      <c r="O4" s="86">
         <v>0</v>
       </c>
       <c r="P4" s="59">
         <v>0</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="59">
+        <v>0</v>
+      </c>
+      <c r="R4" s="59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="59">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="C5" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="63">
+      <c r="D5" s="63">
         <f>_measures_details!B43</f>
         <v>731904375.02062607</v>
       </c>
-      <c r="D5" s="84">
-        <v>1</v>
-      </c>
-      <c r="E5" s="59">
-        <v>0</v>
+      <c r="E5" s="84">
+        <v>1</v>
       </c>
       <c r="F5" s="59">
+        <v>0</v>
+      </c>
+      <c r="G5" s="59">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="H5" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="59">
-        <v>1</v>
-      </c>
       <c r="I5" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="59">
-        <v>0</v>
-      </c>
-      <c r="L5" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="59">
+        <v>0</v>
+      </c>
+      <c r="M5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="86" t="s">
+      <c r="N5" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="86">
-        <v>0</v>
-      </c>
-      <c r="O5" s="59">
+      <c r="O5" s="86">
         <v>0</v>
       </c>
       <c r="P5" s="59">
         <v>0</v>
       </c>
-      <c r="Q5" s="59" t="s">
+      <c r="Q5" s="59">
+        <v>0</v>
+      </c>
+      <c r="R5" s="59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="C6" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="63">
+      <c r="D6" s="63">
         <f>_measures_details!B22</f>
         <v>3911963265.4766488</v>
       </c>
-      <c r="D6" s="84">
-        <v>1</v>
-      </c>
-      <c r="E6" s="59">
+      <c r="E6" s="84">
+        <v>1</v>
+      </c>
+      <c r="F6" s="59">
         <v>-2</v>
       </c>
-      <c r="F6" s="59">
-        <v>0</v>
-      </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="59">
+        <v>0</v>
+      </c>
+      <c r="H6" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="59">
+      <c r="I6" s="59">
         <v>0.9</v>
       </c>
-      <c r="I6" s="59">
+      <c r="J6" s="59">
         <v>-0.1</v>
       </c>
-      <c r="J6" s="59">
+      <c r="K6" s="59">
         <v>0.9</v>
       </c>
-      <c r="K6" s="59">
-        <v>0</v>
-      </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="59">
+        <v>0</v>
+      </c>
+      <c r="M6" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="N6" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="86">
-        <v>0</v>
-      </c>
-      <c r="O6" s="59">
+      <c r="O6" s="86">
         <v>0</v>
       </c>
       <c r="P6" s="59">
         <v>0</v>
       </c>
-      <c r="Q6" s="59" t="s">
+      <c r="Q6" s="59">
+        <v>0</v>
+      </c>
+      <c r="R6" s="59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="59" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="59">
+        <v>6</v>
+      </c>
+      <c r="B7" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="C7" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="63">
+      <c r="D7" s="63">
         <v>10000000</v>
       </c>
-      <c r="D7" s="84">
-        <v>1</v>
-      </c>
-      <c r="E7" s="59">
-        <v>0</v>
+      <c r="E7" s="84">
+        <v>1</v>
       </c>
       <c r="F7" s="59">
         <v>0</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="59">
+        <v>0</v>
+      </c>
+      <c r="H7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="59">
-        <v>1</v>
-      </c>
       <c r="I7" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="59">
-        <v>0</v>
-      </c>
-      <c r="L7" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="59">
+        <v>0</v>
+      </c>
+      <c r="M7" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="N7" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="86">
-        <v>0</v>
-      </c>
-      <c r="O7" s="59">
+      <c r="O7" s="86">
         <v>0</v>
       </c>
       <c r="P7" s="59">
         <v>0</v>
       </c>
-      <c r="Q7" s="59" t="s">
+      <c r="Q7" s="59">
+        <v>0</v>
+      </c>
+      <c r="R7" s="59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="59">
+        <v>7</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="C8" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="61">
-        <f>1000000+2%*P8</f>
+      <c r="D8" s="61">
+        <f>1000000+2%*Q8</f>
         <v>21000000</v>
       </c>
-      <c r="D8" s="84">
-        <v>1</v>
-      </c>
-      <c r="E8" s="59">
-        <v>0</v>
+      <c r="E8" s="84">
+        <v>1</v>
       </c>
       <c r="F8" s="59">
         <v>0</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="59">
+        <v>0</v>
+      </c>
+      <c r="H8" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="59">
-        <v>1</v>
-      </c>
       <c r="I8" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="59">
-        <v>0</v>
-      </c>
-      <c r="L8" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="59">
+        <v>0</v>
+      </c>
+      <c r="M8" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="86" t="s">
+      <c r="N8" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="86">
-        <v>0</v>
-      </c>
-      <c r="O8" s="61">
+      <c r="O8" s="86">
+        <v>0</v>
+      </c>
+      <c r="P8" s="61">
         <v>500000000</v>
       </c>
-      <c r="P8" s="61">
+      <c r="Q8" s="61">
         <v>1000000000</v>
       </c>
-      <c r="Q8" s="59" t="s">
+      <c r="R8" s="59" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13169,17 +13285,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.83203125" bestFit="1" customWidth="1"/>
     <col min="257" max="261" width="10.83203125" customWidth="1"/>
     <col min="263" max="266" width="10.83203125" customWidth="1"/>
     <col min="269" max="269" width="10.83203125" customWidth="1"/>
@@ -15484,6 +15600,105 @@
         <v>2017</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="88">
+        <v>1</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="88">
+        <v>3</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="88">
+        <v>1</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="88">
+        <v>2</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="88">
+        <v>3</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="88">
+        <v>4</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="88">
+        <v>5</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="88">
+        <v>6</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="88">
+        <v>7</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
